--- a/COMMUNICATIONS/OPAC Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/OPAC Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="1370">
   <si>
     <t>AWACS</t>
   </si>
@@ -3471,15 +3471,9 @@
     <t>#IFF:5603FR</t>
   </si>
   <si>
-    <t>London (range 14)</t>
-  </si>
-  <si>
     <t>282.77</t>
   </si>
   <si>
-    <t>127.33</t>
-  </si>
-  <si>
     <t>283.77</t>
   </si>
   <si>
@@ -4132,6 +4126,15 @@
   </si>
   <si>
     <t>WIZARD(AI)</t>
+  </si>
+  <si>
+    <t>LONDON</t>
+  </si>
+  <si>
+    <t>127.35</t>
+  </si>
+  <si>
+    <t>127.15</t>
   </si>
 </sst>
 </file>
@@ -5996,7 +5999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="452">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6648,373 +6651,7 @@
     <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7069,6 +6706,288 @@
     <xf numFmtId="0" fontId="37" fillId="26" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7078,92 +6997,179 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7598,8 +7604,8 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AP95"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7706,13 +7712,13 @@
       <c r="N2" s="107" t="s">
         <v>329</v>
       </c>
-      <c r="V2" s="280" t="s">
+      <c r="V2" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="280"/>
-      <c r="X2" s="280"/>
-      <c r="Y2" s="280"/>
-      <c r="Z2" s="280"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324"/>
+      <c r="Y2" s="324"/>
+      <c r="Z2" s="324"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="107" t="s">
@@ -7761,9 +7767,9 @@
       <c r="P3" t="s">
         <v>425</v>
       </c>
-      <c r="R3" s="279"/>
-      <c r="S3" s="279"/>
-      <c r="T3" s="279"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="328"/>
+      <c r="T3" s="328"/>
       <c r="V3" s="101" t="s">
         <v>328</v>
       </c>
@@ -7845,22 +7851,22 @@
       <c r="AA4" s="23"/>
       <c r="AB4" s="23"/>
       <c r="AC4" s="23"/>
-      <c r="AD4" s="280" t="s">
+      <c r="AD4" s="324" t="s">
         <v>428</v>
       </c>
-      <c r="AE4" s="280"/>
-      <c r="AF4" s="280"/>
-      <c r="AG4" s="280"/>
-      <c r="AH4" s="280"/>
-      <c r="AJ4" s="280" t="s">
+      <c r="AE4" s="324"/>
+      <c r="AF4" s="324"/>
+      <c r="AG4" s="324"/>
+      <c r="AH4" s="324"/>
+      <c r="AJ4" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="280"/>
-      <c r="AL4" s="280"/>
-      <c r="AM4" s="280"/>
-      <c r="AN4" s="280"/>
-      <c r="AO4" s="280"/>
-      <c r="AP4" s="280"/>
+      <c r="AK4" s="324"/>
+      <c r="AL4" s="324"/>
+      <c r="AM4" s="324"/>
+      <c r="AN4" s="324"/>
+      <c r="AO4" s="324"/>
+      <c r="AP4" s="324"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="107" t="s">
@@ -8813,19 +8819,19 @@
         <v>462</v>
       </c>
       <c r="AJ15" s="248" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="AK15" s="248" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="AL15" s="250" t="s">
         <v>509</v>
       </c>
       <c r="AM15" s="247" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="AN15" s="247" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="AO15" s="247">
         <v>5404</v>
@@ -8882,14 +8888,14 @@
       <c r="R16" s="100"/>
       <c r="S16" s="99"/>
       <c r="V16" s="247" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="W16" s="248" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="X16" s="248"/>
       <c r="Y16" s="247" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="Z16" s="249">
         <v>604</v>
@@ -8953,14 +8959,14 @@
       <c r="Q17" s="2"/>
       <c r="S17" s="99"/>
       <c r="V17" s="247" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="W17" s="248" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="X17" s="248"/>
       <c r="Y17" s="247" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="Z17" s="249">
         <v>605</v>
@@ -9026,14 +9032,14 @@
       <c r="S18" s="99"/>
       <c r="T18" s="24"/>
       <c r="V18" s="251" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="W18" s="251" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="X18" s="251"/>
       <c r="Y18" s="251" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="Z18" s="251">
         <v>611</v>
@@ -9049,15 +9055,15 @@
       <c r="AH18" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="AJ18" s="280" t="s">
+      <c r="AJ18" s="324" t="s">
         <v>274</v>
       </c>
-      <c r="AK18" s="280"/>
-      <c r="AL18" s="280"/>
-      <c r="AM18" s="280"/>
-      <c r="AN18" s="280"/>
-      <c r="AO18" s="280"/>
-      <c r="AP18" s="280"/>
+      <c r="AK18" s="324"/>
+      <c r="AL18" s="324"/>
+      <c r="AM18" s="324"/>
+      <c r="AN18" s="324"/>
+      <c r="AO18" s="324"/>
+      <c r="AP18" s="324"/>
     </row>
     <row r="19" spans="1:42" ht="15.75">
       <c r="A19" s="107" t="s">
@@ -9111,11 +9117,11 @@
         <v>282</v>
       </c>
       <c r="W19" s="247" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="X19" s="247"/>
       <c r="Y19" s="247" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="Z19" s="247">
         <v>612</v>
@@ -9190,19 +9196,19 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="279"/>
-      <c r="S20" s="279"/>
-      <c r="T20" s="279"/>
+      <c r="R20" s="328"/>
+      <c r="S20" s="328"/>
+      <c r="T20" s="328"/>
       <c r="U20" s="2"/>
       <c r="V20" s="249" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="W20" s="249" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="X20" s="248"/>
       <c r="Y20" s="247" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="Z20" s="249">
         <v>613</v>
@@ -9285,10 +9291,10 @@
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
       <c r="V21" s="251" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="W21" s="251" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="X21" s="251"/>
       <c r="Y21" s="251" t="s">
@@ -9587,13 +9593,13 @@
       <c r="R25" s="24"/>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
-      <c r="AD25" s="280" t="s">
+      <c r="AD25" s="324" t="s">
         <v>485</v>
       </c>
-      <c r="AE25" s="280"/>
-      <c r="AF25" s="280"/>
-      <c r="AG25" s="280"/>
-      <c r="AH25" s="280"/>
+      <c r="AE25" s="324"/>
+      <c r="AF25" s="324"/>
+      <c r="AG25" s="324"/>
+      <c r="AH25" s="324"/>
       <c r="AJ25" s="247" t="s">
         <v>554</v>
       </c>
@@ -9747,15 +9753,15 @@
         <v>484</v>
       </c>
       <c r="AJ27" s="247" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="AK27" s="247" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="AL27" s="250"/>
       <c r="AM27" s="247"/>
       <c r="AN27" s="247" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="AO27" s="247">
         <v>5504</v>
@@ -9851,15 +9857,15 @@
       <c r="N29" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="V29" s="280" t="s">
+      <c r="V29" s="324" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="280"/>
-      <c r="X29" s="280"/>
-      <c r="Y29" s="280"/>
-      <c r="Z29" s="280"/>
-      <c r="AA29" s="280"/>
-      <c r="AB29" s="280"/>
+      <c r="W29" s="324"/>
+      <c r="X29" s="324"/>
+      <c r="Y29" s="324"/>
+      <c r="Z29" s="324"/>
+      <c r="AA29" s="324"/>
+      <c r="AB29" s="324"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="107"/>
@@ -9903,7 +9909,9 @@
       <c r="V30" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="W30" s="29"/>
+      <c r="W30" s="279" t="s">
+        <v>268</v>
+      </c>
       <c r="X30" s="29" t="s">
         <v>223</v>
       </c>
@@ -9915,15 +9923,15 @@
       </c>
       <c r="AA30" s="29"/>
       <c r="AB30" s="29"/>
-      <c r="AJ30" s="280" t="s">
+      <c r="AJ30" s="324" t="s">
         <v>781</v>
       </c>
-      <c r="AK30" s="280"/>
-      <c r="AL30" s="280"/>
-      <c r="AM30" s="280"/>
-      <c r="AN30" s="280"/>
-      <c r="AO30" s="280"/>
-      <c r="AP30" s="280"/>
+      <c r="AK30" s="324"/>
+      <c r="AL30" s="324"/>
+      <c r="AM30" s="324"/>
+      <c r="AN30" s="324"/>
+      <c r="AO30" s="324"/>
+      <c r="AP30" s="324"/>
     </row>
     <row r="31" spans="1:42">
       <c r="B31" s="24"/>
@@ -9943,11 +9951,13 @@
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
       <c r="V31" s="24" t="s">
-        <v>1148</v>
-      </c>
-      <c r="W31" s="24"/>
+        <v>1367</v>
+      </c>
+      <c r="W31" s="24" t="s">
+        <v>1369</v>
+      </c>
       <c r="X31" s="24" t="s">
-        <v>1150</v>
+        <v>1368</v>
       </c>
       <c r="Y31" s="24"/>
       <c r="Z31" s="24"/>
@@ -9982,7 +9992,7 @@
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
       <c r="AJ32" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="AK32" t="s">
         <v>552</v>
@@ -10024,13 +10034,13 @@
     </row>
     <row r="37" spans="20:36">
       <c r="T37" s="232"/>
-      <c r="V37" s="280" t="s">
+      <c r="V37" s="324" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="280"/>
-      <c r="X37" s="280"/>
-      <c r="Y37" s="280"/>
-      <c r="Z37" s="280"/>
+      <c r="W37" s="324"/>
+      <c r="X37" s="324"/>
+      <c r="Y37" s="324"/>
+      <c r="Z37" s="324"/>
       <c r="AA37" s="234"/>
       <c r="AB37" s="234"/>
       <c r="AC37" s="232"/>
@@ -10059,11 +10069,11 @@
       <c r="AA38" s="235"/>
       <c r="AB38" s="235"/>
       <c r="AC38" s="232"/>
-      <c r="AD38" s="281" t="s">
+      <c r="AD38" s="329" t="s">
         <v>260</v>
       </c>
-      <c r="AE38" s="282"/>
-      <c r="AF38" s="283"/>
+      <c r="AE38" s="330"/>
+      <c r="AF38" s="331"/>
       <c r="AG38" s="232"/>
     </row>
     <row r="39" spans="20:36">
@@ -10112,7 +10122,7 @@
         <v>1135</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="AA40" s="236"/>
       <c r="AB40" s="236"/>
@@ -10131,7 +10141,7 @@
     <row r="41" spans="20:36">
       <c r="T41" s="232"/>
       <c r="V41" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="W41" s="188" t="s">
         <v>151</v>
@@ -10195,15 +10205,15 @@
       <c r="AG43" s="232"/>
     </row>
     <row r="44" spans="20:36">
-      <c r="V44" s="280" t="s">
+      <c r="V44" s="324" t="s">
         <v>244</v>
       </c>
-      <c r="W44" s="280"/>
-      <c r="X44" s="280"/>
-      <c r="Y44" s="280"/>
-      <c r="Z44" s="280"/>
-      <c r="AA44" s="280"/>
-      <c r="AB44" s="280"/>
+      <c r="W44" s="324"/>
+      <c r="X44" s="324"/>
+      <c r="Y44" s="324"/>
+      <c r="Z44" s="324"/>
+      <c r="AA44" s="324"/>
+      <c r="AB44" s="324"/>
       <c r="AC44" s="232"/>
       <c r="AD44" s="3" t="s">
         <v>256</v>
@@ -10282,15 +10292,15 @@
       <c r="AG47" s="232"/>
     </row>
     <row r="48" spans="20:36">
-      <c r="V48" s="284" t="s">
+      <c r="V48" s="325" t="s">
         <v>472</v>
       </c>
-      <c r="W48" s="285"/>
-      <c r="X48" s="285"/>
-      <c r="Y48" s="285"/>
-      <c r="Z48" s="285"/>
-      <c r="AA48" s="285"/>
-      <c r="AB48" s="286"/>
+      <c r="W48" s="326"/>
+      <c r="X48" s="326"/>
+      <c r="Y48" s="326"/>
+      <c r="Z48" s="326"/>
+      <c r="AA48" s="326"/>
+      <c r="AB48" s="327"/>
       <c r="AC48" s="232"/>
       <c r="AD48" s="3" t="s">
         <v>261</v>
@@ -10456,7 +10466,7 @@
         <v>848</v>
       </c>
       <c r="Y54" s="177" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="Z54" s="177"/>
       <c r="AA54" s="177" t="s">
@@ -10488,14 +10498,14 @@
         <v>849</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="180"/>
       <c r="AC55" s="232"/>
       <c r="AD55" s="209" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="AE55" s="188" t="s">
         <v>370</v>
@@ -10523,7 +10533,7 @@
       <c r="AB56" s="183"/>
       <c r="AC56" s="232"/>
       <c r="AD56" s="209" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="AE56" s="188" t="s">
         <v>78</v>
@@ -10596,7 +10606,7 @@
         <v>846</v>
       </c>
       <c r="Y60" s="177" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="Z60" s="177"/>
       <c r="AA60" s="177"/>
@@ -10616,7 +10626,7 @@
         <v>847</v>
       </c>
       <c r="Y61" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
@@ -10643,10 +10653,10 @@
         <v>818</v>
       </c>
       <c r="X63" s="252" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="Y63" s="177" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="Z63" s="177"/>
       <c r="AA63" s="177"/>
@@ -10662,10 +10672,10 @@
         <v>249</v>
       </c>
       <c r="X64" s="253" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="Y64" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
@@ -10748,7 +10758,7 @@
         <v>858</v>
       </c>
       <c r="Y69" s="177" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="Z69" s="177"/>
       <c r="AA69" s="177"/>
@@ -10767,7 +10777,7 @@
         <v>859</v>
       </c>
       <c r="Y70" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
@@ -10815,7 +10825,7 @@
         <v>249</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
@@ -10970,7 +10980,7 @@
       <c r="AB82" s="180"/>
     </row>
     <row r="83" spans="22:28" ht="15.75" thickBot="1">
-      <c r="V83" s="402" t="s">
+      <c r="V83" s="280" t="s">
         <v>825</v>
       </c>
       <c r="W83" s="243" t="s">
@@ -10988,13 +10998,13 @@
     </row>
     <row r="84" spans="22:28">
       <c r="V84" s="245" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="W84" s="246" t="s">
         <v>268</v>
       </c>
       <c r="X84" s="246" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Y84" s="177"/>
       <c r="Z84" s="177"/>
@@ -11007,7 +11017,7 @@
         <v>249</v>
       </c>
       <c r="X85" s="209" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
@@ -11025,13 +11035,13 @@
     </row>
     <row r="87" spans="22:28">
       <c r="V87" s="176" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="W87" s="177" t="s">
         <v>268</v>
       </c>
       <c r="X87" s="177" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="Y87" s="177"/>
       <c r="Z87" s="177"/>
@@ -11044,7 +11054,7 @@
         <v>249</v>
       </c>
       <c r="X88" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
@@ -11089,13 +11099,13 @@
     </row>
     <row r="93" spans="22:28">
       <c r="V93" s="176" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W93" s="246" t="s">
         <v>268</v>
       </c>
       <c r="X93" s="177" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="Y93" s="177"/>
       <c r="Z93" s="177"/>
@@ -11108,7 +11118,7 @@
         <v>249</v>
       </c>
       <c r="X94" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
@@ -11126,11 +11136,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="V44:AB44"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:Z37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -11139,6 +11144,11 @@
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD25:AH25"/>
     <mergeCell ref="AJ30:AP30"/>
+    <mergeCell ref="V44:AB44"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:Z37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11166,40 +11176,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="413" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="363"/>
-      <c r="C1" s="363"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="363"/>
-      <c r="F1" s="363"/>
-      <c r="G1" s="363"/>
-      <c r="H1" s="364"/>
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="414"/>
+      <c r="G1" s="414"/>
+      <c r="H1" s="415"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="365"/>
-      <c r="B2" s="366"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="367"/>
+      <c r="A2" s="416"/>
+      <c r="B2" s="417"/>
+      <c r="C2" s="417"/>
+      <c r="D2" s="417"/>
+      <c r="E2" s="417"/>
+      <c r="F2" s="417"/>
+      <c r="G2" s="417"/>
+      <c r="H2" s="418"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="368" t="s">
+      <c r="A3" s="419" t="s">
         <v>701</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="368" t="s">
+      <c r="B3" s="420"/>
+      <c r="C3" s="420"/>
+      <c r="D3" s="421"/>
+      <c r="E3" s="419" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="370"/>
+      <c r="F3" s="420"/>
+      <c r="G3" s="420"/>
+      <c r="H3" s="421"/>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="159">
@@ -11672,18 +11682,18 @@
       <c r="H24" s="139"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A25" s="371" t="s">
+      <c r="A25" s="422" t="s">
         <v>314</v>
       </c>
-      <c r="B25" s="372"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="373"/>
-      <c r="E25" s="371" t="s">
+      <c r="B25" s="423"/>
+      <c r="C25" s="423"/>
+      <c r="D25" s="424"/>
+      <c r="E25" s="422" t="s">
         <v>751</v>
       </c>
-      <c r="F25" s="372"/>
-      <c r="G25" s="372"/>
-      <c r="H25" s="373"/>
+      <c r="F25" s="423"/>
+      <c r="G25" s="423"/>
+      <c r="H25" s="424"/>
     </row>
     <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="148">
@@ -12098,40 +12108,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="391" t="s">
+      <c r="A1" s="425" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="425"/>
+      <c r="D1" s="425"/>
+      <c r="E1" s="425"/>
+      <c r="F1" s="425"/>
+      <c r="G1" s="425"/>
+      <c r="H1" s="425"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="392"/>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
+      <c r="A2" s="426"/>
+      <c r="B2" s="426"/>
+      <c r="C2" s="426"/>
+      <c r="D2" s="426"/>
+      <c r="E2" s="426"/>
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="426"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="427" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="395"/>
-      <c r="D3" s="396"/>
-      <c r="E3" s="393" t="s">
+      <c r="B3" s="428"/>
+      <c r="C3" s="429"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="427" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="394"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="396"/>
+      <c r="F3" s="428"/>
+      <c r="G3" s="429"/>
+      <c r="H3" s="430"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="31">
@@ -12424,114 +12434,114 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="393" t="s">
+      <c r="A25" s="427" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="394"/>
-      <c r="C25" s="395"/>
-      <c r="D25" s="396"/>
-      <c r="E25" s="393" t="s">
+      <c r="B25" s="428"/>
+      <c r="C25" s="429"/>
+      <c r="D25" s="430"/>
+      <c r="E25" s="427" t="s">
         <v>290</v>
       </c>
-      <c r="F25" s="394"/>
-      <c r="G25" s="395"/>
-      <c r="H25" s="396"/>
+      <c r="F25" s="428"/>
+      <c r="G25" s="429"/>
+      <c r="H25" s="430"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="B26" s="380"/>
-      <c r="C26" s="381"/>
-      <c r="D26" s="382"/>
+      <c r="B26" s="431"/>
+      <c r="C26" s="432"/>
+      <c r="D26" s="433"/>
       <c r="E26" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="F26" s="388"/>
-      <c r="G26" s="389"/>
-      <c r="H26" s="390"/>
+      <c r="F26" s="434"/>
+      <c r="G26" s="435"/>
+      <c r="H26" s="436"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="B27" s="383"/>
-      <c r="C27" s="384"/>
-      <c r="D27" s="386"/>
+      <c r="B27" s="437"/>
+      <c r="C27" s="438"/>
+      <c r="D27" s="439"/>
       <c r="E27" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="F27" s="380"/>
-      <c r="G27" s="381"/>
-      <c r="H27" s="387"/>
+      <c r="F27" s="431"/>
+      <c r="G27" s="432"/>
+      <c r="H27" s="440"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="380"/>
-      <c r="C28" s="381"/>
-      <c r="D28" s="382"/>
+      <c r="B28" s="431"/>
+      <c r="C28" s="432"/>
+      <c r="D28" s="433"/>
       <c r="E28" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="F28" s="383"/>
-      <c r="G28" s="384"/>
-      <c r="H28" s="385"/>
+      <c r="F28" s="437"/>
+      <c r="G28" s="438"/>
+      <c r="H28" s="441"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="B29" s="383"/>
-      <c r="C29" s="384"/>
-      <c r="D29" s="386"/>
+      <c r="B29" s="437"/>
+      <c r="C29" s="438"/>
+      <c r="D29" s="439"/>
       <c r="E29" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="F29" s="380"/>
-      <c r="G29" s="381"/>
-      <c r="H29" s="387"/>
+      <c r="F29" s="431"/>
+      <c r="G29" s="432"/>
+      <c r="H29" s="440"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="380"/>
-      <c r="C30" s="381"/>
-      <c r="D30" s="382"/>
+      <c r="B30" s="431"/>
+      <c r="C30" s="432"/>
+      <c r="D30" s="433"/>
       <c r="E30" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="F30" s="383"/>
-      <c r="G30" s="384"/>
-      <c r="H30" s="385"/>
+      <c r="F30" s="437"/>
+      <c r="G30" s="438"/>
+      <c r="H30" s="441"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="B31" s="383"/>
-      <c r="C31" s="384"/>
-      <c r="D31" s="386"/>
+      <c r="B31" s="437"/>
+      <c r="C31" s="438"/>
+      <c r="D31" s="439"/>
       <c r="E31" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="F31" s="380"/>
-      <c r="G31" s="381"/>
-      <c r="H31" s="387"/>
+      <c r="F31" s="431"/>
+      <c r="G31" s="432"/>
+      <c r="H31" s="440"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="B32" s="380"/>
-      <c r="C32" s="381"/>
-      <c r="D32" s="382"/>
+      <c r="B32" s="431"/>
+      <c r="C32" s="432"/>
+      <c r="D32" s="433"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="383"/>
-      <c r="G32" s="384"/>
-      <c r="H32" s="385" t="s">
+      <c r="F32" s="437"/>
+      <c r="G32" s="438"/>
+      <c r="H32" s="441" t="s">
         <v>242</v>
       </c>
     </row>
@@ -12539,13 +12549,13 @@
       <c r="A33" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="383"/>
-      <c r="C33" s="384"/>
-      <c r="D33" s="386"/>
+      <c r="B33" s="437"/>
+      <c r="C33" s="438"/>
+      <c r="D33" s="439"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="380"/>
-      <c r="G33" s="381"/>
-      <c r="H33" s="387" t="s">
+      <c r="F33" s="431"/>
+      <c r="G33" s="432"/>
+      <c r="H33" s="440" t="s">
         <v>284</v>
       </c>
     </row>
@@ -12553,13 +12563,13 @@
       <c r="A34" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="B34" s="380"/>
-      <c r="C34" s="381"/>
-      <c r="D34" s="382"/>
+      <c r="B34" s="431"/>
+      <c r="C34" s="432"/>
+      <c r="D34" s="433"/>
       <c r="E34" s="43"/>
-      <c r="F34" s="383"/>
-      <c r="G34" s="384"/>
-      <c r="H34" s="385" t="s">
+      <c r="F34" s="437"/>
+      <c r="G34" s="438"/>
+      <c r="H34" s="441" t="s">
         <v>285</v>
       </c>
     </row>
@@ -12567,13 +12577,13 @@
       <c r="A35" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="B35" s="383"/>
-      <c r="C35" s="384"/>
-      <c r="D35" s="386"/>
+      <c r="B35" s="437"/>
+      <c r="C35" s="438"/>
+      <c r="D35" s="439"/>
       <c r="E35" s="35"/>
-      <c r="F35" s="380"/>
-      <c r="G35" s="381"/>
-      <c r="H35" s="387" t="s">
+      <c r="F35" s="431"/>
+      <c r="G35" s="432"/>
+      <c r="H35" s="440" t="s">
         <v>286</v>
       </c>
     </row>
@@ -12581,13 +12591,13 @@
       <c r="A36" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="380"/>
-      <c r="C36" s="381"/>
-      <c r="D36" s="382"/>
+      <c r="B36" s="431"/>
+      <c r="C36" s="432"/>
+      <c r="D36" s="433"/>
       <c r="E36" s="43"/>
-      <c r="F36" s="383"/>
-      <c r="G36" s="384"/>
-      <c r="H36" s="385" t="s">
+      <c r="F36" s="437"/>
+      <c r="G36" s="438"/>
+      <c r="H36" s="441" t="s">
         <v>287</v>
       </c>
     </row>
@@ -12595,13 +12605,13 @@
       <c r="A37" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="B37" s="383"/>
-      <c r="C37" s="384"/>
-      <c r="D37" s="386"/>
+      <c r="B37" s="437"/>
+      <c r="C37" s="438"/>
+      <c r="D37" s="439"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="380"/>
-      <c r="G37" s="381"/>
-      <c r="H37" s="387" t="s">
+      <c r="F37" s="431"/>
+      <c r="G37" s="432"/>
+      <c r="H37" s="440" t="s">
         <v>288</v>
       </c>
     </row>
@@ -12609,13 +12619,13 @@
       <c r="A38" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="B38" s="380"/>
-      <c r="C38" s="381"/>
-      <c r="D38" s="382"/>
+      <c r="B38" s="431"/>
+      <c r="C38" s="432"/>
+      <c r="D38" s="433"/>
       <c r="E38" s="43"/>
-      <c r="F38" s="383"/>
-      <c r="G38" s="384"/>
-      <c r="H38" s="385" t="s">
+      <c r="F38" s="437"/>
+      <c r="G38" s="438"/>
+      <c r="H38" s="441" t="s">
         <v>241</v>
       </c>
     </row>
@@ -12623,13 +12633,13 @@
       <c r="A39" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="B39" s="383"/>
-      <c r="C39" s="384"/>
-      <c r="D39" s="386"/>
+      <c r="B39" s="437"/>
+      <c r="C39" s="438"/>
+      <c r="D39" s="439"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="380"/>
-      <c r="G39" s="381"/>
-      <c r="H39" s="387" t="s">
+      <c r="F39" s="431"/>
+      <c r="G39" s="432"/>
+      <c r="H39" s="440" t="s">
         <v>242</v>
       </c>
     </row>
@@ -12637,57 +12647,28 @@
       <c r="A40" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="B40" s="380"/>
-      <c r="C40" s="381"/>
-      <c r="D40" s="382"/>
+      <c r="B40" s="431"/>
+      <c r="C40" s="432"/>
+      <c r="D40" s="433"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="383"/>
-      <c r="G40" s="384"/>
-      <c r="H40" s="385"/>
+      <c r="F40" s="437"/>
+      <c r="G40" s="438"/>
+      <c r="H40" s="441"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="B41" s="374"/>
-      <c r="C41" s="375"/>
-      <c r="D41" s="376"/>
+      <c r="B41" s="442"/>
+      <c r="C41" s="443"/>
+      <c r="D41" s="444"/>
       <c r="E41" s="60"/>
-      <c r="F41" s="377"/>
-      <c r="G41" s="378"/>
-      <c r="H41" s="379"/>
+      <c r="F41" s="445"/>
+      <c r="G41" s="446"/>
+      <c r="H41" s="447"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -12696,6 +12677,35 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12732,14 +12742,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="232"/>
-      <c r="B2" s="397" t="s">
+      <c r="B2" s="448" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="399"/>
+      <c r="C2" s="449"/>
+      <c r="D2" s="449"/>
+      <c r="E2" s="449"/>
+      <c r="F2" s="449"/>
+      <c r="G2" s="450"/>
       <c r="H2" s="232"/>
     </row>
     <row r="3" spans="1:8">
@@ -12767,7 +12777,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="232"/>
       <c r="B4" s="240" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C4" s="233" t="s">
         <v>516</v>
@@ -12854,14 +12864,14 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="232"/>
-      <c r="B8" s="400" t="s">
+      <c r="B8" s="451" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="280"/>
-      <c r="D8" s="280"/>
-      <c r="E8" s="280"/>
-      <c r="F8" s="280"/>
-      <c r="G8" s="401"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="452"/>
       <c r="H8" s="232"/>
     </row>
     <row r="9" spans="1:8">
@@ -12889,7 +12899,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="232"/>
       <c r="B10" s="179" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>513</v>
@@ -12911,7 +12921,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="232"/>
       <c r="B11" s="179" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>541</v>
@@ -12933,7 +12943,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="232"/>
       <c r="B12" s="179" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>543</v>
@@ -12955,7 +12965,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="232"/>
       <c r="B13" s="179" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>546</v>
@@ -12976,14 +12986,14 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="232"/>
-      <c r="B14" s="400" t="s">
+      <c r="B14" s="451" t="s">
         <v>781</v>
       </c>
-      <c r="C14" s="280"/>
-      <c r="D14" s="280"/>
-      <c r="E14" s="280"/>
-      <c r="F14" s="280"/>
-      <c r="G14" s="401"/>
+      <c r="C14" s="324"/>
+      <c r="D14" s="324"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="324"/>
+      <c r="G14" s="452"/>
       <c r="H14" s="232"/>
     </row>
     <row r="15" spans="1:8">
@@ -13105,55 +13115,55 @@
       </c>
     </row>
     <row r="2" spans="2:42">
-      <c r="B2" s="280" t="s">
+      <c r="B2" s="324" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="H2" s="280" t="s">
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="H2" s="324" t="s">
         <v>965</v>
       </c>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="N2" s="280" t="s">
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="N2" s="324" t="s">
         <v>964</v>
       </c>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
-      <c r="R2" s="280"/>
-      <c r="T2" s="280" t="s">
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="324"/>
+      <c r="T2" s="324" t="s">
         <v>236</v>
       </c>
-      <c r="U2" s="280"/>
-      <c r="V2" s="280"/>
-      <c r="W2" s="280"/>
-      <c r="X2" s="280"/>
-      <c r="Z2" s="280" t="s">
+      <c r="U2" s="324"/>
+      <c r="V2" s="324"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324"/>
+      <c r="Z2" s="324" t="s">
         <v>246</v>
       </c>
-      <c r="AA2" s="280"/>
-      <c r="AB2" s="280"/>
-      <c r="AC2" s="280"/>
-      <c r="AD2" s="280"/>
-      <c r="AF2" s="280" t="s">
+      <c r="AA2" s="324"/>
+      <c r="AB2" s="324"/>
+      <c r="AC2" s="324"/>
+      <c r="AD2" s="324"/>
+      <c r="AF2" s="324" t="s">
         <v>317</v>
       </c>
-      <c r="AG2" s="280"/>
-      <c r="AH2" s="280"/>
-      <c r="AI2" s="280"/>
-      <c r="AJ2" s="280"/>
-      <c r="AL2" s="280" t="s">
+      <c r="AG2" s="324"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="324"/>
+      <c r="AJ2" s="324"/>
+      <c r="AL2" s="324" t="s">
         <v>490</v>
       </c>
-      <c r="AM2" s="280"/>
-      <c r="AN2" s="280"/>
-      <c r="AO2" s="280"/>
-      <c r="AP2" s="280"/>
+      <c r="AM2" s="324"/>
+      <c r="AN2" s="324"/>
+      <c r="AO2" s="324"/>
+      <c r="AP2" s="324"/>
     </row>
     <row r="3" spans="2:42">
       <c r="B3" s="101" t="s">
@@ -14015,7 +14025,7 @@
         <v>1124</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>825</v>
@@ -14084,10 +14094,10 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AL17" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="AN17" s="209">
         <v>641</v>
@@ -14337,7 +14347,7 @@
         <v>1040</v>
       </c>
       <c r="T22" s="230" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>825</v>
@@ -14346,10 +14356,10 @@
         <v>151</v>
       </c>
       <c r="W22" s="209" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="X22" s="104" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -14371,10 +14381,10 @@
         <v>152</v>
       </c>
       <c r="W23" s="209" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="X23" s="104" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -14416,10 +14426,10 @@
         <v>153</v>
       </c>
       <c r="W24" s="209" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="X24" s="104" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -14451,10 +14461,10 @@
         <v>154</v>
       </c>
       <c r="W25" s="209" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="X25" s="104" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -14510,7 +14520,7 @@
         <v>1036</v>
       </c>
       <c r="T27" s="230" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>825</v>
@@ -14519,10 +14529,10 @@
         <v>161</v>
       </c>
       <c r="W27" s="209" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="X27" s="104" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -14542,10 +14552,10 @@
         <v>162</v>
       </c>
       <c r="W28" s="209" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="X28" s="104" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -14585,10 +14595,10 @@
         <v>163</v>
       </c>
       <c r="W29" s="209" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="X29" s="104" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -14620,10 +14630,10 @@
         <v>164</v>
       </c>
       <c r="W30" s="209" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="X30" s="104" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -14787,20 +14797,20 @@
       <c r="X39" s="59"/>
     </row>
     <row r="41" spans="2:24">
-      <c r="B41" s="280" t="s">
+      <c r="B41" s="324" t="s">
         <v>648</v>
       </c>
-      <c r="C41" s="280"/>
-      <c r="D41" s="280"/>
-      <c r="E41" s="280"/>
-      <c r="F41" s="280"/>
-      <c r="H41" s="280" t="s">
+      <c r="C41" s="324"/>
+      <c r="D41" s="324"/>
+      <c r="E41" s="324"/>
+      <c r="F41" s="324"/>
+      <c r="H41" s="324" t="s">
         <v>700</v>
       </c>
-      <c r="I41" s="280"/>
-      <c r="J41" s="280"/>
-      <c r="K41" s="280"/>
-      <c r="L41" s="280"/>
+      <c r="I41" s="324"/>
+      <c r="J41" s="324"/>
+      <c r="K41" s="324"/>
+      <c r="L41" s="324"/>
     </row>
     <row r="42" spans="2:24">
       <c r="B42" s="101" t="s">
@@ -15337,39 +15347,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="296" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="298"/>
+      <c r="A1" s="348" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="350"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="293" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B2" s="294"/>
-      <c r="C2" s="295"/>
+      <c r="A2" s="345" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B2" s="346"/>
+      <c r="C2" s="347"/>
       <c r="D2" s="199"/>
-      <c r="E2" s="293" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F2" s="294"/>
-      <c r="G2" s="295"/>
+      <c r="E2" s="345" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F2" s="346"/>
+      <c r="G2" s="347"/>
       <c r="H2" s="199"/>
-      <c r="I2" s="293" t="s">
+      <c r="I2" s="345" t="s">
         <v>964</v>
       </c>
-      <c r="J2" s="294"/>
-      <c r="K2" s="295"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="347"/>
       <c r="L2" s="119"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1">
@@ -15405,7 +15415,7 @@
       <c r="L3" s="119"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="332" t="s">
         <v>325</v>
       </c>
       <c r="B4" s="128" t="s">
@@ -15415,8 +15425,8 @@
         <v>655</v>
       </c>
       <c r="D4" s="196"/>
-      <c r="E4" s="290" t="s">
-        <v>1359</v>
+      <c r="E4" s="342" t="s">
+        <v>1357</v>
       </c>
       <c r="F4" s="128" t="s">
         <v>911</v>
@@ -15425,7 +15435,7 @@
         <v>938</v>
       </c>
       <c r="H4" s="122"/>
-      <c r="I4" s="290" t="s">
+      <c r="I4" s="342" t="s">
         <v>967</v>
       </c>
       <c r="J4" s="128" t="s">
@@ -15437,7 +15447,7 @@
       <c r="L4" s="119"/>
     </row>
     <row r="5" spans="1:12" ht="18.75">
-      <c r="A5" s="288"/>
+      <c r="A5" s="333"/>
       <c r="B5" s="127" t="s">
         <v>322</v>
       </c>
@@ -15445,7 +15455,7 @@
         <v>656</v>
       </c>
       <c r="D5" s="196"/>
-      <c r="E5" s="291"/>
+      <c r="E5" s="343"/>
       <c r="F5" s="127" t="s">
         <v>912</v>
       </c>
@@ -15453,7 +15463,7 @@
         <v>939</v>
       </c>
       <c r="H5" s="122"/>
-      <c r="I5" s="291"/>
+      <c r="I5" s="343"/>
       <c r="J5" s="127" t="s">
         <v>1002</v>
       </c>
@@ -15463,7 +15473,7 @@
       <c r="L5" s="119"/>
     </row>
     <row r="6" spans="1:12" ht="18.75">
-      <c r="A6" s="288"/>
+      <c r="A6" s="333"/>
       <c r="B6" s="127" t="s">
         <v>323</v>
       </c>
@@ -15471,7 +15481,7 @@
         <v>657</v>
       </c>
       <c r="D6" s="196"/>
-      <c r="E6" s="291"/>
+      <c r="E6" s="343"/>
       <c r="F6" s="127" t="s">
         <v>913</v>
       </c>
@@ -15479,7 +15489,7 @@
         <v>940</v>
       </c>
       <c r="H6" s="122"/>
-      <c r="I6" s="291"/>
+      <c r="I6" s="343"/>
       <c r="J6" s="127" t="s">
         <v>1003</v>
       </c>
@@ -15489,7 +15499,7 @@
       <c r="L6" s="119"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A7" s="289"/>
+      <c r="A7" s="334"/>
       <c r="B7" s="131" t="s">
         <v>324</v>
       </c>
@@ -15497,7 +15507,7 @@
         <v>658</v>
       </c>
       <c r="D7" s="196"/>
-      <c r="E7" s="292"/>
+      <c r="E7" s="344"/>
       <c r="F7" s="131" t="s">
         <v>914</v>
       </c>
@@ -15505,7 +15515,7 @@
         <v>941</v>
       </c>
       <c r="H7" s="122"/>
-      <c r="I7" s="292"/>
+      <c r="I7" s="344"/>
       <c r="J7" s="131" t="s">
         <v>1004</v>
       </c>
@@ -15515,7 +15525,7 @@
       <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" ht="18.75">
-      <c r="A8" s="287" t="s">
+      <c r="A8" s="332" t="s">
         <v>618</v>
       </c>
       <c r="B8" s="128" t="s">
@@ -15525,7 +15535,7 @@
         <v>659</v>
       </c>
       <c r="D8" s="196"/>
-      <c r="E8" s="290" t="s">
+      <c r="E8" s="342" t="s">
         <v>968</v>
       </c>
       <c r="F8" s="128" t="s">
@@ -15535,7 +15545,7 @@
         <v>942</v>
       </c>
       <c r="H8" s="122"/>
-      <c r="I8" s="290" t="s">
+      <c r="I8" s="342" t="s">
         <v>968</v>
       </c>
       <c r="J8" s="128" t="s">
@@ -15547,7 +15557,7 @@
       <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" ht="18.75">
-      <c r="A9" s="288"/>
+      <c r="A9" s="333"/>
       <c r="B9" s="127" t="s">
         <v>609</v>
       </c>
@@ -15555,7 +15565,7 @@
         <v>660</v>
       </c>
       <c r="D9" s="196"/>
-      <c r="E9" s="291"/>
+      <c r="E9" s="343"/>
       <c r="F9" s="127" t="s">
         <v>916</v>
       </c>
@@ -15563,7 +15573,7 @@
         <v>943</v>
       </c>
       <c r="H9" s="122"/>
-      <c r="I9" s="291"/>
+      <c r="I9" s="343"/>
       <c r="J9" s="127" t="s">
         <v>1005</v>
       </c>
@@ -15573,7 +15583,7 @@
       <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" ht="18.75">
-      <c r="A10" s="288"/>
+      <c r="A10" s="333"/>
       <c r="B10" s="127" t="s">
         <v>610</v>
       </c>
@@ -15581,7 +15591,7 @@
         <v>661</v>
       </c>
       <c r="D10" s="196"/>
-      <c r="E10" s="291"/>
+      <c r="E10" s="343"/>
       <c r="F10" s="127" t="s">
         <v>918</v>
       </c>
@@ -15589,7 +15599,7 @@
         <v>944</v>
       </c>
       <c r="H10" s="122"/>
-      <c r="I10" s="291"/>
+      <c r="I10" s="343"/>
       <c r="J10" s="127" t="s">
         <v>1006</v>
       </c>
@@ -15599,7 +15609,7 @@
       <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A11" s="289"/>
+      <c r="A11" s="334"/>
       <c r="B11" s="131" t="s">
         <v>611</v>
       </c>
@@ -15607,7 +15617,7 @@
         <v>662</v>
       </c>
       <c r="D11" s="196"/>
-      <c r="E11" s="292"/>
+      <c r="E11" s="344"/>
       <c r="F11" s="131" t="s">
         <v>919</v>
       </c>
@@ -15615,7 +15625,7 @@
         <v>945</v>
       </c>
       <c r="H11" s="122"/>
-      <c r="I11" s="292"/>
+      <c r="I11" s="344"/>
       <c r="J11" s="131" t="s">
         <v>1007</v>
       </c>
@@ -15625,7 +15635,7 @@
       <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="A12" s="287" t="s">
+      <c r="A12" s="332" t="s">
         <v>616</v>
       </c>
       <c r="B12" s="128" t="s">
@@ -15635,8 +15645,8 @@
         <v>663</v>
       </c>
       <c r="D12" s="196"/>
-      <c r="E12" s="290" t="s">
-        <v>1360</v>
+      <c r="E12" s="342" t="s">
+        <v>1358</v>
       </c>
       <c r="F12" s="128" t="s">
         <v>920</v>
@@ -15645,7 +15655,7 @@
         <v>946</v>
       </c>
       <c r="H12" s="122"/>
-      <c r="I12" s="290" t="s">
+      <c r="I12" s="342" t="s">
         <v>969</v>
       </c>
       <c r="J12" s="128" t="s">
@@ -15657,7 +15667,7 @@
       <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" ht="18.75">
-      <c r="A13" s="288"/>
+      <c r="A13" s="333"/>
       <c r="B13" s="127" t="s">
         <v>613</v>
       </c>
@@ -15665,7 +15675,7 @@
         <v>664</v>
       </c>
       <c r="D13" s="196"/>
-      <c r="E13" s="291"/>
+      <c r="E13" s="343"/>
       <c r="F13" s="127" t="s">
         <v>921</v>
       </c>
@@ -15673,7 +15683,7 @@
         <v>947</v>
       </c>
       <c r="H13" s="122"/>
-      <c r="I13" s="291"/>
+      <c r="I13" s="343"/>
       <c r="J13" s="127" t="s">
         <v>1009</v>
       </c>
@@ -15683,7 +15693,7 @@
       <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" ht="18.75">
-      <c r="A14" s="288"/>
+      <c r="A14" s="333"/>
       <c r="B14" s="127" t="s">
         <v>614</v>
       </c>
@@ -15691,7 +15701,7 @@
         <v>665</v>
       </c>
       <c r="D14" s="196"/>
-      <c r="E14" s="291"/>
+      <c r="E14" s="343"/>
       <c r="F14" s="127" t="s">
         <v>922</v>
       </c>
@@ -15699,7 +15709,7 @@
         <v>948</v>
       </c>
       <c r="H14" s="122"/>
-      <c r="I14" s="291"/>
+      <c r="I14" s="343"/>
       <c r="J14" s="127" t="s">
         <v>1010</v>
       </c>
@@ -15709,7 +15719,7 @@
       <c r="L14" s="119"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="289"/>
+      <c r="A15" s="334"/>
       <c r="B15" s="131" t="s">
         <v>615</v>
       </c>
@@ -15717,7 +15727,7 @@
         <v>666</v>
       </c>
       <c r="D15" s="196"/>
-      <c r="E15" s="292"/>
+      <c r="E15" s="344"/>
       <c r="F15" s="131" t="s">
         <v>923</v>
       </c>
@@ -15725,7 +15735,7 @@
         <v>949</v>
       </c>
       <c r="H15" s="122"/>
-      <c r="I15" s="292"/>
+      <c r="I15" s="344"/>
       <c r="J15" s="131" t="s">
         <v>1011</v>
       </c>
@@ -15735,18 +15745,18 @@
       <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" ht="18.75">
-      <c r="A16" s="287" t="s">
-        <v>1322</v>
+      <c r="A16" s="332" t="s">
+        <v>1320</v>
       </c>
       <c r="B16" s="128" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C16" s="129" t="s">
         <v>667</v>
       </c>
       <c r="D16" s="196"/>
-      <c r="E16" s="290" t="s">
-        <v>1361</v>
+      <c r="E16" s="342" t="s">
+        <v>1359</v>
       </c>
       <c r="F16" s="128" t="s">
         <v>924</v>
@@ -15755,7 +15765,7 @@
         <v>950</v>
       </c>
       <c r="H16" s="122"/>
-      <c r="I16" s="290" t="s">
+      <c r="I16" s="342" t="s">
         <v>970</v>
       </c>
       <c r="J16" s="128" t="s">
@@ -15767,15 +15777,15 @@
       <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="288"/>
+      <c r="A17" s="333"/>
       <c r="B17" s="127" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C17" s="130" t="s">
         <v>668</v>
       </c>
       <c r="D17" s="196"/>
-      <c r="E17" s="291"/>
+      <c r="E17" s="343"/>
       <c r="F17" s="127" t="s">
         <v>925</v>
       </c>
@@ -15783,7 +15793,7 @@
         <v>951</v>
       </c>
       <c r="H17" s="122"/>
-      <c r="I17" s="291"/>
+      <c r="I17" s="343"/>
       <c r="J17" s="127" t="s">
         <v>1013</v>
       </c>
@@ -15793,15 +15803,15 @@
       <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" ht="18.75">
-      <c r="A18" s="288"/>
+      <c r="A18" s="333"/>
       <c r="B18" s="127" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C18" s="130" t="s">
         <v>669</v>
       </c>
       <c r="D18" s="196"/>
-      <c r="E18" s="291"/>
+      <c r="E18" s="343"/>
       <c r="F18" s="127" t="s">
         <v>926</v>
       </c>
@@ -15809,7 +15819,7 @@
         <v>952</v>
       </c>
       <c r="H18" s="122"/>
-      <c r="I18" s="291"/>
+      <c r="I18" s="343"/>
       <c r="J18" s="127" t="s">
         <v>1014</v>
       </c>
@@ -15819,15 +15829,15 @@
       <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A19" s="289"/>
+      <c r="A19" s="334"/>
       <c r="B19" s="131" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C19" s="132" t="s">
         <v>670</v>
       </c>
       <c r="D19" s="196"/>
-      <c r="E19" s="292"/>
+      <c r="E19" s="344"/>
       <c r="F19" s="131" t="s">
         <v>927</v>
       </c>
@@ -15835,7 +15845,7 @@
         <v>953</v>
       </c>
       <c r="H19" s="122"/>
-      <c r="I19" s="292"/>
+      <c r="I19" s="344"/>
       <c r="J19" s="131" t="s">
         <v>1015</v>
       </c>
@@ -15845,18 +15855,18 @@
       <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" ht="18.75">
-      <c r="A20" s="287" t="s">
-        <v>1327</v>
+      <c r="A20" s="332" t="s">
+        <v>1325</v>
       </c>
       <c r="B20" s="128" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C20" s="129" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D20" s="122"/>
-      <c r="E20" s="290" t="s">
-        <v>1362</v>
+      <c r="E20" s="342" t="s">
+        <v>1360</v>
       </c>
       <c r="F20" s="128" t="s">
         <v>928</v>
@@ -15865,7 +15875,7 @@
         <v>954</v>
       </c>
       <c r="H20" s="122"/>
-      <c r="I20" s="290" t="s">
+      <c r="I20" s="342" t="s">
         <v>971</v>
       </c>
       <c r="J20" s="128" t="s">
@@ -15877,15 +15887,15 @@
       <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" ht="18.75">
-      <c r="A21" s="288"/>
+      <c r="A21" s="333"/>
       <c r="B21" s="127" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C21" s="130" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D21" s="122"/>
-      <c r="E21" s="291"/>
+      <c r="E21" s="343"/>
       <c r="F21" s="127" t="s">
         <v>929</v>
       </c>
@@ -15893,7 +15903,7 @@
         <v>955</v>
       </c>
       <c r="H21" s="122"/>
-      <c r="I21" s="291"/>
+      <c r="I21" s="343"/>
       <c r="J21" s="127" t="s">
         <v>1017</v>
       </c>
@@ -15903,15 +15913,15 @@
       <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="288"/>
+      <c r="A22" s="333"/>
       <c r="B22" s="127" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C22" s="130" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D22" s="122"/>
-      <c r="E22" s="291"/>
+      <c r="E22" s="343"/>
       <c r="F22" s="127" t="s">
         <v>930</v>
       </c>
@@ -15919,7 +15929,7 @@
         <v>956</v>
       </c>
       <c r="H22" s="122"/>
-      <c r="I22" s="291"/>
+      <c r="I22" s="343"/>
       <c r="J22" s="127" t="s">
         <v>1018</v>
       </c>
@@ -15929,15 +15939,15 @@
       <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A23" s="289"/>
+      <c r="A23" s="334"/>
       <c r="B23" s="131" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C23" s="132" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D23" s="122"/>
-      <c r="E23" s="292"/>
+      <c r="E23" s="344"/>
       <c r="F23" s="131" t="s">
         <v>931</v>
       </c>
@@ -15945,7 +15955,7 @@
         <v>957</v>
       </c>
       <c r="H23" s="122"/>
-      <c r="I23" s="292"/>
+      <c r="I23" s="344"/>
       <c r="J23" s="131" t="s">
         <v>1019</v>
       </c>
@@ -15955,18 +15965,18 @@
       <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" ht="18.75">
-      <c r="A24" s="287" t="s">
-        <v>1345</v>
+      <c r="A24" s="332" t="s">
+        <v>1343</v>
       </c>
       <c r="B24" s="128" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C24" s="129" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D24" s="122"/>
-      <c r="E24" s="290" t="s">
-        <v>1363</v>
+      <c r="E24" s="342" t="s">
+        <v>1361</v>
       </c>
       <c r="F24" s="128" t="s">
         <v>932</v>
@@ -15975,7 +15985,7 @@
         <v>958</v>
       </c>
       <c r="H24" s="122"/>
-      <c r="I24" s="290" t="s">
+      <c r="I24" s="342" t="s">
         <v>972</v>
       </c>
       <c r="J24" s="128" t="s">
@@ -15987,15 +15997,15 @@
       <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" ht="18.75">
-      <c r="A25" s="288"/>
+      <c r="A25" s="333"/>
       <c r="B25" s="127" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C25" s="130" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D25" s="122"/>
-      <c r="E25" s="291"/>
+      <c r="E25" s="343"/>
       <c r="F25" s="127" t="s">
         <v>933</v>
       </c>
@@ -16003,7 +16013,7 @@
         <v>959</v>
       </c>
       <c r="H25" s="122"/>
-      <c r="I25" s="291"/>
+      <c r="I25" s="343"/>
       <c r="J25" s="127" t="s">
         <v>1021</v>
       </c>
@@ -16013,15 +16023,15 @@
       <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" ht="18.75">
-      <c r="A26" s="288"/>
+      <c r="A26" s="333"/>
       <c r="B26" s="127" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D26" s="122"/>
-      <c r="E26" s="291"/>
+      <c r="E26" s="343"/>
       <c r="F26" s="127" t="s">
         <v>934</v>
       </c>
@@ -16029,7 +16039,7 @@
         <v>960</v>
       </c>
       <c r="H26" s="122"/>
-      <c r="I26" s="291"/>
+      <c r="I26" s="343"/>
       <c r="J26" s="127" t="s">
         <v>1022</v>
       </c>
@@ -16039,15 +16049,15 @@
       <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A27" s="289"/>
+      <c r="A27" s="334"/>
       <c r="B27" s="131" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C27" s="132" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D27" s="122"/>
-      <c r="E27" s="292"/>
+      <c r="E27" s="344"/>
       <c r="F27" s="131" t="s">
         <v>935</v>
       </c>
@@ -16055,7 +16065,7 @@
         <v>961</v>
       </c>
       <c r="H27" s="122"/>
-      <c r="I27" s="292"/>
+      <c r="I27" s="344"/>
       <c r="J27" s="131" t="s">
         <v>1023</v>
       </c>
@@ -16065,18 +16075,18 @@
       <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" ht="18.75">
-      <c r="A28" s="287" t="s">
-        <v>1344</v>
+      <c r="A28" s="332" t="s">
+        <v>1342</v>
       </c>
       <c r="B28" s="128" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C28" s="129" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D28" s="122"/>
-      <c r="E28" s="290" t="s">
-        <v>1364</v>
+      <c r="E28" s="342" t="s">
+        <v>1362</v>
       </c>
       <c r="F28" s="128" t="s">
         <v>936</v>
@@ -16085,7 +16095,7 @@
         <v>962</v>
       </c>
       <c r="H28" s="122"/>
-      <c r="I28" s="290" t="s">
+      <c r="I28" s="342" t="s">
         <v>973</v>
       </c>
       <c r="J28" s="128" t="s">
@@ -16097,15 +16107,15 @@
       <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" ht="18.75">
-      <c r="A29" s="288"/>
+      <c r="A29" s="333"/>
       <c r="B29" s="127" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C29" s="130" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D29" s="196"/>
-      <c r="E29" s="291"/>
+      <c r="E29" s="343"/>
       <c r="F29" s="127" t="s">
         <v>937</v>
       </c>
@@ -16113,7 +16123,7 @@
         <v>963</v>
       </c>
       <c r="H29" s="122"/>
-      <c r="I29" s="291"/>
+      <c r="I29" s="343"/>
       <c r="J29" s="127" t="s">
         <v>1025</v>
       </c>
@@ -16123,19 +16133,19 @@
       <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" ht="18.75">
-      <c r="A30" s="288"/>
+      <c r="A30" s="333"/>
       <c r="B30" s="127" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C30" s="130" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D30" s="196"/>
-      <c r="E30" s="291"/>
+      <c r="E30" s="343"/>
       <c r="F30" s="127"/>
       <c r="G30" s="193"/>
       <c r="H30" s="122"/>
-      <c r="I30" s="291"/>
+      <c r="I30" s="343"/>
       <c r="J30" s="127" t="s">
         <v>1026</v>
       </c>
@@ -16145,19 +16155,19 @@
       <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A31" s="289"/>
+      <c r="A31" s="334"/>
       <c r="B31" s="131" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C31" s="132" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D31" s="196"/>
-      <c r="E31" s="292"/>
+      <c r="E31" s="344"/>
       <c r="F31" s="131"/>
       <c r="G31" s="194"/>
       <c r="H31" s="122"/>
-      <c r="I31" s="292"/>
+      <c r="I31" s="344"/>
       <c r="J31" s="131" t="s">
         <v>1027</v>
       </c>
@@ -16167,7 +16177,7 @@
       <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A32" s="305"/>
+      <c r="A32" s="335"/>
       <c r="B32" s="272"/>
       <c r="C32" s="274"/>
       <c r="D32" s="196"/>
@@ -16181,25 +16191,25 @@
       <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A33" s="305"/>
+      <c r="A33" s="335"/>
       <c r="B33" s="272"/>
       <c r="C33" s="274"/>
       <c r="D33" s="196"/>
-      <c r="E33" s="299" t="s">
+      <c r="E33" s="336" t="s">
         <v>1057</v>
       </c>
-      <c r="F33" s="300"/>
-      <c r="G33" s="301"/>
+      <c r="F33" s="337"/>
+      <c r="G33" s="338"/>
       <c r="H33" s="121"/>
-      <c r="I33" s="299" t="s">
+      <c r="I33" s="336" t="s">
         <v>1056</v>
       </c>
-      <c r="J33" s="300"/>
-      <c r="K33" s="301"/>
+      <c r="J33" s="337"/>
+      <c r="K33" s="338"/>
       <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A34" s="305"/>
+      <c r="A34" s="335"/>
       <c r="B34" s="272"/>
       <c r="C34" s="274"/>
       <c r="D34" s="196"/>
@@ -16225,11 +16235,11 @@
       <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" ht="18.75">
-      <c r="A35" s="305"/>
+      <c r="A35" s="335"/>
       <c r="B35" s="272"/>
       <c r="C35" s="274"/>
       <c r="D35" s="196"/>
-      <c r="E35" s="302" t="s">
+      <c r="E35" s="339" t="s">
         <v>493</v>
       </c>
       <c r="F35" s="128" t="s">
@@ -16239,7 +16249,7 @@
         <v>11311</v>
       </c>
       <c r="H35" s="121"/>
-      <c r="I35" s="302" t="s">
+      <c r="I35" s="339" t="s">
         <v>865</v>
       </c>
       <c r="J35" s="128" t="s">
@@ -16251,11 +16261,11 @@
       <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" ht="18.75">
-      <c r="A36" s="305"/>
+      <c r="A36" s="335"/>
       <c r="B36" s="272"/>
       <c r="C36" s="274"/>
       <c r="D36" s="196"/>
-      <c r="E36" s="303"/>
+      <c r="E36" s="340"/>
       <c r="F36" s="127" t="s">
         <v>868</v>
       </c>
@@ -16263,7 +16273,7 @@
         <v>11312</v>
       </c>
       <c r="H36" s="121"/>
-      <c r="I36" s="303"/>
+      <c r="I36" s="340"/>
       <c r="J36" s="127" t="s">
         <v>875</v>
       </c>
@@ -16273,11 +16283,11 @@
       <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" ht="18.75">
-      <c r="A37" s="305"/>
+      <c r="A37" s="335"/>
       <c r="B37" s="272"/>
       <c r="C37" s="274"/>
       <c r="D37" s="196"/>
-      <c r="E37" s="303"/>
+      <c r="E37" s="340"/>
       <c r="F37" s="127" t="s">
         <v>869</v>
       </c>
@@ -16285,7 +16295,7 @@
         <v>11313</v>
       </c>
       <c r="H37" s="121"/>
-      <c r="I37" s="303"/>
+      <c r="I37" s="340"/>
       <c r="J37" s="127" t="s">
         <v>876</v>
       </c>
@@ -16295,11 +16305,11 @@
       <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A38" s="305"/>
+      <c r="A38" s="335"/>
       <c r="B38" s="272"/>
       <c r="C38" s="274"/>
       <c r="D38" s="196"/>
-      <c r="E38" s="304"/>
+      <c r="E38" s="341"/>
       <c r="F38" s="131" t="s">
         <v>869</v>
       </c>
@@ -16307,7 +16317,7 @@
         <v>11314</v>
       </c>
       <c r="H38" s="121"/>
-      <c r="I38" s="304"/>
+      <c r="I38" s="341"/>
       <c r="J38" s="131" t="s">
         <v>877</v>
       </c>
@@ -16317,11 +16327,11 @@
       <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" ht="18.75">
-      <c r="A39" s="305"/>
+      <c r="A39" s="335"/>
       <c r="B39" s="272"/>
       <c r="C39" s="274"/>
       <c r="D39" s="196"/>
-      <c r="E39" s="302" t="s">
+      <c r="E39" s="339" t="s">
         <v>864</v>
       </c>
       <c r="F39" s="128" t="s">
@@ -16331,7 +16341,7 @@
         <v>11321</v>
       </c>
       <c r="H39" s="121"/>
-      <c r="I39" s="302" t="s">
+      <c r="I39" s="339" t="s">
         <v>866</v>
       </c>
       <c r="J39" s="128" t="s">
@@ -16347,7 +16357,7 @@
       <c r="B40" s="272"/>
       <c r="C40" s="273"/>
       <c r="D40" s="196"/>
-      <c r="E40" s="303"/>
+      <c r="E40" s="340"/>
       <c r="F40" s="127" t="s">
         <v>871</v>
       </c>
@@ -16355,7 +16365,7 @@
         <v>11322</v>
       </c>
       <c r="H40" s="121"/>
-      <c r="I40" s="303"/>
+      <c r="I40" s="340"/>
       <c r="J40" s="127" t="s">
         <v>879</v>
       </c>
@@ -16369,7 +16379,7 @@
       <c r="B41" s="122"/>
       <c r="C41" s="196"/>
       <c r="D41" s="196"/>
-      <c r="E41" s="303"/>
+      <c r="E41" s="340"/>
       <c r="F41" s="127" t="s">
         <v>872</v>
       </c>
@@ -16377,7 +16387,7 @@
         <v>11323</v>
       </c>
       <c r="H41" s="121"/>
-      <c r="I41" s="303"/>
+      <c r="I41" s="340"/>
       <c r="J41" s="127" t="s">
         <v>880</v>
       </c>
@@ -16391,7 +16401,7 @@
       <c r="B42" s="122"/>
       <c r="C42" s="196"/>
       <c r="D42" s="196"/>
-      <c r="E42" s="304"/>
+      <c r="E42" s="341"/>
       <c r="F42" s="131" t="s">
         <v>873</v>
       </c>
@@ -16399,7 +16409,7 @@
         <v>11324</v>
       </c>
       <c r="H42" s="121"/>
-      <c r="I42" s="304"/>
+      <c r="I42" s="341"/>
       <c r="J42" s="131" t="s">
         <v>881</v>
       </c>
@@ -16452,17 +16462,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="I8:I11"/>
@@ -16473,18 +16484,17 @@
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16515,40 +16525,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="306" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="308"/>
+      <c r="A1" s="351" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="353"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="309"/>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
-      <c r="G2" s="310"/>
-      <c r="H2" s="311"/>
+      <c r="A2" s="354"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="356"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="357" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313" t="s">
+      <c r="B3" s="358"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="358" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="314"/>
+      <c r="F3" s="358"/>
+      <c r="G3" s="358"/>
+      <c r="H3" s="359"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="12">
@@ -16574,10 +16584,10 @@
       </c>
       <c r="B5" s="267"/>
       <c r="C5" s="267" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D5" s="268" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E5" s="13">
         <v>2</v>
@@ -16598,10 +16608,10 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E6" s="13">
         <v>3</v>
@@ -16639,7 +16649,7 @@
         <v>597</v>
       </c>
       <c r="H7" s="269" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1">
@@ -16653,7 +16663,7 @@
         <v>578</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E8" s="13">
         <v>5</v>
@@ -16662,10 +16672,10 @@
         <v>470</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>1290</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1">
@@ -16679,7 +16689,7 @@
         <v>582</v>
       </c>
       <c r="D9" s="268" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E9" s="13">
         <v>6</v>
@@ -16699,7 +16709,7 @@
         <v>583</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E10" s="13">
         <v>7</v>
@@ -16719,7 +16729,7 @@
         <v>594</v>
       </c>
       <c r="D11" s="268" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E11" s="13">
         <v>8</v>
@@ -16739,7 +16749,7 @@
         <v>595</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E12" s="13">
         <v>9</v>
@@ -16759,7 +16769,7 @@
         <v>584</v>
       </c>
       <c r="D13" s="268" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E13" s="13">
         <v>10</v>
@@ -16779,7 +16789,7 @@
         <v>585</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E14" s="13">
         <v>11</v>
@@ -16799,7 +16809,7 @@
         <v>586</v>
       </c>
       <c r="D15" s="268" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E15" s="13">
         <v>12</v>
@@ -16819,7 +16829,7 @@
         <v>587</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E16" s="13">
         <v>13</v>
@@ -16839,7 +16849,7 @@
         <v>607</v>
       </c>
       <c r="D17" s="268" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E17" s="13">
         <v>14</v>
@@ -16859,7 +16869,7 @@
         <v>588</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E18" s="13">
         <v>15</v>
@@ -16879,7 +16889,7 @@
         <v>589</v>
       </c>
       <c r="D19" s="268" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="E19" s="13">
         <v>16</v>
@@ -16899,7 +16909,7 @@
         <v>1058</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E20" s="13">
         <v>17</v>
@@ -16919,7 +16929,7 @@
         <v>590</v>
       </c>
       <c r="D21" s="268" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E21" s="13">
         <v>18</v>
@@ -16939,7 +16949,7 @@
         <v>571</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E22" s="13">
         <v>19</v>
@@ -16959,7 +16969,7 @@
         <v>572</v>
       </c>
       <c r="D23" s="268" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E23" s="13">
         <v>20</v>
@@ -17007,12 +17017,12 @@
         <v>573</v>
       </c>
       <c r="D27" s="254" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E27" s="256"/>
       <c r="F27" s="116"/>
       <c r="G27" s="254" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="H27" s="254" t="s">
         <v>814</v>
@@ -17032,10 +17042,10 @@
       <c r="E28" s="256"/>
       <c r="F28" s="265"/>
       <c r="G28" s="262" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="H28" s="262" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18">
@@ -17052,10 +17062,10 @@
       <c r="E29" s="256"/>
       <c r="F29" s="116"/>
       <c r="G29" s="254" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H29" s="254" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18">
@@ -17072,10 +17082,10 @@
       <c r="E30" s="256"/>
       <c r="F30" s="265"/>
       <c r="G30" s="262" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="H30" s="262" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18">
@@ -17092,10 +17102,10 @@
       <c r="E31" s="256"/>
       <c r="F31" s="116"/>
       <c r="G31" s="254" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H31" s="254" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18">
@@ -17112,10 +17122,10 @@
       <c r="E32" s="256"/>
       <c r="F32" s="265"/>
       <c r="G32" s="262" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H32" s="262" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18">
@@ -17124,38 +17134,38 @@
         <v>1146</v>
       </c>
       <c r="C33" s="255" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D33" s="258" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E33" s="256"/>
       <c r="F33" s="116"/>
       <c r="G33" s="254" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="H33" s="254" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18">
       <c r="A34" s="16"/>
       <c r="B34" s="260" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C34" s="261" t="s">
         <v>1135</v>
       </c>
       <c r="D34" s="264" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E34" s="256"/>
       <c r="F34" s="265"/>
       <c r="G34" s="262" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="H34" s="262" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18">
@@ -17167,15 +17177,15 @@
         <v>1132</v>
       </c>
       <c r="D35" s="257" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E35" s="256"/>
       <c r="F35" s="254"/>
       <c r="G35" s="254" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="H35" s="254" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18">
@@ -17187,15 +17197,15 @@
         <v>591</v>
       </c>
       <c r="D36" s="262" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E36" s="256"/>
       <c r="F36" s="262"/>
       <c r="G36" s="262" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="H36" s="262" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18">
@@ -17207,15 +17217,15 @@
         <v>592</v>
       </c>
       <c r="D37" s="254" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E37" s="256"/>
       <c r="F37" s="254"/>
       <c r="G37" s="254" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="H37" s="254" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18">
@@ -17224,18 +17234,18 @@
         <v>788</v>
       </c>
       <c r="C38" s="261" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D38" s="262" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E38" s="256"/>
       <c r="F38" s="262"/>
       <c r="G38" s="262" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="H38" s="262" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18">
@@ -17247,7 +17257,7 @@
         <v>593</v>
       </c>
       <c r="D39" s="254" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E39" s="256"/>
       <c r="F39" s="254"/>
@@ -17255,7 +17265,7 @@
         <v>598</v>
       </c>
       <c r="H39" s="254" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18">
@@ -17269,7 +17279,7 @@
         <v>599</v>
       </c>
       <c r="H40" s="262" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18">
@@ -17281,7 +17291,7 @@
         <v>1143</v>
       </c>
       <c r="D41" s="254" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="254"/>
@@ -17289,7 +17299,7 @@
         <v>600</v>
       </c>
       <c r="H41" s="254" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18">
@@ -17298,10 +17308,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="262" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D42" s="262" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -17314,10 +17324,10 @@
         <v>0</v>
       </c>
       <c r="C43" s="254" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D43" s="254" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -17408,28 +17418,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="369" t="s">
         <v>1091</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
+      <c r="B1" s="369"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
     </row>
     <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="318" t="s">
+      <c r="A2" s="363" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="320"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="365"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="5"/>
@@ -17745,16 +17755,16 @@
       <c r="H17" s="204"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="321" t="s">
+      <c r="A18" s="366" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="322"/>
-      <c r="C18" s="322"/>
-      <c r="D18" s="322"/>
-      <c r="E18" s="322"/>
-      <c r="F18" s="322"/>
-      <c r="G18" s="322"/>
-      <c r="H18" s="323"/>
+      <c r="B18" s="367"/>
+      <c r="C18" s="367"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="367"/>
+      <c r="F18" s="367"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="368"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="205"/>
@@ -18010,16 +18020,16 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="318" t="s">
+      <c r="A31" s="363" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="319"/>
-      <c r="C31" s="319"/>
-      <c r="D31" s="319"/>
-      <c r="E31" s="319"/>
-      <c r="F31" s="319"/>
-      <c r="G31" s="319"/>
-      <c r="H31" s="320"/>
+      <c r="B31" s="364"/>
+      <c r="C31" s="364"/>
+      <c r="D31" s="364"/>
+      <c r="E31" s="364"/>
+      <c r="F31" s="364"/>
+      <c r="G31" s="364"/>
+      <c r="H31" s="365"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="5"/>
@@ -18245,18 +18255,18 @@
     </row>
     <row r="43" spans="1:8" ht="10.5" customHeight="1"/>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="315" t="s">
+      <c r="A44" s="360" t="s">
         <v>1082</v>
       </c>
-      <c r="B44" s="316"/>
-      <c r="C44" s="316"/>
-      <c r="D44" s="317"/>
-      <c r="E44" s="315" t="s">
+      <c r="B44" s="361"/>
+      <c r="C44" s="361"/>
+      <c r="D44" s="362"/>
+      <c r="E44" s="360" t="s">
         <v>1082</v>
       </c>
-      <c r="F44" s="316"/>
-      <c r="G44" s="316"/>
-      <c r="H44" s="317"/>
+      <c r="F44" s="361"/>
+      <c r="G44" s="361"/>
+      <c r="H44" s="362"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="3"/>
@@ -18354,7 +18364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -18374,54 +18384,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A1" s="328" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="329"/>
-      <c r="E1" s="329"/>
-      <c r="F1" s="329"/>
-      <c r="G1" s="329"/>
-      <c r="H1" s="330"/>
+      <c r="A1" s="373" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="375"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="331"/>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="333"/>
+      <c r="A2" s="376"/>
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="378"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="334" t="s">
+      <c r="A3" s="379" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B3" s="380"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="382" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F3" s="380"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="383"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A4" s="384" t="s">
         <v>1163</v>
       </c>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="337" t="s">
+      <c r="B4" s="385"/>
+      <c r="C4" s="385"/>
+      <c r="D4" s="386"/>
+      <c r="E4" s="387" t="s">
         <v>1164</v>
       </c>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="338"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="339" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="340"/>
-      <c r="D4" s="341"/>
-      <c r="E4" s="342" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F4" s="340"/>
-      <c r="G4" s="340"/>
-      <c r="H4" s="343"/>
+      <c r="F4" s="385"/>
+      <c r="G4" s="385"/>
+      <c r="H4" s="388"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" thickBot="1">
       <c r="A5" s="210">
@@ -18429,10 +18439,10 @@
       </c>
       <c r="B5" s="211"/>
       <c r="C5" s="212" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D5" s="212" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E5" s="210">
         <v>1</v>
@@ -18442,7 +18452,7 @@
         <v>793</v>
       </c>
       <c r="H5" s="214" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" thickBot="1">
@@ -18451,10 +18461,10 @@
       </c>
       <c r="B6" s="211"/>
       <c r="C6" s="212" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D6" s="212" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E6" s="210">
         <v>2</v>
@@ -18473,22 +18483,22 @@
       </c>
       <c r="B7" s="211"/>
       <c r="C7" s="212" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D7" s="212" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E7" s="210">
         <v>3</v>
       </c>
       <c r="F7" s="213" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="G7" s="212" t="s">
         <v>378</v>
       </c>
       <c r="H7" s="214" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" thickBot="1">
@@ -18497,22 +18507,22 @@
       </c>
       <c r="B8" s="211"/>
       <c r="C8" s="212" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D8" s="212" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E8" s="210">
         <v>4</v>
       </c>
       <c r="F8" s="213" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G8" s="212" t="s">
         <v>509</v>
       </c>
       <c r="H8" s="215" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" thickBot="1">
@@ -18521,17 +18531,17 @@
       </c>
       <c r="B9" s="211"/>
       <c r="C9" s="212" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D9" s="212" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E9" s="210">
         <v>5</v>
       </c>
       <c r="F9" s="213"/>
       <c r="G9" s="212" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="H9" s="216" t="s">
         <v>814</v>
@@ -18548,17 +18558,17 @@
         <v>20</v>
       </c>
       <c r="D10" s="217" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E10" s="210">
         <v>6</v>
       </c>
       <c r="F10" s="213"/>
       <c r="G10" s="212" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="H10" s="216" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" thickBot="1">
@@ -18572,7 +18582,7 @@
         <v>188</v>
       </c>
       <c r="D11" s="217" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E11" s="210">
         <v>7</v>
@@ -18582,7 +18592,7 @@
         <v>478</v>
       </c>
       <c r="H11" s="216" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" thickBot="1">
@@ -18591,10 +18601,10 @@
       </c>
       <c r="B12" s="211"/>
       <c r="C12" s="212" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D12" s="217" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E12" s="210">
         <v>8</v>
@@ -18615,20 +18625,20 @@
       </c>
       <c r="B13" s="211"/>
       <c r="C13" s="212" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D13" s="219" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E13" s="210">
         <v>9</v>
       </c>
       <c r="F13" s="213"/>
       <c r="G13" s="212" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H13" s="219" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" thickBot="1">
@@ -18637,10 +18647,10 @@
       </c>
       <c r="B14" s="211"/>
       <c r="C14" s="212" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D14" s="219" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E14" s="210">
         <v>10</v>
@@ -18652,7 +18662,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="217" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" thickBot="1">
@@ -18661,20 +18671,20 @@
       </c>
       <c r="B15" s="211"/>
       <c r="C15" s="212" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D15" s="212" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E15" s="210">
         <v>11</v>
       </c>
       <c r="F15" s="213"/>
       <c r="G15" s="212" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H15" s="219" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" thickBot="1">
@@ -18683,10 +18693,10 @@
       </c>
       <c r="B16" s="211"/>
       <c r="C16" s="212" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D16" s="212" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E16" s="210">
         <v>12</v>
@@ -18698,7 +18708,7 @@
         <v>20</v>
       </c>
       <c r="H16" s="217" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" thickBot="1">
@@ -18707,10 +18717,10 @@
       </c>
       <c r="B17" s="211"/>
       <c r="C17" s="212" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D17" s="212" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E17" s="210">
         <v>13</v>
@@ -18722,7 +18732,7 @@
         <v>188</v>
       </c>
       <c r="H17" s="217" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" thickBot="1">
@@ -18731,20 +18741,20 @@
       </c>
       <c r="B18" s="211"/>
       <c r="C18" s="212" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D18" s="212" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E18" s="210">
         <v>14</v>
       </c>
       <c r="F18" s="213"/>
       <c r="G18" s="212" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H18" s="217" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" thickBot="1">
@@ -18753,16 +18763,16 @@
       </c>
       <c r="B19" s="211"/>
       <c r="C19" s="212" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D19" s="212" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E19" s="210">
         <v>15</v>
       </c>
       <c r="F19" s="213" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="G19" s="212" t="s">
         <v>74</v>
@@ -18776,7 +18786,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="213" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C20" s="212" t="s">
         <v>74</v>
@@ -18794,7 +18804,7 @@
         <v>171</v>
       </c>
       <c r="H20" s="217" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" thickBot="1">
@@ -18808,7 +18818,7 @@
         <v>171</v>
       </c>
       <c r="D21" s="217" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E21" s="210">
         <v>17</v>
@@ -18820,7 +18830,7 @@
         <v>53</v>
       </c>
       <c r="H21" s="217" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" thickBot="1">
@@ -18834,7 +18844,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="217" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E22" s="210">
         <v>18</v>
@@ -18846,7 +18856,7 @@
         <v>73</v>
       </c>
       <c r="H22" s="217" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" thickBot="1">
@@ -18860,7 +18870,7 @@
         <v>73</v>
       </c>
       <c r="D23" s="217" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E23" s="210">
         <v>19</v>
@@ -18872,7 +18882,7 @@
         <v>506</v>
       </c>
       <c r="H23" s="213" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" thickBot="1">
@@ -18881,10 +18891,10 @@
       </c>
       <c r="B24" s="221"/>
       <c r="C24" s="229" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D24" s="221" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E24" s="210">
         <v>20</v>
@@ -18896,16 +18906,16 @@
         <v>505</v>
       </c>
       <c r="H24" s="213" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A25" s="325" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B25" s="326"/>
-      <c r="C25" s="326"/>
-      <c r="D25" s="327"/>
+      <c r="A25" s="370" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B25" s="371"/>
+      <c r="C25" s="371"/>
+      <c r="D25" s="372"/>
       <c r="E25" s="211">
         <v>21</v>
       </c>
@@ -18916,7 +18926,7 @@
         <v>504</v>
       </c>
       <c r="H25" s="213" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" thickBot="1">
@@ -18934,17 +18944,17 @@
         <v>503</v>
       </c>
       <c r="H26" s="213" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" thickBot="1">
       <c r="A27" s="222"/>
       <c r="B27" s="222"/>
       <c r="C27" s="223" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D27" s="225" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E27" s="211">
         <v>23</v>
@@ -18966,7 +18976,7 @@
         <v>1143</v>
       </c>
       <c r="D28" s="225" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E28" s="211">
         <v>24</v>
@@ -18985,10 +18995,10 @@
       <c r="A29" s="222"/>
       <c r="B29" s="222"/>
       <c r="C29" s="222" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D29" s="225" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E29" s="211">
         <v>25</v>
@@ -19036,7 +19046,7 @@
         <v>370</v>
       </c>
       <c r="H31" s="213" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" thickBot="1">
@@ -19054,7 +19064,7 @@
         <v>502</v>
       </c>
       <c r="H32" s="226" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="19.5" thickBot="1">
@@ -19072,7 +19082,7 @@
         <v>816</v>
       </c>
       <c r="H33" s="226" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" thickBot="1">
@@ -19087,10 +19097,10 @@
         <v>1137</v>
       </c>
       <c r="G34" s="227" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H34" s="226" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
   </sheetData>
@@ -19128,474 +19138,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="435" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="436"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="436"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="438"/>
+      <c r="A1" s="389" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1" s="390"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="390"/>
+      <c r="E1" s="390"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="310"/>
       <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="420" t="s">
+      <c r="A2" s="392" t="s">
         <v>790</v>
       </c>
-      <c r="B2" s="421"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="420" t="s">
+      <c r="B2" s="393"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="392" t="s">
         <v>791</v>
       </c>
-      <c r="E2" s="421"/>
-      <c r="F2" s="422"/>
-      <c r="G2" s="438"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="310"/>
       <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="441">
+      <c r="A3" s="313">
         <v>1</v>
       </c>
-      <c r="B3" s="442" t="s">
+      <c r="B3" s="314" t="s">
         <v>792</v>
       </c>
-      <c r="C3" s="443" t="s">
+      <c r="C3" s="315" t="s">
         <v>793</v>
       </c>
-      <c r="D3" s="451" t="s">
+      <c r="D3" s="323" t="s">
         <v>793</v>
       </c>
-      <c r="E3" s="443" t="s">
+      <c r="E3" s="315" t="s">
         <v>792</v>
       </c>
-      <c r="F3" s="446">
+      <c r="F3" s="318">
         <v>1</v>
       </c>
-      <c r="G3" s="438"/>
-      <c r="H3" s="344" t="s">
+      <c r="G3" s="310"/>
+      <c r="H3" s="395" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="403">
+      <c r="A4" s="281">
         <v>2</v>
       </c>
       <c r="B4" s="169" t="s">
         <v>795</v>
       </c>
-      <c r="C4" s="404" t="s">
+      <c r="C4" s="282" t="s">
         <v>796</v>
       </c>
-      <c r="D4" s="423" t="s">
+      <c r="D4" s="298" t="s">
         <v>796</v>
       </c>
-      <c r="E4" s="404" t="s">
+      <c r="E4" s="282" t="s">
         <v>795</v>
       </c>
-      <c r="F4" s="447">
+      <c r="F4" s="319">
         <v>2</v>
       </c>
-      <c r="G4" s="438"/>
-      <c r="H4" s="345"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="396"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A5" s="403">
+      <c r="A5" s="281">
         <v>3</v>
       </c>
       <c r="B5" s="169" t="s">
         <v>797</v>
       </c>
-      <c r="C5" s="404" t="s">
+      <c r="C5" s="282" t="s">
         <v>378</v>
       </c>
-      <c r="D5" s="423" t="s">
+      <c r="D5" s="298" t="s">
         <v>378</v>
       </c>
-      <c r="E5" s="404" t="s">
+      <c r="E5" s="282" t="s">
         <v>797</v>
       </c>
-      <c r="F5" s="447">
+      <c r="F5" s="319">
         <v>3</v>
       </c>
-      <c r="G5" s="438"/>
-      <c r="H5" s="345"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="396"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="405">
+      <c r="A6" s="283">
         <v>4</v>
       </c>
       <c r="B6" s="170" t="s">
         <v>798</v>
       </c>
-      <c r="C6" s="406" t="s">
+      <c r="C6" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="424" t="s">
+      <c r="D6" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="406" t="s">
+      <c r="E6" s="284" t="s">
         <v>798</v>
       </c>
-      <c r="F6" s="448">
+      <c r="F6" s="320">
         <v>4</v>
       </c>
-      <c r="G6" s="438"/>
-      <c r="H6" s="345"/>
+      <c r="G6" s="310"/>
+      <c r="H6" s="396"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="405">
+      <c r="A7" s="283">
         <v>5</v>
       </c>
       <c r="B7" s="170" t="s">
         <v>799</v>
       </c>
-      <c r="C7" s="406" t="s">
+      <c r="C7" s="284" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="444" t="s">
+      <c r="D7" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="406" t="s">
+      <c r="E7" s="284" t="s">
         <v>799</v>
       </c>
-      <c r="F7" s="448">
+      <c r="F7" s="320">
         <v>5</v>
       </c>
-      <c r="G7" s="438"/>
-      <c r="H7" s="345"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="396"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="407">
+      <c r="A8" s="285">
         <v>6</v>
       </c>
       <c r="B8" s="171" t="s">
         <v>814</v>
       </c>
-      <c r="C8" s="408" t="s">
-        <v>1267</v>
+      <c r="C8" s="286" t="s">
+        <v>1265</v>
       </c>
       <c r="D8" s="187" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E8" s="439" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E8" s="311" t="s">
         <v>814</v>
       </c>
-      <c r="F8" s="439">
+      <c r="F8" s="311">
         <v>6</v>
       </c>
-      <c r="G8" s="438"/>
-      <c r="H8" s="345"/>
+      <c r="G8" s="310"/>
+      <c r="H8" s="396"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="407">
+      <c r="A9" s="285">
         <v>7</v>
       </c>
       <c r="B9" s="171" t="s">
         <v>815</v>
       </c>
-      <c r="C9" s="408" t="s">
-        <v>1268</v>
+      <c r="C9" s="286" t="s">
+        <v>1266</v>
       </c>
       <c r="D9" s="171" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E9" s="439" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E9" s="311" t="s">
         <v>815</v>
       </c>
-      <c r="F9" s="439">
+      <c r="F9" s="311">
         <v>7</v>
       </c>
-      <c r="G9" s="438"/>
-      <c r="H9" s="345"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="396"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A10" s="409">
+      <c r="A10" s="287">
         <v>8</v>
       </c>
       <c r="B10" s="172" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C10" s="410" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D10" s="445" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E10" s="410" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F10" s="449">
+        <v>1309</v>
+      </c>
+      <c r="C10" s="288" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D10" s="317" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E10" s="288" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F10" s="321">
         <v>8</v>
       </c>
-      <c r="G10" s="438"/>
-      <c r="H10" s="346"/>
+      <c r="G10" s="310"/>
+      <c r="H10" s="397"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="425">
+      <c r="A11" s="300">
         <v>9</v>
       </c>
-      <c r="B11" s="426" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C11" s="427" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D11" s="440" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E11" s="427" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F11" s="450">
+      <c r="B11" s="301" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C11" s="302" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D11" s="312" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E11" s="302" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F11" s="322">
         <v>9</v>
       </c>
-      <c r="G11" s="438"/>
-      <c r="H11" s="347" t="s">
+      <c r="G11" s="310"/>
+      <c r="H11" s="398" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="428">
+      <c r="A12" s="303">
         <v>10</v>
       </c>
-      <c r="B12" s="429" t="s">
+      <c r="B12" s="304" t="s">
         <v>801</v>
       </c>
-      <c r="C12" s="430" t="s">
+      <c r="C12" s="305" t="s">
         <v>506</v>
       </c>
-      <c r="D12" s="432" t="s">
+      <c r="D12" s="307" t="s">
         <v>503</v>
       </c>
-      <c r="E12" s="429" t="s">
+      <c r="E12" s="304" t="s">
         <v>802</v>
       </c>
-      <c r="F12" s="433">
+      <c r="F12" s="308">
         <v>10</v>
       </c>
-      <c r="G12" s="438"/>
-      <c r="H12" s="348"/>
+      <c r="G12" s="310"/>
+      <c r="H12" s="399"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A13" s="411">
+      <c r="A13" s="289">
         <v>11</v>
       </c>
       <c r="B13" s="173" t="s">
         <v>803</v>
       </c>
-      <c r="C13" s="431" t="s">
+      <c r="C13" s="306" t="s">
         <v>505</v>
       </c>
-      <c r="D13" s="434" t="s">
+      <c r="D13" s="309" t="s">
         <v>804</v>
       </c>
       <c r="E13" s="173" t="s">
         <v>805</v>
       </c>
-      <c r="F13" s="412">
+      <c r="F13" s="290">
         <v>11</v>
       </c>
-      <c r="G13" s="438"/>
-      <c r="H13" s="348"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="399"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A14" s="411">
+      <c r="A14" s="289">
         <v>12</v>
       </c>
       <c r="B14" s="173" t="s">
         <v>806</v>
       </c>
-      <c r="C14" s="431" t="s">
+      <c r="C14" s="306" t="s">
         <v>504</v>
       </c>
-      <c r="D14" s="434" t="s">
+      <c r="D14" s="309" t="s">
         <v>807</v>
       </c>
       <c r="E14" s="173" t="s">
         <v>808</v>
       </c>
-      <c r="F14" s="412">
+      <c r="F14" s="290">
         <v>12</v>
       </c>
-      <c r="G14" s="438"/>
-      <c r="H14" s="348"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="399"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A15" s="413">
+      <c r="A15" s="291">
         <v>13</v>
       </c>
       <c r="B15" s="174" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C15" s="292" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D15" s="291" t="s">
+        <v>585</v>
+      </c>
+      <c r="E15" s="174" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F15" s="292">
+        <v>13</v>
+      </c>
+      <c r="G15" s="310"/>
+      <c r="H15" s="399"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A16" s="291">
+        <v>14</v>
+      </c>
+      <c r="B16" s="174" t="s">
         <v>1176</v>
       </c>
-      <c r="C15" s="414" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D15" s="413" t="s">
-        <v>585</v>
-      </c>
-      <c r="E15" s="174" t="s">
+      <c r="C16" s="292" t="s">
+        <v>583</v>
+      </c>
+      <c r="D16" s="291" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="174" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F16" s="292">
+        <v>14</v>
+      </c>
+      <c r="G16" s="310"/>
+      <c r="H16" s="399"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A17" s="291">
+        <v>15</v>
+      </c>
+      <c r="B17" s="174" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C17" s="292" t="s">
+        <v>594</v>
+      </c>
+      <c r="D17" s="291" t="s">
+        <v>587</v>
+      </c>
+      <c r="E17" s="174" t="s">
         <v>1281</v>
       </c>
-      <c r="F15" s="414">
-        <v>13</v>
-      </c>
-      <c r="G15" s="438"/>
-      <c r="H15" s="348"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A16" s="413">
-        <v>14</v>
-      </c>
-      <c r="B16" s="174" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C16" s="414" t="s">
-        <v>583</v>
-      </c>
-      <c r="D16" s="413" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="174" t="s">
+      <c r="F17" s="292">
+        <v>15</v>
+      </c>
+      <c r="G17" s="310"/>
+      <c r="H17" s="399"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A18" s="291">
+        <v>16</v>
+      </c>
+      <c r="B18" s="174" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C18" s="292" t="s">
+        <v>595</v>
+      </c>
+      <c r="D18" s="291" t="s">
+        <v>607</v>
+      </c>
+      <c r="E18" s="174" t="s">
         <v>1282</v>
       </c>
-      <c r="F16" s="414">
-        <v>14</v>
-      </c>
-      <c r="G16" s="438"/>
-      <c r="H16" s="348"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A17" s="413">
-        <v>15</v>
-      </c>
-      <c r="B17" s="174" t="s">
+      <c r="F18" s="292">
+        <v>16</v>
+      </c>
+      <c r="G18" s="310"/>
+      <c r="H18" s="399"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A19" s="291">
+        <v>17</v>
+      </c>
+      <c r="B19" s="174" t="s">
         <v>1278</v>
       </c>
-      <c r="C17" s="414" t="s">
-        <v>594</v>
-      </c>
-      <c r="D17" s="413" t="s">
-        <v>587</v>
-      </c>
-      <c r="E17" s="174" t="s">
+      <c r="C19" s="292" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D19" s="291" t="s">
+        <v>588</v>
+      </c>
+      <c r="E19" s="174" t="s">
         <v>1283</v>
       </c>
-      <c r="F17" s="414">
-        <v>15</v>
-      </c>
-      <c r="G17" s="438"/>
-      <c r="H17" s="348"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A18" s="413">
-        <v>16</v>
-      </c>
-      <c r="B18" s="174" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C18" s="414" t="s">
-        <v>595</v>
-      </c>
-      <c r="D18" s="413" t="s">
-        <v>607</v>
-      </c>
-      <c r="E18" s="174" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F18" s="414">
-        <v>16</v>
-      </c>
-      <c r="G18" s="438"/>
-      <c r="H18" s="348"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="413">
+      <c r="F19" s="292">
         <v>17</v>
       </c>
-      <c r="B19" s="174" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C19" s="414" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D19" s="413" t="s">
-        <v>588</v>
-      </c>
-      <c r="E19" s="174" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F19" s="414">
-        <v>17</v>
-      </c>
-      <c r="G19" s="438"/>
-      <c r="H19" s="348"/>
+      <c r="G19" s="310"/>
+      <c r="H19" s="399"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A20" s="415">
+      <c r="A20" s="293">
         <v>18</v>
       </c>
       <c r="B20" s="175" t="s">
         <v>809</v>
       </c>
-      <c r="C20" s="416" t="s">
+      <c r="C20" s="294" t="s">
         <v>810</v>
       </c>
-      <c r="D20" s="415" t="s">
+      <c r="D20" s="293" t="s">
         <v>810</v>
       </c>
       <c r="E20" s="175" t="s">
         <v>809</v>
       </c>
-      <c r="F20" s="416">
+      <c r="F20" s="294">
         <v>18</v>
       </c>
-      <c r="G20" s="438"/>
-      <c r="H20" s="348"/>
+      <c r="G20" s="310"/>
+      <c r="H20" s="399"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A21" s="415">
+      <c r="A21" s="293">
         <v>19</v>
       </c>
       <c r="B21" s="175" t="s">
         <v>811</v>
       </c>
-      <c r="C21" s="416" t="s">
+      <c r="C21" s="294" t="s">
         <v>810</v>
       </c>
-      <c r="D21" s="415" t="s">
+      <c r="D21" s="293" t="s">
         <v>810</v>
       </c>
       <c r="E21" s="175" t="s">
         <v>812</v>
       </c>
-      <c r="F21" s="416">
+      <c r="F21" s="294">
         <v>19</v>
       </c>
-      <c r="G21" s="438"/>
-      <c r="H21" s="348"/>
+      <c r="G21" s="310"/>
+      <c r="H21" s="399"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A22" s="417">
+      <c r="A22" s="295">
         <v>20</v>
       </c>
-      <c r="B22" s="418" t="s">
+      <c r="B22" s="296" t="s">
         <v>715</v>
       </c>
-      <c r="C22" s="419" t="s">
+      <c r="C22" s="297" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="417" t="s">
+      <c r="D22" s="295" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="418" t="s">
+      <c r="E22" s="296" t="s">
         <v>813</v>
       </c>
-      <c r="F22" s="419">
+      <c r="F22" s="297">
         <v>20</v>
       </c>
-      <c r="G22" s="438"/>
-      <c r="H22" s="349"/>
+      <c r="G22" s="310"/>
+      <c r="H22" s="400"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1"/>
@@ -19658,40 +19668,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="356" t="s">
+      <c r="A1" s="407" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="358"/>
+      <c r="B1" s="408"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="409"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="359"/>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="361"/>
+      <c r="A2" s="410"/>
+      <c r="B2" s="411"/>
+      <c r="C2" s="411"/>
+      <c r="D2" s="411"/>
+      <c r="E2" s="411"/>
+      <c r="F2" s="411"/>
+      <c r="G2" s="411"/>
+      <c r="H2" s="412"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="401" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="350" t="s">
+      <c r="B3" s="402"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="403"/>
+      <c r="E3" s="401" t="s">
         <v>314</v>
       </c>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="352"/>
+      <c r="F3" s="402"/>
+      <c r="G3" s="402"/>
+      <c r="H3" s="403"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="77">
@@ -19908,18 +19918,18 @@
       <c r="H21" s="69"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="353" t="s">
+      <c r="A22" s="404" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="354"/>
-      <c r="C22" s="354"/>
-      <c r="D22" s="355"/>
-      <c r="E22" s="353" t="s">
+      <c r="B22" s="405"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="406"/>
+      <c r="E22" s="404" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="354"/>
-      <c r="G22" s="354"/>
-      <c r="H22" s="355"/>
+      <c r="F22" s="405"/>
+      <c r="G22" s="405"/>
+      <c r="H22" s="406"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="62">
@@ -20196,40 +20206,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="351" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="308"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="353"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="309"/>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
-      <c r="G2" s="310"/>
-      <c r="H2" s="311"/>
+      <c r="A2" s="354"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="356"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="357" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313" t="s">
+      <c r="B3" s="358"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="358" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="314"/>
+      <c r="F3" s="358"/>
+      <c r="G3" s="358"/>
+      <c r="H3" s="359"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="12">

--- a/COMMUNICATIONS/OPAC Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/OPAC Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="1340">
   <si>
     <t>AWACS</t>
   </si>
@@ -3217,9 +3217,6 @@
   </si>
   <si>
     <t>A10 Internal #6</t>
-  </si>
-  <si>
-    <t>Air Request</t>
   </si>
   <si>
     <t>Others</t>
@@ -6742,9 +6739,28 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6754,18 +6770,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6802,6 +6806,12 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6871,6 +6881,63 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="39" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6919,63 +6986,6 @@
     <xf numFmtId="0" fontId="44" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7084,6 +7094,57 @@
     <xf numFmtId="0" fontId="31" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7102,57 +7163,6 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7168,19 +7178,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7601,13 +7598,13 @@
       <c r="N2" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="V2" s="324" t="s">
+      <c r="V2" s="330" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="324"/>
-      <c r="X2" s="324"/>
-      <c r="Y2" s="324"/>
-      <c r="Z2" s="324"/>
+      <c r="W2" s="330"/>
+      <c r="X2" s="330"/>
+      <c r="Y2" s="330"/>
+      <c r="Z2" s="330"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="105" t="s">
@@ -7656,9 +7653,9 @@
       <c r="P3" t="s">
         <v>425</v>
       </c>
-      <c r="R3" s="328"/>
-      <c r="S3" s="328"/>
-      <c r="T3" s="328"/>
+      <c r="R3" s="329"/>
+      <c r="S3" s="329"/>
+      <c r="T3" s="329"/>
       <c r="V3" s="99" t="s">
         <v>328</v>
       </c>
@@ -7740,22 +7737,22 @@
       <c r="AA4" s="21"/>
       <c r="AB4" s="21"/>
       <c r="AC4" s="21"/>
-      <c r="AD4" s="324" t="s">
+      <c r="AD4" s="330" t="s">
         <v>428</v>
       </c>
-      <c r="AE4" s="324"/>
-      <c r="AF4" s="324"/>
-      <c r="AG4" s="324"/>
-      <c r="AH4" s="324"/>
-      <c r="AJ4" s="324" t="s">
+      <c r="AE4" s="330"/>
+      <c r="AF4" s="330"/>
+      <c r="AG4" s="330"/>
+      <c r="AH4" s="330"/>
+      <c r="AJ4" s="330" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="324"/>
-      <c r="AL4" s="324"/>
-      <c r="AM4" s="324"/>
-      <c r="AN4" s="324"/>
-      <c r="AO4" s="324"/>
-      <c r="AP4" s="324"/>
+      <c r="AK4" s="330"/>
+      <c r="AL4" s="330"/>
+      <c r="AM4" s="330"/>
+      <c r="AN4" s="330"/>
+      <c r="AO4" s="330"/>
+      <c r="AP4" s="330"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="105" t="s">
@@ -7918,7 +7915,7 @@
         <v>460</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AK6" t="s">
         <v>516</v>
@@ -7927,7 +7924,7 @@
         <v>510</v>
       </c>
       <c r="AM6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AN6" t="s">
         <v>517</v>
@@ -7977,7 +7974,7 @@
         <v>100</v>
       </c>
       <c r="M7" s="110" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="N7" s="105" t="s">
         <v>334</v>
@@ -8053,7 +8050,7 @@
         <v>138</v>
       </c>
       <c r="M8" s="110" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="N8" s="105" t="s">
         <v>335</v>
@@ -8121,7 +8118,7 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="N9" s="105" t="s">
         <v>336</v>
@@ -8215,7 +8212,7 @@
         <v>156</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="N10" s="105" t="s">
         <v>337</v>
@@ -8309,7 +8306,7 @@
         <v>147</v>
       </c>
       <c r="M11" s="110" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="N11" s="105" t="s">
         <v>338</v>
@@ -8323,13 +8320,13 @@
       <c r="S11" s="97"/>
       <c r="T11" s="2"/>
       <c r="V11" s="249" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="W11" s="250" t="s">
         <v>188</v>
       </c>
       <c r="X11" s="249" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AA11" s="22"/>
       <c r="AB11" s="21"/>
@@ -8414,7 +8411,7 @@
       <c r="R12" s="96"/>
       <c r="S12" s="97"/>
       <c r="V12" s="249" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AA12" s="21"/>
       <c r="AD12" s="3" t="s">
@@ -8600,11 +8597,11 @@
         <v>281</v>
       </c>
       <c r="W14" s="222" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="X14" s="222"/>
       <c r="Y14" s="222" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Z14" s="222">
         <v>602</v>
@@ -8615,19 +8612,19 @@
       <c r="AG14" s="28"/>
       <c r="AH14" s="28"/>
       <c r="AJ14" s="223" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AK14" s="223" t="s">
         <v>1099</v>
       </c>
-      <c r="AK14" s="223" t="s">
+      <c r="AL14" s="225" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AM14" s="222" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AN14" s="222" t="s">
         <v>1100</v>
-      </c>
-      <c r="AL14" s="225" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AM14" s="222" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AN14" s="222" t="s">
-        <v>1101</v>
       </c>
       <c r="AO14" s="222">
         <v>5403</v>
@@ -8684,14 +8681,14 @@
       <c r="R15" s="98"/>
       <c r="S15" s="97"/>
       <c r="V15" s="226" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="W15" s="226" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="X15" s="226"/>
       <c r="Y15" s="226" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z15" s="226">
         <v>601</v>
@@ -8708,19 +8705,19 @@
         <v>462</v>
       </c>
       <c r="AJ15" s="223" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AK15" s="223" t="s">
         <v>1181</v>
-      </c>
-      <c r="AK15" s="223" t="s">
-        <v>1182</v>
       </c>
       <c r="AL15" s="225" t="s">
         <v>509</v>
       </c>
       <c r="AM15" s="222" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AN15" s="222" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AO15" s="222">
         <v>5404</v>
@@ -8777,14 +8774,14 @@
       <c r="R16" s="98"/>
       <c r="S16" s="97"/>
       <c r="V16" s="222" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="W16" s="223" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="X16" s="223"/>
       <c r="Y16" s="222" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="Z16" s="224">
         <v>604</v>
@@ -8848,14 +8845,14 @@
       <c r="Q17" s="2"/>
       <c r="S17" s="97"/>
       <c r="V17" s="222" t="s">
+        <v>1187</v>
+      </c>
+      <c r="W17" s="223" t="s">
         <v>1188</v>
-      </c>
-      <c r="W17" s="223" t="s">
-        <v>1189</v>
       </c>
       <c r="X17" s="223"/>
       <c r="Y17" s="222" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Z17" s="224">
         <v>605</v>
@@ -8921,14 +8918,14 @@
       <c r="S18" s="97"/>
       <c r="T18" s="22"/>
       <c r="V18" s="226" t="s">
+        <v>1123</v>
+      </c>
+      <c r="W18" s="226" t="s">
         <v>1124</v>
-      </c>
-      <c r="W18" s="226" t="s">
-        <v>1125</v>
       </c>
       <c r="X18" s="226"/>
       <c r="Y18" s="226" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="Z18" s="226">
         <v>611</v>
@@ -8944,15 +8941,15 @@
       <c r="AH18" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="AJ18" s="324" t="s">
+      <c r="AJ18" s="330" t="s">
         <v>274</v>
       </c>
-      <c r="AK18" s="324"/>
-      <c r="AL18" s="324"/>
-      <c r="AM18" s="324"/>
-      <c r="AN18" s="324"/>
-      <c r="AO18" s="324"/>
-      <c r="AP18" s="324"/>
+      <c r="AK18" s="330"/>
+      <c r="AL18" s="330"/>
+      <c r="AM18" s="330"/>
+      <c r="AN18" s="330"/>
+      <c r="AO18" s="330"/>
+      <c r="AP18" s="330"/>
     </row>
     <row r="19" spans="1:42" ht="15.75">
       <c r="A19" s="105" t="s">
@@ -9006,11 +9003,11 @@
         <v>282</v>
       </c>
       <c r="W19" s="222" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="X19" s="222"/>
       <c r="Y19" s="222" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="Z19" s="222">
         <v>612</v>
@@ -9085,19 +9082,19 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="328"/>
-      <c r="S20" s="328"/>
-      <c r="T20" s="328"/>
+      <c r="R20" s="329"/>
+      <c r="S20" s="329"/>
+      <c r="T20" s="329"/>
       <c r="U20" s="2"/>
       <c r="V20" s="224" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W20" s="224" t="s">
         <v>1129</v>
-      </c>
-      <c r="W20" s="224" t="s">
-        <v>1130</v>
       </c>
       <c r="X20" s="223"/>
       <c r="Y20" s="222" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="Z20" s="224">
         <v>613</v>
@@ -9180,14 +9177,14 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
       <c r="V21" s="226" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="W21" s="226" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="X21" s="226"/>
       <c r="Y21" s="226" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="Z21" s="226">
         <v>603</v>
@@ -9482,13 +9479,13 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
-      <c r="AD25" s="324" t="s">
+      <c r="AD25" s="330" t="s">
         <v>485</v>
       </c>
-      <c r="AE25" s="324"/>
-      <c r="AF25" s="324"/>
-      <c r="AG25" s="324"/>
-      <c r="AH25" s="324"/>
+      <c r="AE25" s="330"/>
+      <c r="AF25" s="330"/>
+      <c r="AG25" s="330"/>
+      <c r="AH25" s="330"/>
       <c r="AJ25" s="222" t="s">
         <v>554</v>
       </c>
@@ -9568,7 +9565,7 @@
         <v>226</v>
       </c>
       <c r="AJ26" s="222" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AK26" s="222" t="s">
         <v>780</v>
@@ -9642,15 +9639,15 @@
         <v>484</v>
       </c>
       <c r="AJ27" s="222" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AK27" s="222" t="s">
         <v>1184</v>
-      </c>
-      <c r="AK27" s="222" t="s">
-        <v>1185</v>
       </c>
       <c r="AL27" s="225"/>
       <c r="AM27" s="222"/>
       <c r="AN27" s="222" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AO27" s="222">
         <v>5504</v>
@@ -9746,15 +9743,15 @@
       <c r="N29" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="V29" s="324" t="s">
+      <c r="V29" s="330" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="324"/>
-      <c r="X29" s="324"/>
-      <c r="Y29" s="324"/>
-      <c r="Z29" s="324"/>
-      <c r="AA29" s="324"/>
-      <c r="AB29" s="324"/>
+      <c r="W29" s="330"/>
+      <c r="X29" s="330"/>
+      <c r="Y29" s="330"/>
+      <c r="Z29" s="330"/>
+      <c r="AA29" s="330"/>
+      <c r="AB29" s="330"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="105"/>
@@ -9812,15 +9809,15 @@
       </c>
       <c r="AA30" s="27"/>
       <c r="AB30" s="27"/>
-      <c r="AJ30" s="324" t="s">
+      <c r="AJ30" s="330" t="s">
         <v>778</v>
       </c>
-      <c r="AK30" s="324"/>
-      <c r="AL30" s="324"/>
-      <c r="AM30" s="324"/>
-      <c r="AN30" s="324"/>
-      <c r="AO30" s="324"/>
-      <c r="AP30" s="324"/>
+      <c r="AK30" s="330"/>
+      <c r="AL30" s="330"/>
+      <c r="AM30" s="330"/>
+      <c r="AN30" s="330"/>
+      <c r="AO30" s="330"/>
+      <c r="AP30" s="330"/>
     </row>
     <row r="31" spans="1:42">
       <c r="B31" s="22"/>
@@ -9840,13 +9837,13 @@
       <c r="T31" s="22"/>
       <c r="U31" s="22"/>
       <c r="V31" s="22" t="s">
+        <v>1307</v>
+      </c>
+      <c r="W31" s="22" t="s">
+        <v>1309</v>
+      </c>
+      <c r="X31" s="22" t="s">
         <v>1308</v>
-      </c>
-      <c r="W31" s="22" t="s">
-        <v>1310</v>
-      </c>
-      <c r="X31" s="22" t="s">
-        <v>1309</v>
       </c>
       <c r="Y31" s="22"/>
       <c r="Z31" s="22"/>
@@ -9881,7 +9878,7 @@
       <c r="Y32" s="22"/>
       <c r="Z32" s="22"/>
       <c r="AJ32" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AK32" t="s">
         <v>552</v>
@@ -9923,13 +9920,13 @@
     </row>
     <row r="37" spans="20:36">
       <c r="T37" s="207"/>
-      <c r="V37" s="324" t="s">
+      <c r="V37" s="330" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="324"/>
-      <c r="X37" s="324"/>
-      <c r="Y37" s="324"/>
-      <c r="Z37" s="324"/>
+      <c r="W37" s="330"/>
+      <c r="X37" s="330"/>
+      <c r="Y37" s="330"/>
+      <c r="Z37" s="330"/>
       <c r="AA37" s="209"/>
       <c r="AB37" s="209"/>
       <c r="AC37" s="207"/>
@@ -9958,11 +9955,11 @@
       <c r="AA38" s="210"/>
       <c r="AB38" s="210"/>
       <c r="AC38" s="207"/>
-      <c r="AD38" s="329" t="s">
+      <c r="AD38" s="331" t="s">
         <v>260</v>
       </c>
-      <c r="AE38" s="330"/>
-      <c r="AF38" s="331"/>
+      <c r="AE38" s="332"/>
+      <c r="AF38" s="333"/>
       <c r="AG38" s="207"/>
     </row>
     <row r="39" spans="20:36">
@@ -9980,7 +9977,7 @@
         <v>188</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AA39" s="211"/>
       <c r="AB39" s="211"/>
@@ -10008,10 +10005,10 @@
         <v>465</v>
       </c>
       <c r="Y40" s="183" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AA40" s="211"/>
       <c r="AB40" s="211"/>
@@ -10030,7 +10027,7 @@
     <row r="41" spans="20:36">
       <c r="T41" s="207"/>
       <c r="V41" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="W41" s="183" t="s">
         <v>151</v>
@@ -10039,10 +10036,10 @@
         <v>470</v>
       </c>
       <c r="Y41" s="183" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AA41" s="211"/>
       <c r="AB41" s="211"/>
@@ -10094,15 +10091,15 @@
       <c r="AG43" s="207"/>
     </row>
     <row r="44" spans="20:36">
-      <c r="V44" s="324" t="s">
+      <c r="V44" s="330" t="s">
         <v>244</v>
       </c>
-      <c r="W44" s="324"/>
-      <c r="X44" s="324"/>
-      <c r="Y44" s="324"/>
-      <c r="Z44" s="324"/>
-      <c r="AA44" s="324"/>
-      <c r="AB44" s="324"/>
+      <c r="W44" s="330"/>
+      <c r="X44" s="330"/>
+      <c r="Y44" s="330"/>
+      <c r="Z44" s="330"/>
+      <c r="AA44" s="330"/>
+      <c r="AB44" s="330"/>
       <c r="AC44" s="207"/>
       <c r="AD44" s="3" t="s">
         <v>256</v>
@@ -10181,15 +10178,15 @@
       <c r="AG47" s="207"/>
     </row>
     <row r="48" spans="20:36">
-      <c r="V48" s="325" t="s">
+      <c r="V48" s="334" t="s">
         <v>472</v>
       </c>
-      <c r="W48" s="326"/>
-      <c r="X48" s="326"/>
-      <c r="Y48" s="326"/>
-      <c r="Z48" s="326"/>
-      <c r="AA48" s="326"/>
-      <c r="AB48" s="327"/>
+      <c r="W48" s="335"/>
+      <c r="X48" s="335"/>
+      <c r="Y48" s="335"/>
+      <c r="Z48" s="335"/>
+      <c r="AA48" s="335"/>
+      <c r="AB48" s="336"/>
       <c r="AC48" s="207"/>
       <c r="AD48" s="3" t="s">
         <v>261</v>
@@ -10355,7 +10352,7 @@
         <v>844</v>
       </c>
       <c r="Y54" s="172" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Z54" s="172"/>
       <c r="AA54" s="172" t="s">
@@ -10387,14 +10384,14 @@
         <v>845</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="175"/>
       <c r="AC55" s="207"/>
       <c r="AD55" s="195" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AE55" s="183" t="s">
         <v>370</v>
@@ -10422,7 +10419,7 @@
       <c r="AB56" s="178"/>
       <c r="AC56" s="207"/>
       <c r="AD56" s="195" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AE56" s="183" t="s">
         <v>78</v>
@@ -10495,7 +10492,7 @@
         <v>842</v>
       </c>
       <c r="Y60" s="172" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Z60" s="172"/>
       <c r="AA60" s="172"/>
@@ -10515,7 +10512,7 @@
         <v>843</v>
       </c>
       <c r="Y61" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
@@ -10542,10 +10539,10 @@
         <v>814</v>
       </c>
       <c r="X63" s="227" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Y63" s="172" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Z63" s="172"/>
       <c r="AA63" s="172"/>
@@ -10561,10 +10558,10 @@
         <v>249</v>
       </c>
       <c r="X64" s="228" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Y64" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
@@ -10647,7 +10644,7 @@
         <v>854</v>
       </c>
       <c r="Y69" s="172" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Z69" s="172"/>
       <c r="AA69" s="172"/>
@@ -10666,7 +10663,7 @@
         <v>855</v>
       </c>
       <c r="Y70" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
@@ -10714,7 +10711,7 @@
         <v>249</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
@@ -10887,13 +10884,13 @@
     </row>
     <row r="84" spans="22:28">
       <c r="V84" s="220" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="W84" s="221" t="s">
         <v>268</v>
       </c>
       <c r="X84" s="221" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Y84" s="172"/>
       <c r="Z84" s="172"/>
@@ -10906,7 +10903,7 @@
         <v>249</v>
       </c>
       <c r="X85" s="195" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
@@ -10924,13 +10921,13 @@
     </row>
     <row r="87" spans="22:28">
       <c r="V87" s="171" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="W87" s="172" t="s">
         <v>268</v>
       </c>
       <c r="X87" s="172" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Y87" s="172"/>
       <c r="Z87" s="172"/>
@@ -10943,7 +10940,7 @@
         <v>249</v>
       </c>
       <c r="X88" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
@@ -10988,13 +10985,13 @@
     </row>
     <row r="93" spans="22:28">
       <c r="V93" s="171" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="W93" s="221" t="s">
         <v>268</v>
       </c>
       <c r="X93" s="172" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Y93" s="172"/>
       <c r="Z93" s="172"/>
@@ -11007,7 +11004,7 @@
         <v>249</v>
       </c>
       <c r="X94" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
@@ -11025,6 +11022,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="V44:AB44"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:Z37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -11033,11 +11035,6 @@
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD25:AH25"/>
     <mergeCell ref="AJ30:AP30"/>
-    <mergeCell ref="V44:AB44"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:Z37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11065,40 +11062,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="426" t="s">
+      <c r="A1" s="433" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="427"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="427"/>
-      <c r="E1" s="427"/>
-      <c r="F1" s="427"/>
-      <c r="G1" s="427"/>
-      <c r="H1" s="428"/>
+      <c r="B1" s="434"/>
+      <c r="C1" s="434"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="435"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="429"/>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="431"/>
+      <c r="A2" s="436"/>
+      <c r="B2" s="437"/>
+      <c r="C2" s="437"/>
+      <c r="D2" s="437"/>
+      <c r="E2" s="437"/>
+      <c r="F2" s="437"/>
+      <c r="G2" s="437"/>
+      <c r="H2" s="438"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="432" t="s">
+      <c r="A3" s="439" t="s">
         <v>698</v>
       </c>
-      <c r="B3" s="433"/>
-      <c r="C3" s="433"/>
-      <c r="D3" s="434"/>
-      <c r="E3" s="432" t="s">
+      <c r="B3" s="440"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="441"/>
+      <c r="E3" s="439" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="433"/>
-      <c r="G3" s="433"/>
-      <c r="H3" s="434"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="440"/>
+      <c r="H3" s="441"/>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="154">
@@ -11571,18 +11568,18 @@
       <c r="H24" s="134"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A25" s="435" t="s">
+      <c r="A25" s="442" t="s">
         <v>314</v>
       </c>
-      <c r="B25" s="436"/>
-      <c r="C25" s="436"/>
-      <c r="D25" s="437"/>
-      <c r="E25" s="435" t="s">
+      <c r="B25" s="443"/>
+      <c r="C25" s="443"/>
+      <c r="D25" s="444"/>
+      <c r="E25" s="442" t="s">
         <v>748</v>
       </c>
-      <c r="F25" s="436"/>
-      <c r="G25" s="436"/>
-      <c r="H25" s="437"/>
+      <c r="F25" s="443"/>
+      <c r="G25" s="443"/>
+      <c r="H25" s="444"/>
     </row>
     <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="143">
@@ -11997,40 +11994,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="438" t="s">
+      <c r="A1" s="462" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
+      <c r="B1" s="462"/>
+      <c r="C1" s="462"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
+      <c r="F1" s="462"/>
+      <c r="G1" s="462"/>
+      <c r="H1" s="462"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="439"/>
-      <c r="B2" s="439"/>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
-      <c r="G2" s="439"/>
-      <c r="H2" s="439"/>
+      <c r="A2" s="463"/>
+      <c r="B2" s="463"/>
+      <c r="C2" s="463"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="463"/>
+      <c r="F2" s="463"/>
+      <c r="G2" s="463"/>
+      <c r="H2" s="463"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="440" t="s">
+      <c r="A3" s="464" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="441"/>
-      <c r="C3" s="442"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="440" t="s">
+      <c r="B3" s="465"/>
+      <c r="C3" s="466"/>
+      <c r="D3" s="467"/>
+      <c r="E3" s="464" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="441"/>
-      <c r="G3" s="442"/>
-      <c r="H3" s="443"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="467"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="29">
@@ -12323,114 +12320,114 @@
       <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="440" t="s">
+      <c r="A25" s="464" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="441"/>
-      <c r="C25" s="442"/>
-      <c r="D25" s="443"/>
-      <c r="E25" s="440" t="s">
+      <c r="B25" s="465"/>
+      <c r="C25" s="466"/>
+      <c r="D25" s="467"/>
+      <c r="E25" s="464" t="s">
         <v>290</v>
       </c>
-      <c r="F25" s="441"/>
-      <c r="G25" s="442"/>
-      <c r="H25" s="443"/>
+      <c r="F25" s="465"/>
+      <c r="G25" s="466"/>
+      <c r="H25" s="467"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B26" s="444"/>
-      <c r="C26" s="445"/>
-      <c r="D26" s="446"/>
+      <c r="B26" s="451"/>
+      <c r="C26" s="452"/>
+      <c r="D26" s="453"/>
       <c r="E26" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="F26" s="447"/>
-      <c r="G26" s="448"/>
-      <c r="H26" s="449"/>
+      <c r="F26" s="459"/>
+      <c r="G26" s="460"/>
+      <c r="H26" s="461"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="B27" s="450"/>
-      <c r="C27" s="451"/>
-      <c r="D27" s="452"/>
+      <c r="B27" s="454"/>
+      <c r="C27" s="455"/>
+      <c r="D27" s="457"/>
       <c r="E27" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F27" s="444"/>
-      <c r="G27" s="445"/>
-      <c r="H27" s="453"/>
+      <c r="F27" s="451"/>
+      <c r="G27" s="452"/>
+      <c r="H27" s="458"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="444"/>
-      <c r="C28" s="445"/>
-      <c r="D28" s="446"/>
+      <c r="B28" s="451"/>
+      <c r="C28" s="452"/>
+      <c r="D28" s="453"/>
       <c r="E28" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="F28" s="450"/>
-      <c r="G28" s="451"/>
-      <c r="H28" s="454"/>
+      <c r="F28" s="454"/>
+      <c r="G28" s="455"/>
+      <c r="H28" s="456"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="B29" s="450"/>
-      <c r="C29" s="451"/>
-      <c r="D29" s="452"/>
+      <c r="B29" s="454"/>
+      <c r="C29" s="455"/>
+      <c r="D29" s="457"/>
       <c r="E29" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="F29" s="444"/>
-      <c r="G29" s="445"/>
-      <c r="H29" s="453"/>
+      <c r="F29" s="451"/>
+      <c r="G29" s="452"/>
+      <c r="H29" s="458"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="444"/>
-      <c r="C30" s="445"/>
-      <c r="D30" s="446"/>
+      <c r="B30" s="451"/>
+      <c r="C30" s="452"/>
+      <c r="D30" s="453"/>
       <c r="E30" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="F30" s="450"/>
-      <c r="G30" s="451"/>
-      <c r="H30" s="454"/>
+      <c r="F30" s="454"/>
+      <c r="G30" s="455"/>
+      <c r="H30" s="456"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="B31" s="450"/>
-      <c r="C31" s="451"/>
-      <c r="D31" s="452"/>
+      <c r="B31" s="454"/>
+      <c r="C31" s="455"/>
+      <c r="D31" s="457"/>
       <c r="E31" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F31" s="444"/>
-      <c r="G31" s="445"/>
-      <c r="H31" s="453"/>
+      <c r="F31" s="451"/>
+      <c r="G31" s="452"/>
+      <c r="H31" s="458"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="B32" s="444"/>
-      <c r="C32" s="445"/>
-      <c r="D32" s="446"/>
+      <c r="B32" s="451"/>
+      <c r="C32" s="452"/>
+      <c r="D32" s="453"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="450"/>
-      <c r="G32" s="451"/>
-      <c r="H32" s="454" t="s">
+      <c r="F32" s="454"/>
+      <c r="G32" s="455"/>
+      <c r="H32" s="456" t="s">
         <v>242</v>
       </c>
     </row>
@@ -12438,13 +12435,13 @@
       <c r="A33" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="450"/>
-      <c r="C33" s="451"/>
-      <c r="D33" s="452"/>
+      <c r="B33" s="454"/>
+      <c r="C33" s="455"/>
+      <c r="D33" s="457"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="444"/>
-      <c r="G33" s="445"/>
-      <c r="H33" s="453" t="s">
+      <c r="F33" s="451"/>
+      <c r="G33" s="452"/>
+      <c r="H33" s="458" t="s">
         <v>284</v>
       </c>
     </row>
@@ -12452,13 +12449,13 @@
       <c r="A34" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="B34" s="444"/>
-      <c r="C34" s="445"/>
-      <c r="D34" s="446"/>
+      <c r="B34" s="451"/>
+      <c r="C34" s="452"/>
+      <c r="D34" s="453"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="450"/>
-      <c r="G34" s="451"/>
-      <c r="H34" s="454" t="s">
+      <c r="F34" s="454"/>
+      <c r="G34" s="455"/>
+      <c r="H34" s="456" t="s">
         <v>285</v>
       </c>
     </row>
@@ -12466,13 +12463,13 @@
       <c r="A35" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="B35" s="450"/>
-      <c r="C35" s="451"/>
-      <c r="D35" s="452"/>
+      <c r="B35" s="454"/>
+      <c r="C35" s="455"/>
+      <c r="D35" s="457"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="444"/>
-      <c r="G35" s="445"/>
-      <c r="H35" s="453" t="s">
+      <c r="F35" s="451"/>
+      <c r="G35" s="452"/>
+      <c r="H35" s="458" t="s">
         <v>286</v>
       </c>
     </row>
@@ -12480,13 +12477,13 @@
       <c r="A36" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="444"/>
-      <c r="C36" s="445"/>
-      <c r="D36" s="446"/>
+      <c r="B36" s="451"/>
+      <c r="C36" s="452"/>
+      <c r="D36" s="453"/>
       <c r="E36" s="41"/>
-      <c r="F36" s="450"/>
-      <c r="G36" s="451"/>
-      <c r="H36" s="454" t="s">
+      <c r="F36" s="454"/>
+      <c r="G36" s="455"/>
+      <c r="H36" s="456" t="s">
         <v>287</v>
       </c>
     </row>
@@ -12494,13 +12491,13 @@
       <c r="A37" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="B37" s="450"/>
-      <c r="C37" s="451"/>
-      <c r="D37" s="452"/>
+      <c r="B37" s="454"/>
+      <c r="C37" s="455"/>
+      <c r="D37" s="457"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="444"/>
-      <c r="G37" s="445"/>
-      <c r="H37" s="453" t="s">
+      <c r="F37" s="451"/>
+      <c r="G37" s="452"/>
+      <c r="H37" s="458" t="s">
         <v>288</v>
       </c>
     </row>
@@ -12508,13 +12505,13 @@
       <c r="A38" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="B38" s="444"/>
-      <c r="C38" s="445"/>
-      <c r="D38" s="446"/>
+      <c r="B38" s="451"/>
+      <c r="C38" s="452"/>
+      <c r="D38" s="453"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="450"/>
-      <c r="G38" s="451"/>
-      <c r="H38" s="454" t="s">
+      <c r="F38" s="454"/>
+      <c r="G38" s="455"/>
+      <c r="H38" s="456" t="s">
         <v>241</v>
       </c>
     </row>
@@ -12522,13 +12519,13 @@
       <c r="A39" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B39" s="450"/>
-      <c r="C39" s="451"/>
-      <c r="D39" s="452"/>
+      <c r="B39" s="454"/>
+      <c r="C39" s="455"/>
+      <c r="D39" s="457"/>
       <c r="E39" s="33"/>
-      <c r="F39" s="444"/>
-      <c r="G39" s="445"/>
-      <c r="H39" s="453" t="s">
+      <c r="F39" s="451"/>
+      <c r="G39" s="452"/>
+      <c r="H39" s="458" t="s">
         <v>242</v>
       </c>
     </row>
@@ -12536,28 +12533,57 @@
       <c r="A40" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B40" s="444"/>
-      <c r="C40" s="445"/>
-      <c r="D40" s="446"/>
+      <c r="B40" s="451"/>
+      <c r="C40" s="452"/>
+      <c r="D40" s="453"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="450"/>
-      <c r="G40" s="451"/>
-      <c r="H40" s="454"/>
+      <c r="F40" s="454"/>
+      <c r="G40" s="455"/>
+      <c r="H40" s="456"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="B41" s="455"/>
-      <c r="C41" s="456"/>
-      <c r="D41" s="457"/>
+      <c r="B41" s="445"/>
+      <c r="C41" s="446"/>
+      <c r="D41" s="447"/>
       <c r="E41" s="58"/>
-      <c r="F41" s="458"/>
-      <c r="G41" s="459"/>
-      <c r="H41" s="460"/>
+      <c r="F41" s="448"/>
+      <c r="G41" s="449"/>
+      <c r="H41" s="450"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -12566,35 +12592,6 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12631,14 +12628,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="207"/>
-      <c r="B2" s="461" t="s">
+      <c r="B2" s="468" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="462"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="462"/>
-      <c r="F2" s="462"/>
-      <c r="G2" s="463"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="469"/>
+      <c r="E2" s="469"/>
+      <c r="F2" s="469"/>
+      <c r="G2" s="470"/>
       <c r="H2" s="207"/>
     </row>
     <row r="3" spans="1:8">
@@ -12666,7 +12663,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="207"/>
       <c r="B4" s="215" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C4" s="208" t="s">
         <v>516</v>
@@ -12675,7 +12672,7 @@
         <v>510</v>
       </c>
       <c r="E4" s="208" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F4" s="208" t="s">
         <v>517</v>
@@ -12753,14 +12750,14 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="207"/>
-      <c r="B8" s="464" t="s">
+      <c r="B8" s="471" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="465"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="472"/>
       <c r="H8" s="207"/>
     </row>
     <row r="9" spans="1:8">
@@ -12788,7 +12785,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="207"/>
       <c r="B10" s="174" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>513</v>
@@ -12810,7 +12807,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="207"/>
       <c r="B11" s="174" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>541</v>
@@ -12832,7 +12829,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="207"/>
       <c r="B12" s="174" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>543</v>
@@ -12854,7 +12851,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="207"/>
       <c r="B13" s="174" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>546</v>
@@ -12875,14 +12872,14 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="207"/>
-      <c r="B14" s="464" t="s">
+      <c r="B14" s="471" t="s">
         <v>778</v>
       </c>
-      <c r="C14" s="324"/>
-      <c r="D14" s="324"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="324"/>
-      <c r="G14" s="465"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="330"/>
+      <c r="E14" s="330"/>
+      <c r="F14" s="330"/>
+      <c r="G14" s="472"/>
       <c r="H14" s="207"/>
     </row>
     <row r="15" spans="1:8">
@@ -13004,55 +13001,55 @@
       </c>
     </row>
     <row r="2" spans="2:42">
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="330" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="H2" s="324" t="s">
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="330"/>
+      <c r="H2" s="330" t="s">
         <v>961</v>
       </c>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="N2" s="324" t="s">
+      <c r="I2" s="330"/>
+      <c r="J2" s="330"/>
+      <c r="K2" s="330"/>
+      <c r="L2" s="330"/>
+      <c r="N2" s="330" t="s">
         <v>960</v>
       </c>
-      <c r="O2" s="324"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="324"/>
-      <c r="T2" s="324" t="s">
+      <c r="O2" s="330"/>
+      <c r="P2" s="330"/>
+      <c r="Q2" s="330"/>
+      <c r="R2" s="330"/>
+      <c r="T2" s="330" t="s">
         <v>236</v>
       </c>
-      <c r="U2" s="324"/>
-      <c r="V2" s="324"/>
-      <c r="W2" s="324"/>
-      <c r="X2" s="324"/>
-      <c r="Z2" s="324" t="s">
+      <c r="U2" s="330"/>
+      <c r="V2" s="330"/>
+      <c r="W2" s="330"/>
+      <c r="X2" s="330"/>
+      <c r="Z2" s="330" t="s">
         <v>246</v>
       </c>
-      <c r="AA2" s="324"/>
-      <c r="AB2" s="324"/>
-      <c r="AC2" s="324"/>
-      <c r="AD2" s="324"/>
-      <c r="AF2" s="324" t="s">
+      <c r="AA2" s="330"/>
+      <c r="AB2" s="330"/>
+      <c r="AC2" s="330"/>
+      <c r="AD2" s="330"/>
+      <c r="AF2" s="330" t="s">
         <v>317</v>
       </c>
-      <c r="AG2" s="324"/>
-      <c r="AH2" s="324"/>
-      <c r="AI2" s="324"/>
-      <c r="AJ2" s="324"/>
-      <c r="AL2" s="324" t="s">
+      <c r="AG2" s="330"/>
+      <c r="AH2" s="330"/>
+      <c r="AI2" s="330"/>
+      <c r="AJ2" s="330"/>
+      <c r="AL2" s="330" t="s">
         <v>490</v>
       </c>
-      <c r="AM2" s="324"/>
-      <c r="AN2" s="324"/>
-      <c r="AO2" s="324"/>
-      <c r="AP2" s="324"/>
+      <c r="AM2" s="330"/>
+      <c r="AN2" s="330"/>
+      <c r="AO2" s="330"/>
+      <c r="AP2" s="330"/>
     </row>
     <row r="3" spans="2:42">
       <c r="B3" s="99" t="s">
@@ -13217,10 +13214,10 @@
         <v>111</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="X4" s="102" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Z4" t="s">
         <v>491</v>
@@ -13290,10 +13287,10 @@
         <v>112</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="X5" s="102" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
@@ -13346,10 +13343,10 @@
         <v>113</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="X6" s="102" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
@@ -13400,10 +13397,10 @@
         <v>114</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="X7" s="102" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
@@ -13505,7 +13502,7 @@
         <v>1047</v>
       </c>
       <c r="T9" s="102" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>474</v>
@@ -13514,10 +13511,10 @@
         <v>121</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="X9" s="102" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
@@ -13572,10 +13569,10 @@
         <v>122</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="X10" s="102" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
@@ -13626,10 +13623,10 @@
         <v>123</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="X11" s="102" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -13680,10 +13677,10 @@
         <v>124</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="X12" s="102" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>783</v>
@@ -13785,7 +13782,7 @@
         <v>1043</v>
       </c>
       <c r="T14" s="102" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>474</v>
@@ -13794,10 +13791,10 @@
         <v>131</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="X14" s="102" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
@@ -13852,10 +13849,10 @@
         <v>132</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="X15" s="102" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
@@ -13908,13 +13905,13 @@
         <v>133</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="X16" s="102" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>821</v>
@@ -13972,10 +13969,10 @@
         <v>134</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="X17" s="102" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -13983,10 +13980,10 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AL17" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AM17" s="3" t="s">
         <v>1178</v>
-      </c>
-      <c r="AM17" s="3" t="s">
-        <v>1179</v>
       </c>
       <c r="AN17" s="195">
         <v>641</v>
@@ -14072,7 +14069,7 @@
         <v>1039</v>
       </c>
       <c r="T19" s="102" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>474</v>
@@ -14081,10 +14078,10 @@
         <v>141</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="X19" s="102" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="Z19" t="s">
         <v>350</v>
@@ -14142,10 +14139,10 @@
         <v>142</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="X20" s="102" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Z20" t="s">
         <v>494</v>
@@ -14236,7 +14233,7 @@
         <v>1036</v>
       </c>
       <c r="T22" s="205" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>821</v>
@@ -14245,10 +14242,10 @@
         <v>151</v>
       </c>
       <c r="W22" s="195" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="X22" s="102" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -14270,10 +14267,10 @@
         <v>152</v>
       </c>
       <c r="W23" s="195" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X23" s="102" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -14315,10 +14312,10 @@
         <v>153</v>
       </c>
       <c r="W24" s="195" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="X24" s="102" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -14350,10 +14347,10 @@
         <v>154</v>
       </c>
       <c r="W25" s="195" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="X25" s="102" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -14409,7 +14406,7 @@
         <v>1032</v>
       </c>
       <c r="T27" s="205" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>821</v>
@@ -14418,10 +14415,10 @@
         <v>161</v>
       </c>
       <c r="W27" s="195" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="X27" s="102" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -14441,10 +14438,10 @@
         <v>162</v>
       </c>
       <c r="W28" s="195" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="X28" s="102" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -14484,10 +14481,10 @@
         <v>163</v>
       </c>
       <c r="W29" s="195" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="X29" s="102" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -14519,10 +14516,10 @@
         <v>164</v>
       </c>
       <c r="W30" s="195" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="X30" s="102" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -14686,20 +14683,20 @@
       <c r="X39" s="57"/>
     </row>
     <row r="41" spans="2:24">
-      <c r="B41" s="324" t="s">
+      <c r="B41" s="330" t="s">
         <v>645</v>
       </c>
-      <c r="C41" s="324"/>
-      <c r="D41" s="324"/>
-      <c r="E41" s="324"/>
-      <c r="F41" s="324"/>
-      <c r="H41" s="324" t="s">
+      <c r="C41" s="330"/>
+      <c r="D41" s="330"/>
+      <c r="E41" s="330"/>
+      <c r="F41" s="330"/>
+      <c r="H41" s="330" t="s">
         <v>697</v>
       </c>
-      <c r="I41" s="324"/>
-      <c r="J41" s="324"/>
-      <c r="K41" s="324"/>
-      <c r="L41" s="324"/>
+      <c r="I41" s="330"/>
+      <c r="J41" s="330"/>
+      <c r="K41" s="330"/>
+      <c r="L41" s="330"/>
     </row>
     <row r="42" spans="2:24">
       <c r="B42" s="99" t="s">
@@ -15209,7 +15206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -15236,39 +15233,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="341" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="343"/>
+      <c r="A1" s="346" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="348"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="338" t="s">
+      <c r="A2" s="343" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B2" s="344"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="325"/>
+      <c r="E2" s="343" t="s">
         <v>1296</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="468"/>
-      <c r="E2" s="338" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F2" s="339"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="468"/>
-      <c r="I2" s="338" t="s">
+      <c r="F2" s="344"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="325"/>
+      <c r="I2" s="343" t="s">
         <v>960</v>
       </c>
-      <c r="J2" s="339"/>
-      <c r="K2" s="340"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="345"/>
       <c r="L2" s="117"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1">
@@ -15281,7 +15278,7 @@
       <c r="C3" s="190" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="469"/>
+      <c r="D3" s="326"/>
       <c r="E3" s="128" t="s">
         <v>218</v>
       </c>
@@ -15291,7 +15288,7 @@
       <c r="G3" s="128" t="s">
         <v>321</v>
       </c>
-      <c r="H3" s="470"/>
+      <c r="H3" s="327"/>
       <c r="I3" s="128" t="s">
         <v>218</v>
       </c>
@@ -15304,7 +15301,7 @@
       <c r="L3" s="117"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
-      <c r="A4" s="332" t="s">
+      <c r="A4" s="337" t="s">
         <v>325</v>
       </c>
       <c r="B4" s="123" t="s">
@@ -15314,8 +15311,8 @@
         <v>652</v>
       </c>
       <c r="D4" s="248"/>
-      <c r="E4" s="335" t="s">
-        <v>1298</v>
+      <c r="E4" s="340" t="s">
+        <v>1297</v>
       </c>
       <c r="F4" s="123" t="s">
         <v>907</v>
@@ -15324,8 +15321,8 @@
         <v>934</v>
       </c>
       <c r="H4" s="246"/>
-      <c r="I4" s="335" t="s">
-        <v>1298</v>
+      <c r="I4" s="340" t="s">
+        <v>1297</v>
       </c>
       <c r="J4" s="123" t="s">
         <v>997</v>
@@ -15336,7 +15333,7 @@
       <c r="L4" s="117"/>
     </row>
     <row r="5" spans="1:12" ht="18.75">
-      <c r="A5" s="333"/>
+      <c r="A5" s="338"/>
       <c r="B5" s="122" t="s">
         <v>322</v>
       </c>
@@ -15344,7 +15341,7 @@
         <v>653</v>
       </c>
       <c r="D5" s="248"/>
-      <c r="E5" s="336"/>
+      <c r="E5" s="341"/>
       <c r="F5" s="122" t="s">
         <v>908</v>
       </c>
@@ -15352,7 +15349,7 @@
         <v>935</v>
       </c>
       <c r="H5" s="246"/>
-      <c r="I5" s="336"/>
+      <c r="I5" s="341"/>
       <c r="J5" s="122" t="s">
         <v>998</v>
       </c>
@@ -15362,7 +15359,7 @@
       <c r="L5" s="117"/>
     </row>
     <row r="6" spans="1:12" ht="18.75">
-      <c r="A6" s="333"/>
+      <c r="A6" s="338"/>
       <c r="B6" s="122" t="s">
         <v>323</v>
       </c>
@@ -15370,7 +15367,7 @@
         <v>654</v>
       </c>
       <c r="D6" s="248"/>
-      <c r="E6" s="336"/>
+      <c r="E6" s="341"/>
       <c r="F6" s="122" t="s">
         <v>909</v>
       </c>
@@ -15378,7 +15375,7 @@
         <v>936</v>
       </c>
       <c r="H6" s="246"/>
-      <c r="I6" s="336"/>
+      <c r="I6" s="341"/>
       <c r="J6" s="122" t="s">
         <v>999</v>
       </c>
@@ -15388,7 +15385,7 @@
       <c r="L6" s="117"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A7" s="334"/>
+      <c r="A7" s="339"/>
       <c r="B7" s="126" t="s">
         <v>324</v>
       </c>
@@ -15396,7 +15393,7 @@
         <v>655</v>
       </c>
       <c r="D7" s="248"/>
-      <c r="E7" s="337"/>
+      <c r="E7" s="342"/>
       <c r="F7" s="126" t="s">
         <v>910</v>
       </c>
@@ -15404,7 +15401,7 @@
         <v>937</v>
       </c>
       <c r="H7" s="246"/>
-      <c r="I7" s="337"/>
+      <c r="I7" s="342"/>
       <c r="J7" s="126" t="s">
         <v>1000</v>
       </c>
@@ -15414,7 +15411,7 @@
       <c r="L7" s="117"/>
     </row>
     <row r="8" spans="1:12" ht="18.75">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="337" t="s">
         <v>615</v>
       </c>
       <c r="B8" s="123" t="s">
@@ -15424,7 +15421,7 @@
         <v>656</v>
       </c>
       <c r="D8" s="248"/>
-      <c r="E8" s="335" t="s">
+      <c r="E8" s="340" t="s">
         <v>964</v>
       </c>
       <c r="F8" s="123" t="s">
@@ -15434,7 +15431,7 @@
         <v>938</v>
       </c>
       <c r="H8" s="246"/>
-      <c r="I8" s="335" t="s">
+      <c r="I8" s="340" t="s">
         <v>964</v>
       </c>
       <c r="J8" s="123" t="s">
@@ -15446,7 +15443,7 @@
       <c r="L8" s="117"/>
     </row>
     <row r="9" spans="1:12" ht="18.75">
-      <c r="A9" s="333"/>
+      <c r="A9" s="338"/>
       <c r="B9" s="122" t="s">
         <v>606</v>
       </c>
@@ -15454,7 +15451,7 @@
         <v>657</v>
       </c>
       <c r="D9" s="248"/>
-      <c r="E9" s="336"/>
+      <c r="E9" s="341"/>
       <c r="F9" s="122" t="s">
         <v>912</v>
       </c>
@@ -15462,7 +15459,7 @@
         <v>939</v>
       </c>
       <c r="H9" s="246"/>
-      <c r="I9" s="336"/>
+      <c r="I9" s="341"/>
       <c r="J9" s="122" t="s">
         <v>1001</v>
       </c>
@@ -15472,7 +15469,7 @@
       <c r="L9" s="117"/>
     </row>
     <row r="10" spans="1:12" ht="18.75">
-      <c r="A10" s="333"/>
+      <c r="A10" s="338"/>
       <c r="B10" s="122" t="s">
         <v>607</v>
       </c>
@@ -15480,7 +15477,7 @@
         <v>658</v>
       </c>
       <c r="D10" s="248"/>
-      <c r="E10" s="336"/>
+      <c r="E10" s="341"/>
       <c r="F10" s="122" t="s">
         <v>914</v>
       </c>
@@ -15488,7 +15485,7 @@
         <v>940</v>
       </c>
       <c r="H10" s="246"/>
-      <c r="I10" s="336"/>
+      <c r="I10" s="341"/>
       <c r="J10" s="122" t="s">
         <v>1002</v>
       </c>
@@ -15498,7 +15495,7 @@
       <c r="L10" s="117"/>
     </row>
     <row r="11" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A11" s="334"/>
+      <c r="A11" s="339"/>
       <c r="B11" s="126" t="s">
         <v>608</v>
       </c>
@@ -15506,7 +15503,7 @@
         <v>659</v>
       </c>
       <c r="D11" s="248"/>
-      <c r="E11" s="337"/>
+      <c r="E11" s="342"/>
       <c r="F11" s="126" t="s">
         <v>915</v>
       </c>
@@ -15514,7 +15511,7 @@
         <v>941</v>
       </c>
       <c r="H11" s="246"/>
-      <c r="I11" s="337"/>
+      <c r="I11" s="342"/>
       <c r="J11" s="126" t="s">
         <v>1003</v>
       </c>
@@ -15524,7 +15521,7 @@
       <c r="L11" s="117"/>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="A12" s="332" t="s">
+      <c r="A12" s="337" t="s">
         <v>613</v>
       </c>
       <c r="B12" s="123" t="s">
@@ -15534,8 +15531,8 @@
         <v>660</v>
       </c>
       <c r="D12" s="248"/>
-      <c r="E12" s="335" t="s">
-        <v>1299</v>
+      <c r="E12" s="340" t="s">
+        <v>1298</v>
       </c>
       <c r="F12" s="123" t="s">
         <v>916</v>
@@ -15544,8 +15541,8 @@
         <v>942</v>
       </c>
       <c r="H12" s="246"/>
-      <c r="I12" s="335" t="s">
-        <v>1299</v>
+      <c r="I12" s="340" t="s">
+        <v>1298</v>
       </c>
       <c r="J12" s="123" t="s">
         <v>1004</v>
@@ -15556,7 +15553,7 @@
       <c r="L12" s="117"/>
     </row>
     <row r="13" spans="1:12" ht="18.75">
-      <c r="A13" s="333"/>
+      <c r="A13" s="338"/>
       <c r="B13" s="122" t="s">
         <v>610</v>
       </c>
@@ -15564,7 +15561,7 @@
         <v>661</v>
       </c>
       <c r="D13" s="248"/>
-      <c r="E13" s="336"/>
+      <c r="E13" s="341"/>
       <c r="F13" s="122" t="s">
         <v>917</v>
       </c>
@@ -15572,7 +15569,7 @@
         <v>943</v>
       </c>
       <c r="H13" s="246"/>
-      <c r="I13" s="336"/>
+      <c r="I13" s="341"/>
       <c r="J13" s="122" t="s">
         <v>1005</v>
       </c>
@@ -15582,7 +15579,7 @@
       <c r="L13" s="117"/>
     </row>
     <row r="14" spans="1:12" ht="18.75">
-      <c r="A14" s="333"/>
+      <c r="A14" s="338"/>
       <c r="B14" s="122" t="s">
         <v>611</v>
       </c>
@@ -15590,7 +15587,7 @@
         <v>662</v>
       </c>
       <c r="D14" s="248"/>
-      <c r="E14" s="336"/>
+      <c r="E14" s="341"/>
       <c r="F14" s="122" t="s">
         <v>918</v>
       </c>
@@ -15598,7 +15595,7 @@
         <v>944</v>
       </c>
       <c r="H14" s="246"/>
-      <c r="I14" s="336"/>
+      <c r="I14" s="341"/>
       <c r="J14" s="122" t="s">
         <v>1006</v>
       </c>
@@ -15608,7 +15605,7 @@
       <c r="L14" s="117"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="334"/>
+      <c r="A15" s="339"/>
       <c r="B15" s="126" t="s">
         <v>612</v>
       </c>
@@ -15616,7 +15613,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="248"/>
-      <c r="E15" s="337"/>
+      <c r="E15" s="342"/>
       <c r="F15" s="126" t="s">
         <v>919</v>
       </c>
@@ -15624,7 +15621,7 @@
         <v>945</v>
       </c>
       <c r="H15" s="246"/>
-      <c r="I15" s="337"/>
+      <c r="I15" s="342"/>
       <c r="J15" s="126" t="s">
         <v>1007</v>
       </c>
@@ -15634,18 +15631,18 @@
       <c r="L15" s="117"/>
     </row>
     <row r="16" spans="1:12" ht="18.75">
-      <c r="A16" s="332" t="s">
+      <c r="A16" s="337" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B16" s="123" t="s">
         <v>1261</v>
-      </c>
-      <c r="B16" s="123" t="s">
-        <v>1262</v>
       </c>
       <c r="C16" s="124" t="s">
         <v>664</v>
       </c>
       <c r="D16" s="248"/>
-      <c r="E16" s="335" t="s">
-        <v>1300</v>
+      <c r="E16" s="340" t="s">
+        <v>1299</v>
       </c>
       <c r="F16" s="123" t="s">
         <v>920</v>
@@ -15654,8 +15651,8 @@
         <v>946</v>
       </c>
       <c r="H16" s="246"/>
-      <c r="I16" s="335" t="s">
-        <v>1300</v>
+      <c r="I16" s="340" t="s">
+        <v>1299</v>
       </c>
       <c r="J16" s="123" t="s">
         <v>1008</v>
@@ -15666,15 +15663,15 @@
       <c r="L16" s="117"/>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="333"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="122" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C17" s="125" t="s">
         <v>665</v>
       </c>
       <c r="D17" s="248"/>
-      <c r="E17" s="336"/>
+      <c r="E17" s="341"/>
       <c r="F17" s="122" t="s">
         <v>921</v>
       </c>
@@ -15682,7 +15679,7 @@
         <v>947</v>
       </c>
       <c r="H17" s="246"/>
-      <c r="I17" s="336"/>
+      <c r="I17" s="341"/>
       <c r="J17" s="122" t="s">
         <v>1009</v>
       </c>
@@ -15692,15 +15689,15 @@
       <c r="L17" s="117"/>
     </row>
     <row r="18" spans="1:12" ht="18.75">
-      <c r="A18" s="333"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="122" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C18" s="125" t="s">
         <v>666</v>
       </c>
       <c r="D18" s="248"/>
-      <c r="E18" s="336"/>
+      <c r="E18" s="341"/>
       <c r="F18" s="122" t="s">
         <v>922</v>
       </c>
@@ -15708,7 +15705,7 @@
         <v>948</v>
       </c>
       <c r="H18" s="246"/>
-      <c r="I18" s="336"/>
+      <c r="I18" s="341"/>
       <c r="J18" s="122" t="s">
         <v>1010</v>
       </c>
@@ -15718,15 +15715,15 @@
       <c r="L18" s="117"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A19" s="334"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="126" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C19" s="127" t="s">
         <v>667</v>
       </c>
       <c r="D19" s="248"/>
-      <c r="E19" s="337"/>
+      <c r="E19" s="342"/>
       <c r="F19" s="126" t="s">
         <v>923</v>
       </c>
@@ -15734,7 +15731,7 @@
         <v>949</v>
       </c>
       <c r="H19" s="246"/>
-      <c r="I19" s="337"/>
+      <c r="I19" s="342"/>
       <c r="J19" s="126" t="s">
         <v>1011</v>
       </c>
@@ -15744,18 +15741,18 @@
       <c r="L19" s="117"/>
     </row>
     <row r="20" spans="1:12" ht="18.75">
-      <c r="A20" s="332" t="s">
+      <c r="A20" s="337" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B20" s="123" t="s">
         <v>1266</v>
       </c>
-      <c r="B20" s="123" t="s">
-        <v>1267</v>
-      </c>
       <c r="C20" s="124" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D20" s="246"/>
-      <c r="E20" s="335" t="s">
-        <v>1301</v>
+      <c r="E20" s="340" t="s">
+        <v>1300</v>
       </c>
       <c r="F20" s="123" t="s">
         <v>924</v>
@@ -15764,8 +15761,8 @@
         <v>950</v>
       </c>
       <c r="H20" s="246"/>
-      <c r="I20" s="335" t="s">
-        <v>1301</v>
+      <c r="I20" s="340" t="s">
+        <v>1300</v>
       </c>
       <c r="J20" s="123" t="s">
         <v>1012</v>
@@ -15776,15 +15773,15 @@
       <c r="L20" s="117"/>
     </row>
     <row r="21" spans="1:12" ht="18.75">
-      <c r="A21" s="333"/>
+      <c r="A21" s="338"/>
       <c r="B21" s="122" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C21" s="125" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D21" s="246"/>
-      <c r="E21" s="336"/>
+      <c r="E21" s="341"/>
       <c r="F21" s="122" t="s">
         <v>925</v>
       </c>
@@ -15792,7 +15789,7 @@
         <v>951</v>
       </c>
       <c r="H21" s="246"/>
-      <c r="I21" s="336"/>
+      <c r="I21" s="341"/>
       <c r="J21" s="122" t="s">
         <v>1013</v>
       </c>
@@ -15802,15 +15799,15 @@
       <c r="L21" s="117"/>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="333"/>
+      <c r="A22" s="338"/>
       <c r="B22" s="122" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C22" s="125" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D22" s="246"/>
-      <c r="E22" s="336"/>
+      <c r="E22" s="341"/>
       <c r="F22" s="122" t="s">
         <v>926</v>
       </c>
@@ -15818,7 +15815,7 @@
         <v>952</v>
       </c>
       <c r="H22" s="246"/>
-      <c r="I22" s="336"/>
+      <c r="I22" s="341"/>
       <c r="J22" s="122" t="s">
         <v>1014</v>
       </c>
@@ -15828,15 +15825,15 @@
       <c r="L22" s="117"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A23" s="334"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="126" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D23" s="246"/>
-      <c r="E23" s="337"/>
+      <c r="E23" s="342"/>
       <c r="F23" s="126" t="s">
         <v>927</v>
       </c>
@@ -15844,7 +15841,7 @@
         <v>953</v>
       </c>
       <c r="H23" s="246"/>
-      <c r="I23" s="337"/>
+      <c r="I23" s="342"/>
       <c r="J23" s="126" t="s">
         <v>1015</v>
       </c>
@@ -15854,18 +15851,18 @@
       <c r="L23" s="117"/>
     </row>
     <row r="24" spans="1:12" ht="18.75">
-      <c r="A24" s="332" t="s">
+      <c r="A24" s="337" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B24" s="123" t="s">
         <v>1284</v>
       </c>
-      <c r="B24" s="123" t="s">
-        <v>1285</v>
-      </c>
       <c r="C24" s="124" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D24" s="246"/>
-      <c r="E24" s="335" t="s">
-        <v>1302</v>
+      <c r="E24" s="340" t="s">
+        <v>1301</v>
       </c>
       <c r="F24" s="123" t="s">
         <v>928</v>
@@ -15874,8 +15871,8 @@
         <v>954</v>
       </c>
       <c r="H24" s="246"/>
-      <c r="I24" s="335" t="s">
-        <v>1302</v>
+      <c r="I24" s="340" t="s">
+        <v>1301</v>
       </c>
       <c r="J24" s="123" t="s">
         <v>1016</v>
@@ -15886,15 +15883,15 @@
       <c r="L24" s="117"/>
     </row>
     <row r="25" spans="1:12" ht="18.75">
-      <c r="A25" s="333"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="122" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C25" s="125" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D25" s="246"/>
-      <c r="E25" s="336"/>
+      <c r="E25" s="341"/>
       <c r="F25" s="122" t="s">
         <v>929</v>
       </c>
@@ -15902,7 +15899,7 @@
         <v>955</v>
       </c>
       <c r="H25" s="246"/>
-      <c r="I25" s="336"/>
+      <c r="I25" s="341"/>
       <c r="J25" s="122" t="s">
         <v>1017</v>
       </c>
@@ -15912,15 +15909,15 @@
       <c r="L25" s="117"/>
     </row>
     <row r="26" spans="1:12" ht="18.75">
-      <c r="A26" s="333"/>
+      <c r="A26" s="338"/>
       <c r="B26" s="122" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D26" s="246"/>
-      <c r="E26" s="336"/>
+      <c r="E26" s="341"/>
       <c r="F26" s="122" t="s">
         <v>930</v>
       </c>
@@ -15928,7 +15925,7 @@
         <v>956</v>
       </c>
       <c r="H26" s="246"/>
-      <c r="I26" s="336"/>
+      <c r="I26" s="341"/>
       <c r="J26" s="122" t="s">
         <v>1018</v>
       </c>
@@ -15938,15 +15935,15 @@
       <c r="L26" s="117"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A27" s="334"/>
+      <c r="A27" s="339"/>
       <c r="B27" s="126" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C27" s="127" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D27" s="246"/>
-      <c r="E27" s="337"/>
+      <c r="E27" s="342"/>
       <c r="F27" s="126" t="s">
         <v>931</v>
       </c>
@@ -15954,7 +15951,7 @@
         <v>957</v>
       </c>
       <c r="H27" s="246"/>
-      <c r="I27" s="337"/>
+      <c r="I27" s="342"/>
       <c r="J27" s="126" t="s">
         <v>1019</v>
       </c>
@@ -15964,18 +15961,18 @@
       <c r="L27" s="117"/>
     </row>
     <row r="28" spans="1:12" ht="18.75">
-      <c r="A28" s="332" t="s">
-        <v>1283</v>
+      <c r="A28" s="337" t="s">
+        <v>1282</v>
       </c>
       <c r="B28" s="123" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D28" s="246"/>
-      <c r="E28" s="335" t="s">
-        <v>1303</v>
+      <c r="E28" s="340" t="s">
+        <v>1302</v>
       </c>
       <c r="F28" s="123" t="s">
         <v>932</v>
@@ -15984,8 +15981,8 @@
         <v>958</v>
       </c>
       <c r="H28" s="246"/>
-      <c r="I28" s="335" t="s">
-        <v>1303</v>
+      <c r="I28" s="340" t="s">
+        <v>1302</v>
       </c>
       <c r="J28" s="123" t="s">
         <v>1020</v>
@@ -15996,15 +15993,15 @@
       <c r="L28" s="117"/>
     </row>
     <row r="29" spans="1:12" ht="18.75">
-      <c r="A29" s="333"/>
+      <c r="A29" s="338"/>
       <c r="B29" s="122" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C29" s="125" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D29" s="248"/>
-      <c r="E29" s="336"/>
+      <c r="E29" s="341"/>
       <c r="F29" s="122" t="s">
         <v>933</v>
       </c>
@@ -16012,7 +16009,7 @@
         <v>959</v>
       </c>
       <c r="H29" s="246"/>
-      <c r="I29" s="336"/>
+      <c r="I29" s="341"/>
       <c r="J29" s="122" t="s">
         <v>1021</v>
       </c>
@@ -16022,21 +16019,21 @@
       <c r="L29" s="117"/>
     </row>
     <row r="30" spans="1:12" ht="18.75">
-      <c r="A30" s="333"/>
+      <c r="A30" s="338"/>
       <c r="B30" s="122" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C30" s="125" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D30" s="248"/>
-      <c r="E30" s="336"/>
+      <c r="E30" s="341"/>
       <c r="F30" s="122" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G30" s="188"/>
       <c r="H30" s="246"/>
-      <c r="I30" s="336"/>
+      <c r="I30" s="341"/>
       <c r="J30" s="122" t="s">
         <v>1022</v>
       </c>
@@ -16046,21 +16043,21 @@
       <c r="L30" s="117"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A31" s="334"/>
+      <c r="A31" s="339"/>
       <c r="B31" s="126" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C31" s="127" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D31" s="248"/>
-      <c r="E31" s="337"/>
+      <c r="E31" s="342"/>
       <c r="F31" s="126" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G31" s="189"/>
       <c r="H31" s="246"/>
-      <c r="I31" s="337"/>
+      <c r="I31" s="342"/>
       <c r="J31" s="126" t="s">
         <v>1023</v>
       </c>
@@ -16070,7 +16067,7 @@
       <c r="L31" s="117"/>
     </row>
     <row r="32" spans="1:12" ht="18.75">
-      <c r="A32" s="471"/>
+      <c r="A32" s="350"/>
       <c r="B32" s="246"/>
       <c r="C32" s="248"/>
       <c r="D32" s="248"/>
@@ -16084,7 +16081,7 @@
       <c r="L32" s="117"/>
     </row>
     <row r="33" spans="1:12" ht="18.75">
-      <c r="A33" s="471"/>
+      <c r="A33" s="350"/>
       <c r="B33" s="246"/>
       <c r="C33" s="248"/>
       <c r="D33" s="248"/>
@@ -16098,7 +16095,7 @@
       <c r="L33" s="117"/>
     </row>
     <row r="34" spans="1:12" ht="18.75">
-      <c r="A34" s="471"/>
+      <c r="A34" s="350"/>
       <c r="B34" s="246"/>
       <c r="C34" s="248"/>
       <c r="D34" s="248"/>
@@ -16112,7 +16109,7 @@
       <c r="L34" s="117"/>
     </row>
     <row r="35" spans="1:12" ht="18.75">
-      <c r="A35" s="471"/>
+      <c r="A35" s="350"/>
       <c r="B35" s="246"/>
       <c r="C35" s="248"/>
       <c r="D35" s="248"/>
@@ -16126,7 +16123,7 @@
       <c r="L35" s="117"/>
     </row>
     <row r="36" spans="1:12" ht="18.75">
-      <c r="A36" s="471"/>
+      <c r="A36" s="350"/>
       <c r="B36" s="246"/>
       <c r="C36" s="248"/>
       <c r="D36" s="248"/>
@@ -16140,7 +16137,7 @@
       <c r="L36" s="117"/>
     </row>
     <row r="37" spans="1:12" ht="18.75">
-      <c r="A37" s="471"/>
+      <c r="A37" s="350"/>
       <c r="B37" s="246"/>
       <c r="C37" s="248"/>
       <c r="D37" s="248"/>
@@ -16154,7 +16151,7 @@
       <c r="L37" s="117"/>
     </row>
     <row r="38" spans="1:12" ht="18.75">
-      <c r="A38" s="471"/>
+      <c r="A38" s="350"/>
       <c r="B38" s="246"/>
       <c r="C38" s="248"/>
       <c r="D38" s="248"/>
@@ -16168,15 +16165,15 @@
       <c r="L38" s="117"/>
     </row>
     <row r="39" spans="1:12" ht="18.75">
-      <c r="A39" s="471"/>
+      <c r="A39" s="350"/>
       <c r="B39" s="246"/>
       <c r="C39" s="248"/>
       <c r="D39" s="248"/>
-      <c r="E39" s="467"/>
+      <c r="E39" s="349"/>
       <c r="F39" s="246"/>
       <c r="G39" s="246"/>
-      <c r="H39" s="466"/>
-      <c r="I39" s="467"/>
+      <c r="H39" s="324"/>
+      <c r="I39" s="349"/>
       <c r="J39" s="246"/>
       <c r="K39" s="246"/>
       <c r="L39" s="117"/>
@@ -16186,11 +16183,11 @@
       <c r="B40" s="246"/>
       <c r="C40" s="247"/>
       <c r="D40" s="248"/>
-      <c r="E40" s="467"/>
+      <c r="E40" s="349"/>
       <c r="F40" s="246"/>
       <c r="G40" s="246"/>
-      <c r="H40" s="466"/>
-      <c r="I40" s="467"/>
+      <c r="H40" s="324"/>
+      <c r="I40" s="349"/>
       <c r="J40" s="246"/>
       <c r="K40" s="246"/>
       <c r="L40" s="117"/>
@@ -16200,11 +16197,11 @@
       <c r="B41" s="246"/>
       <c r="C41" s="248"/>
       <c r="D41" s="248"/>
-      <c r="E41" s="467"/>
+      <c r="E41" s="349"/>
       <c r="F41" s="246"/>
       <c r="G41" s="246"/>
-      <c r="H41" s="466"/>
-      <c r="I41" s="467"/>
+      <c r="H41" s="324"/>
+      <c r="I41" s="349"/>
       <c r="J41" s="246"/>
       <c r="K41" s="246"/>
       <c r="L41" s="117"/>
@@ -16214,11 +16211,11 @@
       <c r="B42" s="246"/>
       <c r="C42" s="248"/>
       <c r="D42" s="248"/>
-      <c r="E42" s="467"/>
+      <c r="E42" s="349"/>
       <c r="F42" s="246"/>
       <c r="G42" s="246"/>
-      <c r="H42" s="466"/>
-      <c r="I42" s="467"/>
+      <c r="H42" s="324"/>
+      <c r="I42" s="349"/>
       <c r="J42" s="246"/>
       <c r="K42" s="246"/>
       <c r="L42" s="117"/>
@@ -16228,13 +16225,13 @@
       <c r="B43" s="246"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
-      <c r="E43" s="466"/>
-      <c r="F43" s="466"/>
-      <c r="G43" s="466"/>
-      <c r="H43" s="466"/>
-      <c r="I43" s="472"/>
-      <c r="J43" s="466"/>
-      <c r="K43" s="466"/>
+      <c r="E43" s="324"/>
+      <c r="F43" s="324"/>
+      <c r="G43" s="324"/>
+      <c r="H43" s="324"/>
+      <c r="I43" s="328"/>
+      <c r="J43" s="324"/>
+      <c r="K43" s="324"/>
       <c r="L43" s="117"/>
     </row>
     <row r="44" spans="1:12" ht="18.75">
@@ -16242,13 +16239,13 @@
       <c r="B44" s="246"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
-      <c r="E44" s="466"/>
-      <c r="F44" s="466"/>
-      <c r="G44" s="466"/>
-      <c r="H44" s="466"/>
-      <c r="I44" s="466"/>
-      <c r="J44" s="466"/>
-      <c r="K44" s="472"/>
+      <c r="E44" s="324"/>
+      <c r="F44" s="324"/>
+      <c r="G44" s="324"/>
+      <c r="H44" s="324"/>
+      <c r="I44" s="324"/>
+      <c r="J44" s="324"/>
+      <c r="K44" s="328"/>
       <c r="L44" s="117"/>
     </row>
     <row r="45" spans="1:12" ht="29.25" customHeight="1" thickBot="1">
@@ -16267,18 +16264,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="I8:I11"/>
@@ -16289,13 +16281,18 @@
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16326,40 +16323,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="344" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="346"/>
+      <c r="A1" s="351" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="353"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="347"/>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="349"/>
+      <c r="A2" s="354"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="356"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="357" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351" t="s">
+      <c r="B3" s="358"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="358" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="352"/>
+      <c r="F3" s="358"/>
+      <c r="G3" s="358"/>
+      <c r="H3" s="359"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="10">
@@ -16385,10 +16382,10 @@
       </c>
       <c r="B5" s="242"/>
       <c r="C5" s="242" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D5" s="243" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
@@ -16409,10 +16406,10 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E6" s="11">
         <v>3</v>
@@ -16450,7 +16447,7 @@
         <v>597</v>
       </c>
       <c r="H7" s="244" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1">
@@ -16464,7 +16461,7 @@
         <v>578</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E8" s="11">
         <v>5</v>
@@ -16473,10 +16470,10 @@
         <v>470</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1">
@@ -16490,7 +16487,7 @@
         <v>582</v>
       </c>
       <c r="D9" s="243" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E9" s="11">
         <v>6</v>
@@ -16510,7 +16507,7 @@
         <v>583</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E10" s="11">
         <v>7</v>
@@ -16530,7 +16527,7 @@
         <v>594</v>
       </c>
       <c r="D11" s="243" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E11" s="11">
         <v>8</v>
@@ -16550,7 +16547,7 @@
         <v>595</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E12" s="11">
         <v>9</v>
@@ -16570,7 +16567,7 @@
         <v>584</v>
       </c>
       <c r="D13" s="243" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E13" s="11">
         <v>10</v>
@@ -16590,7 +16587,7 @@
         <v>585</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E14" s="11">
         <v>11</v>
@@ -16610,7 +16607,7 @@
         <v>586</v>
       </c>
       <c r="D15" s="243" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E15" s="11">
         <v>12</v>
@@ -16630,7 +16627,7 @@
         <v>587</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E16" s="11">
         <v>13</v>
@@ -16650,7 +16647,7 @@
         <v>604</v>
       </c>
       <c r="D17" s="243" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E17" s="11">
         <v>14</v>
@@ -16670,7 +16667,7 @@
         <v>588</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E18" s="11">
         <v>15</v>
@@ -16690,7 +16687,7 @@
         <v>589</v>
       </c>
       <c r="D19" s="243" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E19" s="11">
         <v>16</v>
@@ -16710,7 +16707,7 @@
         <v>1052</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E20" s="11">
         <v>17</v>
@@ -16730,7 +16727,7 @@
         <v>590</v>
       </c>
       <c r="D21" s="243" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E21" s="11">
         <v>18</v>
@@ -16750,7 +16747,7 @@
         <v>571</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E22" s="11">
         <v>19</v>
@@ -16770,7 +16767,7 @@
         <v>572</v>
       </c>
       <c r="D23" s="243" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E23" s="11">
         <v>20</v>
@@ -16818,12 +16815,12 @@
         <v>573</v>
       </c>
       <c r="D27" s="229" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E27" s="231"/>
       <c r="F27" s="114"/>
       <c r="G27" s="229" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H27" s="229" t="s">
         <v>811</v>
@@ -16843,10 +16840,10 @@
       <c r="E28" s="231"/>
       <c r="F28" s="240"/>
       <c r="G28" s="237" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H28" s="237" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18">
@@ -16863,10 +16860,10 @@
       <c r="E29" s="231"/>
       <c r="F29" s="114"/>
       <c r="G29" s="229" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H29" s="229" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18">
@@ -16883,10 +16880,10 @@
       <c r="E30" s="231"/>
       <c r="F30" s="240"/>
       <c r="G30" s="237" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H30" s="237" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18">
@@ -16903,10 +16900,10 @@
       <c r="E31" s="231"/>
       <c r="F31" s="114"/>
       <c r="G31" s="229" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H31" s="229" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18">
@@ -16923,70 +16920,70 @@
       <c r="E32" s="231"/>
       <c r="F32" s="240"/>
       <c r="G32" s="237" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H32" s="237" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18">
       <c r="A33" s="14"/>
       <c r="B33" s="234" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C33" s="230" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D33" s="233" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E33" s="231"/>
       <c r="F33" s="114"/>
       <c r="G33" s="229" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H33" s="229" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18">
       <c r="A34" s="14"/>
       <c r="B34" s="235" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C34" s="236" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D34" s="239" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E34" s="231"/>
       <c r="F34" s="240"/>
       <c r="G34" s="237" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H34" s="237" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18">
       <c r="A35" s="14"/>
       <c r="B35" s="234" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C35" s="230" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D35" s="232" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E35" s="231"/>
       <c r="F35" s="229"/>
       <c r="G35" s="229" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H35" s="229" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18">
@@ -16998,15 +16995,15 @@
         <v>591</v>
       </c>
       <c r="D36" s="237" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E36" s="231"/>
       <c r="F36" s="237"/>
       <c r="G36" s="237" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H36" s="237" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18">
@@ -17018,15 +17015,15 @@
         <v>592</v>
       </c>
       <c r="D37" s="229" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E37" s="231"/>
       <c r="F37" s="229"/>
       <c r="G37" s="229" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H37" s="229" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18">
@@ -17035,18 +17032,18 @@
         <v>785</v>
       </c>
       <c r="C38" s="236" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D38" s="237" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E38" s="231"/>
       <c r="F38" s="237"/>
       <c r="G38" s="237" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H38" s="237" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18">
@@ -17058,7 +17055,7 @@
         <v>593</v>
       </c>
       <c r="D39" s="229" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E39" s="231"/>
       <c r="F39" s="229"/>
@@ -17066,7 +17063,7 @@
         <v>598</v>
       </c>
       <c r="H39" s="229" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18">
@@ -17080,7 +17077,7 @@
         <v>599</v>
       </c>
       <c r="H40" s="237" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18">
@@ -17089,10 +17086,10 @@
         <v>0</v>
       </c>
       <c r="C41" s="229" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D41" s="229" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="229"/>
@@ -17100,7 +17097,7 @@
         <v>600</v>
       </c>
       <c r="H41" s="229" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18">
@@ -17109,10 +17106,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="237" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D42" s="237" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -17125,10 +17122,10 @@
         <v>0</v>
       </c>
       <c r="C43" s="229" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D43" s="229" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -17202,8 +17199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -17219,28 +17216,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A1" s="362" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B1" s="363"/>
-      <c r="C1" s="363"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="363"/>
-      <c r="F1" s="363"/>
-      <c r="G1" s="363"/>
-      <c r="H1" s="364"/>
+      <c r="A1" s="369" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1" s="370"/>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="370"/>
+      <c r="F1" s="370"/>
+      <c r="G1" s="370"/>
+      <c r="H1" s="371"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A2" s="356" t="s">
+      <c r="A2" s="363" t="s">
         <v>1053</v>
       </c>
-      <c r="B2" s="357"/>
-      <c r="C2" s="357"/>
-      <c r="D2" s="357"/>
-      <c r="E2" s="357"/>
-      <c r="F2" s="357"/>
-      <c r="G2" s="357"/>
-      <c r="H2" s="358"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="365"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="306"/>
@@ -17269,17 +17266,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="193" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C4" s="193" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D4" s="193"/>
       <c r="E4" s="192">
         <v>14</v>
       </c>
       <c r="F4" s="193" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G4" s="193" t="s">
         <v>365</v>
@@ -17293,23 +17290,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="193" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C5" s="193" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D5" s="193"/>
       <c r="E5" s="192">
         <v>15</v>
       </c>
       <c r="F5" s="193" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G5" s="193" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H5" s="309" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
@@ -17317,17 +17314,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="193" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C6" s="193" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D6" s="193"/>
       <c r="E6" s="192">
         <v>16</v>
       </c>
       <c r="F6" s="193" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G6" s="193" t="s">
         <v>151</v>
@@ -17341,23 +17338,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="193" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C7" s="193" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D7" s="193"/>
       <c r="E7" s="192">
         <v>17</v>
       </c>
       <c r="F7" s="193" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G7" s="193" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H7" s="309" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
@@ -17470,7 +17467,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="193" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C12" s="193" t="s">
         <v>581</v>
@@ -17522,7 +17519,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="193" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C14" s="193" t="s">
         <v>575</v>
@@ -17548,7 +17545,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="193" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C15" s="193" t="s">
         <v>374</v>
@@ -17574,13 +17571,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="193" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C16" s="193" t="s">
         <v>188</v>
       </c>
       <c r="D16" s="193" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E16" s="192"/>
       <c r="F16" s="193"/>
@@ -17598,16 +17595,16 @@
       <c r="H17" s="312"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A18" s="359" t="s">
+      <c r="A18" s="366" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="360"/>
-      <c r="C18" s="360"/>
-      <c r="D18" s="360"/>
-      <c r="E18" s="360"/>
-      <c r="F18" s="360"/>
-      <c r="G18" s="360"/>
-      <c r="H18" s="361"/>
+      <c r="B18" s="367"/>
+      <c r="C18" s="367"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="367"/>
+      <c r="F18" s="367"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="368"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="313"/>
@@ -17636,10 +17633,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="193" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C20" s="193" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D20" s="193"/>
       <c r="E20" s="192">
@@ -17661,10 +17658,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="193" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C21" s="193" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D21" s="193"/>
       <c r="E21" s="192">
@@ -17685,10 +17682,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="193" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C22" s="193" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D22" s="193"/>
       <c r="E22" s="192">
@@ -17709,10 +17706,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="193" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C23" s="193" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D23" s="193"/>
       <c r="E23" s="192">
@@ -17837,7 +17834,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="193" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C28" s="193" t="s">
         <v>581</v>
@@ -17895,16 +17892,16 @@
       <c r="H30" s="317"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A31" s="356" t="s">
+      <c r="A31" s="363" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="357"/>
-      <c r="C31" s="357"/>
-      <c r="D31" s="357"/>
-      <c r="E31" s="357"/>
-      <c r="F31" s="357"/>
-      <c r="G31" s="357"/>
-      <c r="H31" s="358"/>
+      <c r="B31" s="364"/>
+      <c r="C31" s="364"/>
+      <c r="D31" s="364"/>
+      <c r="E31" s="364"/>
+      <c r="F31" s="364"/>
+      <c r="G31" s="364"/>
+      <c r="H31" s="365"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="306"/>
@@ -17934,7 +17931,7 @@
       </c>
       <c r="B33" s="193"/>
       <c r="C33" s="193" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D33" s="193" t="s">
         <v>1056</v>
@@ -17954,7 +17951,7 @@
       </c>
       <c r="B34" s="193"/>
       <c r="C34" s="193" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D34" s="193" t="s">
         <v>1058</v>
@@ -17974,7 +17971,7 @@
       </c>
       <c r="B35" s="193"/>
       <c r="C35" s="193" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D35" s="193" t="s">
         <v>1060</v>
@@ -17994,7 +17991,7 @@
       </c>
       <c r="B36" s="193"/>
       <c r="C36" s="193" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D36" s="193" t="s">
         <v>1061</v>
@@ -18014,7 +18011,7 @@
       </c>
       <c r="B37" s="193"/>
       <c r="C37" s="193" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D37" s="193" t="s">
         <v>1062</v>
@@ -18034,7 +18031,7 @@
       </c>
       <c r="B38" s="193"/>
       <c r="C38" s="193" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D38" s="193" t="s">
         <v>1063</v>
@@ -18114,14 +18111,10 @@
       <c r="E42" s="5">
         <v>20</v>
       </c>
-      <c r="F42" s="193" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G42" s="193" t="s">
-        <v>405</v>
-      </c>
+      <c r="F42" s="193"/>
+      <c r="G42" s="193"/>
       <c r="H42" s="309" t="s">
-        <v>480</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="10.5" customHeight="1">
@@ -18135,18 +18128,18 @@
       <c r="H43" s="216"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="353" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B44" s="354"/>
-      <c r="C44" s="354"/>
-      <c r="D44" s="355"/>
-      <c r="E44" s="365" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F44" s="354"/>
-      <c r="G44" s="354"/>
-      <c r="H44" s="366"/>
+      <c r="A44" s="360" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B44" s="361"/>
+      <c r="C44" s="361"/>
+      <c r="D44" s="362"/>
+      <c r="E44" s="372" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F44" s="361"/>
+      <c r="G44" s="361"/>
+      <c r="H44" s="373"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="174"/>
@@ -18232,54 +18225,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A1" s="386" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="388"/>
+      <c r="A1" s="377" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="379"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="389"/>
-      <c r="B2" s="390"/>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="390"/>
-      <c r="G2" s="390"/>
-      <c r="H2" s="391"/>
+      <c r="A2" s="380"/>
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="382"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="392" t="s">
+      <c r="A3" s="383" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B3" s="384"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="386" t="s">
         <v>1132</v>
       </c>
-      <c r="B3" s="393"/>
-      <c r="C3" s="393"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="395" t="s">
+      <c r="F3" s="384"/>
+      <c r="G3" s="384"/>
+      <c r="H3" s="387"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A4" s="388" t="s">
         <v>1133</v>
       </c>
-      <c r="F3" s="393"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="396"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="397" t="s">
+      <c r="B4" s="389"/>
+      <c r="C4" s="389"/>
+      <c r="D4" s="390"/>
+      <c r="E4" s="391" t="s">
         <v>1134</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="400" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F4" s="398"/>
-      <c r="G4" s="398"/>
-      <c r="H4" s="401"/>
+      <c r="F4" s="389"/>
+      <c r="G4" s="389"/>
+      <c r="H4" s="392"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" thickBot="1">
       <c r="A5" s="196">
@@ -18288,7 +18281,7 @@
       <c r="B5" s="197"/>
       <c r="C5" s="198"/>
       <c r="D5" s="198" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E5" s="196">
         <v>1</v>
@@ -18298,7 +18291,7 @@
         <v>790</v>
       </c>
       <c r="H5" s="200" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" thickBot="1">
@@ -18308,7 +18301,7 @@
       <c r="B6" s="197"/>
       <c r="C6" s="198"/>
       <c r="D6" s="198" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E6" s="196">
         <v>2</v>
@@ -18328,19 +18321,19 @@
       <c r="B7" s="197"/>
       <c r="C7" s="198"/>
       <c r="D7" s="198" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E7" s="196">
         <v>3</v>
       </c>
       <c r="F7" s="199" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G7" s="198" t="s">
         <v>378</v>
       </c>
       <c r="H7" s="200" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" thickBot="1">
@@ -18350,19 +18343,19 @@
       <c r="B8" s="197"/>
       <c r="C8" s="198"/>
       <c r="D8" s="198" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E8" s="196">
         <v>4</v>
       </c>
       <c r="F8" s="199" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G8" s="198" t="s">
         <v>509</v>
       </c>
       <c r="H8" s="201" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" thickBot="1">
@@ -18372,14 +18365,14 @@
       <c r="B9" s="197"/>
       <c r="C9" s="198"/>
       <c r="D9" s="198" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E9" s="196">
         <v>5</v>
       </c>
       <c r="F9" s="199"/>
       <c r="G9" s="198" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H9" s="202" t="s">
         <v>811</v>
@@ -18392,17 +18385,17 @@
       <c r="B10" s="199"/>
       <c r="C10" s="198"/>
       <c r="D10" s="198" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E10" s="196">
         <v>6</v>
       </c>
       <c r="F10" s="199"/>
       <c r="G10" s="198" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H10" s="202" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" thickBot="1">
@@ -18412,17 +18405,17 @@
       <c r="B11" s="199"/>
       <c r="C11" s="198"/>
       <c r="D11" s="198" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E11" s="196">
         <v>7</v>
       </c>
       <c r="F11" s="199"/>
       <c r="G11" s="198" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H11" s="202" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" thickBot="1">
@@ -18432,17 +18425,17 @@
       <c r="B12" s="197"/>
       <c r="C12" s="198"/>
       <c r="D12" s="198" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E12" s="196">
         <v>8</v>
       </c>
       <c r="F12" s="199"/>
       <c r="G12" s="198" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H12" s="202" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" thickBot="1">
@@ -18456,7 +18449,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="203" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E13" s="196">
         <v>9</v>
@@ -18468,7 +18461,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="203" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" thickBot="1">
@@ -18482,7 +18475,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="203" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E14" s="196">
         <v>10</v>
@@ -18494,7 +18487,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="203" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" thickBot="1">
@@ -18502,7 +18495,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="199" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C15" s="198" t="s">
         <v>74</v>
@@ -18514,7 +18507,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="199" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G15" s="198" t="s">
         <v>74</v>
@@ -18534,7 +18527,7 @@
         <v>171</v>
       </c>
       <c r="D16" s="203" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E16" s="196">
         <v>12</v>
@@ -18546,7 +18539,7 @@
         <v>171</v>
       </c>
       <c r="H16" s="203" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" thickBot="1">
@@ -18560,7 +18553,7 @@
         <v>73</v>
       </c>
       <c r="D17" s="203" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E17" s="196">
         <v>13</v>
@@ -18572,7 +18565,7 @@
         <v>73</v>
       </c>
       <c r="H17" s="203" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" thickBot="1">
@@ -18586,7 +18579,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="203" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E18" s="196">
         <v>14</v>
@@ -18598,7 +18591,7 @@
         <v>53</v>
       </c>
       <c r="H18" s="203" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" thickBot="1">
@@ -18758,12 +18751,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A25" s="383" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B25" s="384"/>
-      <c r="C25" s="384"/>
-      <c r="D25" s="385"/>
+      <c r="A25" s="374" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B25" s="375"/>
+      <c r="C25" s="375"/>
+      <c r="D25" s="376"/>
       <c r="E25" s="197">
         <v>21</v>
       </c>
@@ -18778,14 +18771,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A26" s="373" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B26" s="374"/>
-      <c r="C26" s="371" t="s">
+      <c r="A26" s="399" t="s">
         <v>1124</v>
       </c>
-      <c r="D26" s="372"/>
+      <c r="B26" s="400"/>
+      <c r="C26" s="397" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D26" s="398"/>
       <c r="E26" s="197">
         <v>22</v>
       </c>
@@ -18800,14 +18793,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A27" s="375" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B27" s="376"/>
-      <c r="C27" s="379" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D27" s="380"/>
+      <c r="A27" s="401" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B27" s="402"/>
+      <c r="C27" s="405" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D27" s="406"/>
       <c r="E27" s="197">
         <v>23</v>
       </c>
@@ -18822,14 +18815,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A28" s="375" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B28" s="376"/>
-      <c r="C28" s="381" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D28" s="382"/>
+      <c r="A28" s="401" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B28" s="402"/>
+      <c r="C28" s="407" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D28" s="408"/>
       <c r="E28" s="197">
         <v>24</v>
       </c>
@@ -18844,12 +18837,12 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A29" s="375" t="s">
+      <c r="A29" s="401" t="s">
         <v>374</v>
       </c>
-      <c r="B29" s="376"/>
+      <c r="B29" s="402"/>
       <c r="C29" s="300" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D29" s="301"/>
       <c r="E29" s="197">
@@ -18862,16 +18855,16 @@
         <v>189</v>
       </c>
       <c r="H29" s="203" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A30" s="375" t="s">
+      <c r="A30" s="401" t="s">
         <v>365</v>
       </c>
-      <c r="B30" s="376"/>
+      <c r="B30" s="402"/>
       <c r="C30" s="300" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D30" s="301"/>
       <c r="E30" s="197">
@@ -18884,16 +18877,16 @@
         <v>506</v>
       </c>
       <c r="H30" s="298" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A31" s="375" t="s">
+      <c r="A31" s="401" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="376"/>
+      <c r="B31" s="402"/>
       <c r="C31" s="300" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D31" s="301"/>
       <c r="E31" s="197">
@@ -18906,18 +18899,18 @@
         <v>505</v>
       </c>
       <c r="H31" s="298" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A32" s="375" t="s">
+      <c r="A32" s="401" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="376"/>
-      <c r="C32" s="367" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D32" s="368"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="393" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D32" s="394"/>
       <c r="E32" s="197">
         <v>28</v>
       </c>
@@ -18928,18 +18921,18 @@
         <v>504</v>
       </c>
       <c r="H32" s="298" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A33" s="375" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B33" s="376"/>
-      <c r="C33" s="367" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D33" s="368"/>
+      <c r="A33" s="401" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B33" s="402"/>
+      <c r="C33" s="393" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D33" s="394"/>
       <c r="E33" s="197">
         <v>29</v>
       </c>
@@ -18950,18 +18943,18 @@
         <v>503</v>
       </c>
       <c r="H33" s="298" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A34" s="377" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B34" s="378"/>
-      <c r="C34" s="369" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D34" s="370"/>
+      <c r="A34" s="403" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B34" s="404"/>
+      <c r="C34" s="395" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D34" s="396"/>
       <c r="E34" s="197">
         <v>30</v>
       </c>
@@ -18977,12 +18970,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -18998,6 +18985,12 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19024,28 +19017,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="402" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B1" s="403"/>
-      <c r="C1" s="403"/>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="404"/>
+      <c r="A1" s="409" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1" s="410"/>
+      <c r="C1" s="410"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="411"/>
       <c r="G1" s="284"/>
       <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="405" t="s">
+      <c r="A2" s="412" t="s">
         <v>787</v>
       </c>
-      <c r="B2" s="406"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="405" t="s">
+      <c r="B2" s="413"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="412" t="s">
         <v>788</v>
       </c>
-      <c r="E2" s="406"/>
-      <c r="F2" s="407"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="414"/>
       <c r="G2" s="284"/>
       <c r="H2" s="163"/>
     </row>
@@ -19069,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="284"/>
-      <c r="H3" s="408" t="s">
+      <c r="H3" s="415" t="s">
         <v>791</v>
       </c>
     </row>
@@ -19093,7 +19086,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="284"/>
-      <c r="H4" s="409"/>
+      <c r="H4" s="416"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="255">
@@ -19115,7 +19108,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="284"/>
-      <c r="H5" s="409"/>
+      <c r="H5" s="416"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="257">
@@ -19137,7 +19130,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="284"/>
-      <c r="H6" s="409"/>
+      <c r="H6" s="416"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="257">
@@ -19159,7 +19152,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="284"/>
-      <c r="H7" s="409"/>
+      <c r="H7" s="416"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="259">
@@ -19169,10 +19162,10 @@
         <v>811</v>
       </c>
       <c r="C8" s="260" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D8" s="182" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E8" s="285" t="s">
         <v>811</v>
@@ -19181,7 +19174,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="284"/>
-      <c r="H8" s="409"/>
+      <c r="H8" s="416"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="259">
@@ -19191,10 +19184,10 @@
         <v>812</v>
       </c>
       <c r="C9" s="260" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D9" s="166" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E9" s="285" t="s">
         <v>812</v>
@@ -19203,51 +19196,51 @@
         <v>7</v>
       </c>
       <c r="G9" s="284"/>
-      <c r="H9" s="409"/>
+      <c r="H9" s="416"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="261">
         <v>8</v>
       </c>
       <c r="B10" s="167" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C10" s="262" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D10" s="291" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E10" s="262" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F10" s="295">
         <v>8</v>
       </c>
       <c r="G10" s="284"/>
-      <c r="H10" s="410"/>
+      <c r="H10" s="417"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A11" s="274">
         <v>9</v>
       </c>
       <c r="B11" s="275" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C11" s="276" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D11" s="286" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E11" s="276" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F11" s="296">
         <v>9</v>
       </c>
       <c r="G11" s="284"/>
-      <c r="H11" s="411" t="s">
+      <c r="H11" s="418" t="s">
         <v>797</v>
       </c>
     </row>
@@ -19271,7 +19264,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="284"/>
-      <c r="H12" s="412"/>
+      <c r="H12" s="419"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="263">
@@ -19293,7 +19286,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="284"/>
-      <c r="H13" s="412"/>
+      <c r="H13" s="419"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="263">
@@ -19315,36 +19308,36 @@
         <v>12</v>
       </c>
       <c r="G14" s="284"/>
-      <c r="H14" s="412"/>
+      <c r="H14" s="419"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A15" s="265">
         <v>13</v>
       </c>
       <c r="B15" s="169" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C15" s="266" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D15" s="265" t="s">
         <v>585</v>
       </c>
       <c r="E15" s="169" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F15" s="266">
         <v>13</v>
       </c>
       <c r="G15" s="284"/>
-      <c r="H15" s="412"/>
+      <c r="H15" s="419"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="265">
         <v>14</v>
       </c>
       <c r="B16" s="169" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C16" s="266" t="s">
         <v>583</v>
@@ -19353,20 +19346,20 @@
         <v>193</v>
       </c>
       <c r="E16" s="169" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F16" s="266">
         <v>14</v>
       </c>
       <c r="G16" s="284"/>
-      <c r="H16" s="412"/>
+      <c r="H16" s="419"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="265">
         <v>15</v>
       </c>
       <c r="B17" s="169" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C17" s="266" t="s">
         <v>594</v>
@@ -19375,20 +19368,20 @@
         <v>587</v>
       </c>
       <c r="E17" s="169" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F17" s="266">
         <v>15</v>
       </c>
       <c r="G17" s="284"/>
-      <c r="H17" s="412"/>
+      <c r="H17" s="419"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="265">
         <v>16</v>
       </c>
       <c r="B18" s="169" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C18" s="266" t="s">
         <v>595</v>
@@ -19397,35 +19390,35 @@
         <v>604</v>
       </c>
       <c r="E18" s="169" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F18" s="266">
         <v>16</v>
       </c>
       <c r="G18" s="284"/>
-      <c r="H18" s="412"/>
+      <c r="H18" s="419"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="265">
         <v>17</v>
       </c>
       <c r="B19" s="169" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C19" s="266" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D19" s="265" t="s">
         <v>588</v>
       </c>
       <c r="E19" s="169" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F19" s="266">
         <v>17</v>
       </c>
       <c r="G19" s="284"/>
-      <c r="H19" s="412"/>
+      <c r="H19" s="419"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="267">
@@ -19447,7 +19440,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="284"/>
-      <c r="H20" s="412"/>
+      <c r="H20" s="419"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="267">
@@ -19469,7 +19462,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="284"/>
-      <c r="H21" s="412"/>
+      <c r="H21" s="419"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="269">
@@ -19491,7 +19484,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="284"/>
-      <c r="H22" s="413"/>
+      <c r="H22" s="420"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1"/>
@@ -19554,40 +19547,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="427" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="422"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+      <c r="E1" s="428"/>
+      <c r="F1" s="428"/>
+      <c r="G1" s="428"/>
+      <c r="H1" s="429"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="423"/>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="424"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="425"/>
+      <c r="A2" s="430"/>
+      <c r="B2" s="431"/>
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="431"/>
+      <c r="G2" s="431"/>
+      <c r="H2" s="432"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="414" t="s">
+      <c r="A3" s="421" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="415"/>
-      <c r="C3" s="415"/>
-      <c r="D3" s="416"/>
-      <c r="E3" s="414" t="s">
+      <c r="B3" s="422"/>
+      <c r="C3" s="422"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="421" t="s">
         <v>314</v>
       </c>
-      <c r="F3" s="415"/>
-      <c r="G3" s="415"/>
-      <c r="H3" s="416"/>
+      <c r="F3" s="422"/>
+      <c r="G3" s="422"/>
+      <c r="H3" s="423"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="75">
@@ -19804,18 +19797,18 @@
       <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="417" t="s">
+      <c r="A22" s="424" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="418"/>
-      <c r="C22" s="418"/>
-      <c r="D22" s="419"/>
-      <c r="E22" s="417" t="s">
+      <c r="B22" s="425"/>
+      <c r="C22" s="425"/>
+      <c r="D22" s="426"/>
+      <c r="E22" s="424" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="418"/>
-      <c r="G22" s="418"/>
-      <c r="H22" s="419"/>
+      <c r="F22" s="425"/>
+      <c r="G22" s="425"/>
+      <c r="H22" s="426"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="60">
@@ -20092,40 +20085,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="351" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="346"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="353"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="347"/>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="349"/>
+      <c r="A2" s="354"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="356"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="357" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351" t="s">
+      <c r="B3" s="358"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="358" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="352"/>
+      <c r="F3" s="358"/>
+      <c r="G3" s="358"/>
+      <c r="H3" s="359"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="10">

--- a/COMMUNICATIONS/OPAC Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/OPAC Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -6795,438 +6795,6 @@
     <xf numFmtId="49" fontId="21" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="31" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7235,6 +6803,438 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="31" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7655,13 +7655,13 @@
       <c r="N2" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="V2" s="329" t="s">
+      <c r="V2" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="329"/>
-      <c r="X2" s="329"/>
-      <c r="Y2" s="329"/>
-      <c r="Z2" s="329"/>
+      <c r="W2" s="334"/>
+      <c r="X2" s="334"/>
+      <c r="Y2" s="334"/>
+      <c r="Z2" s="334"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="105" t="s">
@@ -7794,22 +7794,22 @@
       <c r="AA4" s="21"/>
       <c r="AB4" s="21"/>
       <c r="AC4" s="21"/>
-      <c r="AD4" s="329" t="s">
+      <c r="AD4" s="334" t="s">
         <v>428</v>
       </c>
-      <c r="AE4" s="329"/>
-      <c r="AF4" s="329"/>
-      <c r="AG4" s="329"/>
-      <c r="AH4" s="329"/>
-      <c r="AJ4" s="329" t="s">
+      <c r="AE4" s="334"/>
+      <c r="AF4" s="334"/>
+      <c r="AG4" s="334"/>
+      <c r="AH4" s="334"/>
+      <c r="AJ4" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="329"/>
-      <c r="AL4" s="329"/>
-      <c r="AM4" s="329"/>
-      <c r="AN4" s="329"/>
-      <c r="AO4" s="329"/>
-      <c r="AP4" s="329"/>
+      <c r="AK4" s="334"/>
+      <c r="AL4" s="334"/>
+      <c r="AM4" s="334"/>
+      <c r="AN4" s="334"/>
+      <c r="AO4" s="334"/>
+      <c r="AP4" s="334"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="105" t="s">
@@ -8998,15 +8998,15 @@
       <c r="AH18" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="AJ18" s="329" t="s">
+      <c r="AJ18" s="334" t="s">
         <v>274</v>
       </c>
-      <c r="AK18" s="329"/>
-      <c r="AL18" s="329"/>
-      <c r="AM18" s="329"/>
-      <c r="AN18" s="329"/>
-      <c r="AO18" s="329"/>
-      <c r="AP18" s="329"/>
+      <c r="AK18" s="334"/>
+      <c r="AL18" s="334"/>
+      <c r="AM18" s="334"/>
+      <c r="AN18" s="334"/>
+      <c r="AO18" s="334"/>
+      <c r="AP18" s="334"/>
     </row>
     <row r="19" spans="1:42" ht="15.75">
       <c r="A19" s="105" t="s">
@@ -9536,13 +9536,13 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
-      <c r="AD25" s="329" t="s">
+      <c r="AD25" s="334" t="s">
         <v>485</v>
       </c>
-      <c r="AE25" s="329"/>
-      <c r="AF25" s="329"/>
-      <c r="AG25" s="329"/>
-      <c r="AH25" s="329"/>
+      <c r="AE25" s="334"/>
+      <c r="AF25" s="334"/>
+      <c r="AG25" s="334"/>
+      <c r="AH25" s="334"/>
       <c r="AJ25" s="222" t="s">
         <v>552</v>
       </c>
@@ -9800,15 +9800,15 @@
       <c r="N29" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="V29" s="329" t="s">
+      <c r="V29" s="334" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="329"/>
-      <c r="X29" s="329"/>
-      <c r="Y29" s="329"/>
-      <c r="Z29" s="329"/>
-      <c r="AA29" s="329"/>
-      <c r="AB29" s="329"/>
+      <c r="W29" s="334"/>
+      <c r="X29" s="334"/>
+      <c r="Y29" s="334"/>
+      <c r="Z29" s="334"/>
+      <c r="AA29" s="334"/>
+      <c r="AB29" s="334"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="105"/>
@@ -9866,15 +9866,15 @@
       </c>
       <c r="AA30" s="27"/>
       <c r="AB30" s="27"/>
-      <c r="AJ30" s="329" t="s">
+      <c r="AJ30" s="334" t="s">
         <v>776</v>
       </c>
-      <c r="AK30" s="329"/>
-      <c r="AL30" s="329"/>
-      <c r="AM30" s="329"/>
-      <c r="AN30" s="329"/>
-      <c r="AO30" s="329"/>
-      <c r="AP30" s="329"/>
+      <c r="AK30" s="334"/>
+      <c r="AL30" s="334"/>
+      <c r="AM30" s="334"/>
+      <c r="AN30" s="334"/>
+      <c r="AO30" s="334"/>
+      <c r="AP30" s="334"/>
     </row>
     <row r="31" spans="1:42">
       <c r="B31" s="22"/>
@@ -9977,13 +9977,13 @@
     </row>
     <row r="37" spans="20:36">
       <c r="T37" s="207"/>
-      <c r="V37" s="329" t="s">
+      <c r="V37" s="334" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="329"/>
-      <c r="X37" s="329"/>
-      <c r="Y37" s="329"/>
-      <c r="Z37" s="329"/>
+      <c r="W37" s="334"/>
+      <c r="X37" s="334"/>
+      <c r="Y37" s="334"/>
+      <c r="Z37" s="334"/>
       <c r="AA37" s="209"/>
       <c r="AB37" s="209"/>
       <c r="AC37" s="207"/>
@@ -10012,11 +10012,11 @@
       <c r="AA38" s="210"/>
       <c r="AB38" s="210"/>
       <c r="AC38" s="207"/>
-      <c r="AD38" s="334" t="s">
+      <c r="AD38" s="335" t="s">
         <v>260</v>
       </c>
-      <c r="AE38" s="335"/>
-      <c r="AF38" s="336"/>
+      <c r="AE38" s="336"/>
+      <c r="AF38" s="337"/>
       <c r="AG38" s="207"/>
     </row>
     <row r="39" spans="20:36">
@@ -10148,15 +10148,15 @@
       <c r="AG43" s="207"/>
     </row>
     <row r="44" spans="20:36">
-      <c r="V44" s="329" t="s">
+      <c r="V44" s="334" t="s">
         <v>244</v>
       </c>
-      <c r="W44" s="329"/>
-      <c r="X44" s="329"/>
-      <c r="Y44" s="329"/>
-      <c r="Z44" s="329"/>
-      <c r="AA44" s="329"/>
-      <c r="AB44" s="329"/>
+      <c r="W44" s="334"/>
+      <c r="X44" s="334"/>
+      <c r="Y44" s="334"/>
+      <c r="Z44" s="334"/>
+      <c r="AA44" s="334"/>
+      <c r="AB44" s="334"/>
       <c r="AC44" s="207"/>
       <c r="AD44" s="3" t="s">
         <v>256</v>
@@ -10235,15 +10235,15 @@
       <c r="AG47" s="207"/>
     </row>
     <row r="48" spans="20:36">
-      <c r="V48" s="330" t="s">
+      <c r="V48" s="338" t="s">
         <v>472</v>
       </c>
-      <c r="W48" s="331"/>
-      <c r="X48" s="331"/>
-      <c r="Y48" s="331"/>
-      <c r="Z48" s="331"/>
-      <c r="AA48" s="331"/>
-      <c r="AB48" s="332"/>
+      <c r="W48" s="339"/>
+      <c r="X48" s="339"/>
+      <c r="Y48" s="339"/>
+      <c r="Z48" s="339"/>
+      <c r="AA48" s="339"/>
+      <c r="AB48" s="340"/>
       <c r="AC48" s="207"/>
       <c r="AD48" s="3" t="s">
         <v>261</v>
@@ -11079,6 +11079,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="V44:AB44"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:Z37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -11087,11 +11092,6 @@
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD25:AH25"/>
     <mergeCell ref="AJ30:AP30"/>
-    <mergeCell ref="V44:AB44"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:Z37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11119,40 +11119,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="433" t="s">
+      <c r="A1" s="437" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="435"/>
+      <c r="B1" s="438"/>
+      <c r="C1" s="438"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="438"/>
+      <c r="F1" s="438"/>
+      <c r="G1" s="438"/>
+      <c r="H1" s="439"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="436"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="437"/>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="437"/>
-      <c r="G2" s="437"/>
-      <c r="H2" s="438"/>
+      <c r="A2" s="440"/>
+      <c r="B2" s="441"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
+      <c r="G2" s="441"/>
+      <c r="H2" s="442"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="439" t="s">
+      <c r="A3" s="443" t="s">
         <v>696</v>
       </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="440"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="439" t="s">
+      <c r="B3" s="444"/>
+      <c r="C3" s="444"/>
+      <c r="D3" s="445"/>
+      <c r="E3" s="443" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
-      <c r="H3" s="441"/>
+      <c r="F3" s="444"/>
+      <c r="G3" s="444"/>
+      <c r="H3" s="445"/>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="154">
@@ -11625,18 +11625,18 @@
       <c r="H24" s="134"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A25" s="442" t="s">
+      <c r="A25" s="446" t="s">
         <v>314</v>
       </c>
-      <c r="B25" s="443"/>
-      <c r="C25" s="443"/>
-      <c r="D25" s="444"/>
-      <c r="E25" s="442" t="s">
+      <c r="B25" s="447"/>
+      <c r="C25" s="447"/>
+      <c r="D25" s="448"/>
+      <c r="E25" s="446" t="s">
         <v>746</v>
       </c>
-      <c r="F25" s="443"/>
-      <c r="G25" s="443"/>
-      <c r="H25" s="444"/>
+      <c r="F25" s="447"/>
+      <c r="G25" s="447"/>
+      <c r="H25" s="448"/>
     </row>
     <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="143">
@@ -12051,40 +12051,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="445" t="s">
+      <c r="A1" s="466" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="445"/>
-      <c r="C1" s="445"/>
-      <c r="D1" s="445"/>
-      <c r="E1" s="445"/>
-      <c r="F1" s="445"/>
-      <c r="G1" s="445"/>
-      <c r="H1" s="445"/>
+      <c r="B1" s="466"/>
+      <c r="C1" s="466"/>
+      <c r="D1" s="466"/>
+      <c r="E1" s="466"/>
+      <c r="F1" s="466"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="466"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="446"/>
-      <c r="B2" s="446"/>
-      <c r="C2" s="446"/>
-      <c r="D2" s="446"/>
-      <c r="E2" s="446"/>
-      <c r="F2" s="446"/>
-      <c r="G2" s="446"/>
-      <c r="H2" s="446"/>
+      <c r="A2" s="467"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="467"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="447" t="s">
+      <c r="A3" s="468" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="448"/>
-      <c r="C3" s="449"/>
-      <c r="D3" s="450"/>
-      <c r="E3" s="447" t="s">
+      <c r="B3" s="469"/>
+      <c r="C3" s="470"/>
+      <c r="D3" s="471"/>
+      <c r="E3" s="468" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="448"/>
-      <c r="G3" s="449"/>
-      <c r="H3" s="450"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="471"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="29">
@@ -12377,114 +12377,114 @@
       <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="447" t="s">
+      <c r="A25" s="468" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="448"/>
-      <c r="C25" s="449"/>
-      <c r="D25" s="450"/>
-      <c r="E25" s="447" t="s">
+      <c r="B25" s="469"/>
+      <c r="C25" s="470"/>
+      <c r="D25" s="471"/>
+      <c r="E25" s="468" t="s">
         <v>290</v>
       </c>
-      <c r="F25" s="448"/>
-      <c r="G25" s="449"/>
-      <c r="H25" s="450"/>
+      <c r="F25" s="469"/>
+      <c r="G25" s="470"/>
+      <c r="H25" s="471"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B26" s="451"/>
-      <c r="C26" s="452"/>
-      <c r="D26" s="453"/>
+      <c r="B26" s="455"/>
+      <c r="C26" s="456"/>
+      <c r="D26" s="457"/>
       <c r="E26" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="F26" s="454"/>
-      <c r="G26" s="455"/>
-      <c r="H26" s="456"/>
+      <c r="F26" s="463"/>
+      <c r="G26" s="464"/>
+      <c r="H26" s="465"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="B27" s="457"/>
-      <c r="C27" s="458"/>
-      <c r="D27" s="459"/>
+      <c r="B27" s="458"/>
+      <c r="C27" s="459"/>
+      <c r="D27" s="461"/>
       <c r="E27" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F27" s="451"/>
-      <c r="G27" s="452"/>
-      <c r="H27" s="460"/>
+      <c r="F27" s="455"/>
+      <c r="G27" s="456"/>
+      <c r="H27" s="462"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="451"/>
-      <c r="C28" s="452"/>
-      <c r="D28" s="453"/>
+      <c r="B28" s="455"/>
+      <c r="C28" s="456"/>
+      <c r="D28" s="457"/>
       <c r="E28" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="F28" s="457"/>
-      <c r="G28" s="458"/>
-      <c r="H28" s="461"/>
+      <c r="F28" s="458"/>
+      <c r="G28" s="459"/>
+      <c r="H28" s="460"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="B29" s="457"/>
-      <c r="C29" s="458"/>
-      <c r="D29" s="459"/>
+      <c r="B29" s="458"/>
+      <c r="C29" s="459"/>
+      <c r="D29" s="461"/>
       <c r="E29" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="F29" s="451"/>
-      <c r="G29" s="452"/>
-      <c r="H29" s="460"/>
+      <c r="F29" s="455"/>
+      <c r="G29" s="456"/>
+      <c r="H29" s="462"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="451"/>
-      <c r="C30" s="452"/>
-      <c r="D30" s="453"/>
+      <c r="B30" s="455"/>
+      <c r="C30" s="456"/>
+      <c r="D30" s="457"/>
       <c r="E30" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="F30" s="457"/>
-      <c r="G30" s="458"/>
-      <c r="H30" s="461"/>
+      <c r="F30" s="458"/>
+      <c r="G30" s="459"/>
+      <c r="H30" s="460"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="B31" s="457"/>
-      <c r="C31" s="458"/>
-      <c r="D31" s="459"/>
+      <c r="B31" s="458"/>
+      <c r="C31" s="459"/>
+      <c r="D31" s="461"/>
       <c r="E31" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F31" s="451"/>
-      <c r="G31" s="452"/>
-      <c r="H31" s="460"/>
+      <c r="F31" s="455"/>
+      <c r="G31" s="456"/>
+      <c r="H31" s="462"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="B32" s="451"/>
-      <c r="C32" s="452"/>
-      <c r="D32" s="453"/>
+      <c r="B32" s="455"/>
+      <c r="C32" s="456"/>
+      <c r="D32" s="457"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="457"/>
-      <c r="G32" s="458"/>
-      <c r="H32" s="461" t="s">
+      <c r="F32" s="458"/>
+      <c r="G32" s="459"/>
+      <c r="H32" s="460" t="s">
         <v>242</v>
       </c>
     </row>
@@ -12492,13 +12492,13 @@
       <c r="A33" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="457"/>
-      <c r="C33" s="458"/>
-      <c r="D33" s="459"/>
+      <c r="B33" s="458"/>
+      <c r="C33" s="459"/>
+      <c r="D33" s="461"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="451"/>
-      <c r="G33" s="452"/>
-      <c r="H33" s="460" t="s">
+      <c r="F33" s="455"/>
+      <c r="G33" s="456"/>
+      <c r="H33" s="462" t="s">
         <v>284</v>
       </c>
     </row>
@@ -12506,13 +12506,13 @@
       <c r="A34" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="B34" s="451"/>
-      <c r="C34" s="452"/>
-      <c r="D34" s="453"/>
+      <c r="B34" s="455"/>
+      <c r="C34" s="456"/>
+      <c r="D34" s="457"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="457"/>
-      <c r="G34" s="458"/>
-      <c r="H34" s="461" t="s">
+      <c r="F34" s="458"/>
+      <c r="G34" s="459"/>
+      <c r="H34" s="460" t="s">
         <v>285</v>
       </c>
     </row>
@@ -12520,13 +12520,13 @@
       <c r="A35" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="B35" s="457"/>
-      <c r="C35" s="458"/>
-      <c r="D35" s="459"/>
+      <c r="B35" s="458"/>
+      <c r="C35" s="459"/>
+      <c r="D35" s="461"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="451"/>
-      <c r="G35" s="452"/>
-      <c r="H35" s="460" t="s">
+      <c r="F35" s="455"/>
+      <c r="G35" s="456"/>
+      <c r="H35" s="462" t="s">
         <v>286</v>
       </c>
     </row>
@@ -12534,13 +12534,13 @@
       <c r="A36" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="451"/>
-      <c r="C36" s="452"/>
-      <c r="D36" s="453"/>
+      <c r="B36" s="455"/>
+      <c r="C36" s="456"/>
+      <c r="D36" s="457"/>
       <c r="E36" s="41"/>
-      <c r="F36" s="457"/>
-      <c r="G36" s="458"/>
-      <c r="H36" s="461" t="s">
+      <c r="F36" s="458"/>
+      <c r="G36" s="459"/>
+      <c r="H36" s="460" t="s">
         <v>287</v>
       </c>
     </row>
@@ -12548,13 +12548,13 @@
       <c r="A37" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="B37" s="457"/>
-      <c r="C37" s="458"/>
-      <c r="D37" s="459"/>
+      <c r="B37" s="458"/>
+      <c r="C37" s="459"/>
+      <c r="D37" s="461"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="451"/>
-      <c r="G37" s="452"/>
-      <c r="H37" s="460" t="s">
+      <c r="F37" s="455"/>
+      <c r="G37" s="456"/>
+      <c r="H37" s="462" t="s">
         <v>288</v>
       </c>
     </row>
@@ -12562,13 +12562,13 @@
       <c r="A38" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="B38" s="451"/>
-      <c r="C38" s="452"/>
-      <c r="D38" s="453"/>
+      <c r="B38" s="455"/>
+      <c r="C38" s="456"/>
+      <c r="D38" s="457"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="457"/>
-      <c r="G38" s="458"/>
-      <c r="H38" s="461" t="s">
+      <c r="F38" s="458"/>
+      <c r="G38" s="459"/>
+      <c r="H38" s="460" t="s">
         <v>241</v>
       </c>
     </row>
@@ -12576,13 +12576,13 @@
       <c r="A39" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B39" s="457"/>
-      <c r="C39" s="458"/>
-      <c r="D39" s="459"/>
+      <c r="B39" s="458"/>
+      <c r="C39" s="459"/>
+      <c r="D39" s="461"/>
       <c r="E39" s="33"/>
-      <c r="F39" s="451"/>
-      <c r="G39" s="452"/>
-      <c r="H39" s="460" t="s">
+      <c r="F39" s="455"/>
+      <c r="G39" s="456"/>
+      <c r="H39" s="462" t="s">
         <v>242</v>
       </c>
     </row>
@@ -12590,28 +12590,57 @@
       <c r="A40" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B40" s="451"/>
-      <c r="C40" s="452"/>
-      <c r="D40" s="453"/>
+      <c r="B40" s="455"/>
+      <c r="C40" s="456"/>
+      <c r="D40" s="457"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="457"/>
-      <c r="G40" s="458"/>
-      <c r="H40" s="461"/>
+      <c r="F40" s="458"/>
+      <c r="G40" s="459"/>
+      <c r="H40" s="460"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="B41" s="462"/>
-      <c r="C41" s="463"/>
-      <c r="D41" s="464"/>
+      <c r="B41" s="449"/>
+      <c r="C41" s="450"/>
+      <c r="D41" s="451"/>
       <c r="E41" s="58"/>
-      <c r="F41" s="465"/>
-      <c r="G41" s="466"/>
-      <c r="H41" s="467"/>
+      <c r="F41" s="452"/>
+      <c r="G41" s="453"/>
+      <c r="H41" s="454"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -12620,35 +12649,6 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12685,14 +12685,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="207"/>
-      <c r="B2" s="468" t="s">
+      <c r="B2" s="472" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="469"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="469"/>
-      <c r="F2" s="469"/>
-      <c r="G2" s="470"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
+      <c r="F2" s="473"/>
+      <c r="G2" s="474"/>
       <c r="H2" s="207"/>
     </row>
     <row r="3" spans="1:8">
@@ -12807,14 +12807,14 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="207"/>
-      <c r="B8" s="471" t="s">
+      <c r="B8" s="475" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="329"/>
-      <c r="D8" s="329"/>
-      <c r="E8" s="329"/>
-      <c r="F8" s="329"/>
-      <c r="G8" s="472"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="334"/>
+      <c r="E8" s="334"/>
+      <c r="F8" s="334"/>
+      <c r="G8" s="476"/>
       <c r="H8" s="207"/>
     </row>
     <row r="9" spans="1:8">
@@ -12929,14 +12929,14 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="207"/>
-      <c r="B14" s="471" t="s">
+      <c r="B14" s="475" t="s">
         <v>776</v>
       </c>
-      <c r="C14" s="329"/>
-      <c r="D14" s="329"/>
-      <c r="E14" s="329"/>
-      <c r="F14" s="329"/>
-      <c r="G14" s="472"/>
+      <c r="C14" s="334"/>
+      <c r="D14" s="334"/>
+      <c r="E14" s="334"/>
+      <c r="F14" s="334"/>
+      <c r="G14" s="476"/>
       <c r="H14" s="207"/>
     </row>
     <row r="15" spans="1:8">
@@ -13013,7 +13013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
@@ -13058,55 +13058,55 @@
       </c>
     </row>
     <row r="2" spans="2:42">
-      <c r="B2" s="329" t="s">
+      <c r="B2" s="334" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="H2" s="329" t="s">
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="H2" s="334" t="s">
         <v>959</v>
       </c>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="N2" s="329" t="s">
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="N2" s="334" t="s">
         <v>958</v>
       </c>
-      <c r="O2" s="329"/>
-      <c r="P2" s="329"/>
-      <c r="Q2" s="329"/>
-      <c r="R2" s="329"/>
-      <c r="T2" s="329" t="s">
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="T2" s="334" t="s">
         <v>236</v>
       </c>
-      <c r="U2" s="329"/>
-      <c r="V2" s="329"/>
-      <c r="W2" s="329"/>
-      <c r="X2" s="329"/>
-      <c r="Z2" s="329" t="s">
+      <c r="U2" s="334"/>
+      <c r="V2" s="334"/>
+      <c r="W2" s="334"/>
+      <c r="X2" s="334"/>
+      <c r="Z2" s="334" t="s">
         <v>246</v>
       </c>
-      <c r="AA2" s="329"/>
-      <c r="AB2" s="329"/>
-      <c r="AC2" s="329"/>
-      <c r="AD2" s="329"/>
-      <c r="AF2" s="329" t="s">
+      <c r="AA2" s="334"/>
+      <c r="AB2" s="334"/>
+      <c r="AC2" s="334"/>
+      <c r="AD2" s="334"/>
+      <c r="AF2" s="334" t="s">
         <v>317</v>
       </c>
-      <c r="AG2" s="329"/>
-      <c r="AH2" s="329"/>
-      <c r="AI2" s="329"/>
-      <c r="AJ2" s="329"/>
-      <c r="AL2" s="329" t="s">
+      <c r="AG2" s="334"/>
+      <c r="AH2" s="334"/>
+      <c r="AI2" s="334"/>
+      <c r="AJ2" s="334"/>
+      <c r="AL2" s="334" t="s">
         <v>490</v>
       </c>
-      <c r="AM2" s="329"/>
-      <c r="AN2" s="329"/>
-      <c r="AO2" s="329"/>
-      <c r="AP2" s="329"/>
+      <c r="AM2" s="334"/>
+      <c r="AN2" s="334"/>
+      <c r="AO2" s="334"/>
+      <c r="AP2" s="334"/>
     </row>
     <row r="3" spans="2:42">
       <c r="B3" s="99" t="s">
@@ -14740,13 +14740,13 @@
       <c r="R37" s="102" t="s">
         <v>1023</v>
       </c>
-      <c r="T37" s="473" t="s">
+      <c r="T37" s="329" t="s">
         <v>1338</v>
       </c>
       <c r="U37">
         <v>111</v>
       </c>
-      <c r="V37" s="476" t="s">
+      <c r="V37" s="332" t="s">
         <v>1343</v>
       </c>
       <c r="W37" s="102" t="s">
@@ -14772,20 +14772,20 @@
       </c>
     </row>
     <row r="41" spans="2:28">
-      <c r="B41" s="329" t="s">
+      <c r="B41" s="334" t="s">
         <v>643</v>
       </c>
-      <c r="C41" s="329"/>
-      <c r="D41" s="329"/>
-      <c r="E41" s="329"/>
-      <c r="F41" s="329"/>
-      <c r="H41" s="329" t="s">
+      <c r="C41" s="334"/>
+      <c r="D41" s="334"/>
+      <c r="E41" s="334"/>
+      <c r="F41" s="334"/>
+      <c r="H41" s="334" t="s">
         <v>695</v>
       </c>
-      <c r="I41" s="329"/>
-      <c r="J41" s="329"/>
-      <c r="K41" s="329"/>
-      <c r="L41" s="329"/>
+      <c r="I41" s="334"/>
+      <c r="J41" s="334"/>
+      <c r="K41" s="334"/>
+      <c r="L41" s="334"/>
     </row>
     <row r="42" spans="2:28">
       <c r="B42" s="99" t="s">
@@ -15002,7 +15002,7 @@
       <c r="L48" s="3">
         <v>11321</v>
       </c>
-      <c r="W48" s="474"/>
+      <c r="W48" s="330"/>
     </row>
     <row r="49" spans="2:29" ht="15.75">
       <c r="B49" s="3"/>
@@ -15039,7 +15039,7 @@
       <c r="W49" s="102" t="s">
         <v>1094</v>
       </c>
-      <c r="AA49" s="475"/>
+      <c r="AA49" s="331"/>
     </row>
     <row r="50" spans="2:29" ht="15.75">
       <c r="B50" s="3"/>
@@ -15067,7 +15067,7 @@
       <c r="W50" s="102" t="s">
         <v>1095</v>
       </c>
-      <c r="AA50" s="474"/>
+      <c r="AA50" s="330"/>
     </row>
     <row r="51" spans="2:29" ht="15.75">
       <c r="B51" s="3"/>
@@ -15092,7 +15092,7 @@
       <c r="L51" s="3">
         <v>11324</v>
       </c>
-      <c r="AA51" s="475"/>
+      <c r="AA51" s="331"/>
     </row>
     <row r="52" spans="2:29" ht="15.75">
       <c r="B52" s="3"/>
@@ -15106,7 +15106,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="W52" s="102"/>
-      <c r="AA52" s="474"/>
+      <c r="AA52" s="330"/>
     </row>
     <row r="53" spans="2:29">
       <c r="B53" s="3" t="s">
@@ -15188,7 +15188,7 @@
       <c r="L55" s="3">
         <v>11333</v>
       </c>
-      <c r="AC55" s="474" t="s">
+      <c r="AC55" s="330" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -15259,7 +15259,7 @@
       <c r="L58" s="3">
         <v>11341</v>
       </c>
-      <c r="AA58" s="474"/>
+      <c r="AA58" s="330"/>
     </row>
     <row r="59" spans="2:29">
       <c r="B59" s="3"/>
@@ -15357,8 +15357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -15384,39 +15384,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="350" t="s">
         <v>1192</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
-      <c r="H1" s="349"/>
-      <c r="I1" s="349"/>
-      <c r="J1" s="349"/>
-      <c r="K1" s="349"/>
-      <c r="L1" s="350"/>
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="352"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="345" t="s">
+      <c r="A2" s="347" t="s">
         <v>1293</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="347"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="349"/>
       <c r="D2" s="325"/>
-      <c r="E2" s="345" t="s">
+      <c r="E2" s="347" t="s">
         <v>1294</v>
       </c>
-      <c r="F2" s="346"/>
-      <c r="G2" s="347"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="349"/>
       <c r="H2" s="325"/>
-      <c r="I2" s="345" t="s">
+      <c r="I2" s="347" t="s">
         <v>958</v>
       </c>
-      <c r="J2" s="346"/>
-      <c r="K2" s="347"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="349"/>
       <c r="L2" s="117"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1">
@@ -15452,7 +15452,7 @@
       <c r="L3" s="117"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
-      <c r="A4" s="338" t="s">
+      <c r="A4" s="341" t="s">
         <v>325</v>
       </c>
       <c r="B4" s="123" t="s">
@@ -15462,7 +15462,7 @@
         <v>650</v>
       </c>
       <c r="D4" s="248"/>
-      <c r="E4" s="342" t="s">
+      <c r="E4" s="344" t="s">
         <v>1295</v>
       </c>
       <c r="F4" s="123" t="s">
@@ -15472,7 +15472,7 @@
         <v>932</v>
       </c>
       <c r="H4" s="246"/>
-      <c r="I4" s="342" t="s">
+      <c r="I4" s="344" t="s">
         <v>1295</v>
       </c>
       <c r="J4" s="123" t="s">
@@ -15484,7 +15484,7 @@
       <c r="L4" s="117"/>
     </row>
     <row r="5" spans="1:12" ht="18.75">
-      <c r="A5" s="339"/>
+      <c r="A5" s="342"/>
       <c r="B5" s="122" t="s">
         <v>322</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>651</v>
       </c>
       <c r="D5" s="248"/>
-      <c r="E5" s="343"/>
+      <c r="E5" s="345"/>
       <c r="F5" s="122" t="s">
         <v>906</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>933</v>
       </c>
       <c r="H5" s="246"/>
-      <c r="I5" s="343"/>
+      <c r="I5" s="345"/>
       <c r="J5" s="122" t="s">
         <v>996</v>
       </c>
@@ -15510,7 +15510,7 @@
       <c r="L5" s="117"/>
     </row>
     <row r="6" spans="1:12" ht="18.75">
-      <c r="A6" s="339"/>
+      <c r="A6" s="342"/>
       <c r="B6" s="122" t="s">
         <v>323</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>652</v>
       </c>
       <c r="D6" s="248"/>
-      <c r="E6" s="343"/>
+      <c r="E6" s="345"/>
       <c r="F6" s="122" t="s">
         <v>907</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>934</v>
       </c>
       <c r="H6" s="246"/>
-      <c r="I6" s="343"/>
+      <c r="I6" s="345"/>
       <c r="J6" s="122" t="s">
         <v>997</v>
       </c>
@@ -15536,7 +15536,7 @@
       <c r="L6" s="117"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A7" s="340"/>
+      <c r="A7" s="343"/>
       <c r="B7" s="126" t="s">
         <v>324</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>653</v>
       </c>
       <c r="D7" s="248"/>
-      <c r="E7" s="344"/>
+      <c r="E7" s="346"/>
       <c r="F7" s="126" t="s">
         <v>908</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>935</v>
       </c>
       <c r="H7" s="246"/>
-      <c r="I7" s="344"/>
+      <c r="I7" s="346"/>
       <c r="J7" s="126" t="s">
         <v>998</v>
       </c>
@@ -15562,7 +15562,7 @@
       <c r="L7" s="117"/>
     </row>
     <row r="8" spans="1:12" ht="18.75">
-      <c r="A8" s="338" t="s">
+      <c r="A8" s="341" t="s">
         <v>613</v>
       </c>
       <c r="B8" s="123" t="s">
@@ -15572,7 +15572,7 @@
         <v>654</v>
       </c>
       <c r="D8" s="248"/>
-      <c r="E8" s="342" t="s">
+      <c r="E8" s="344" t="s">
         <v>962</v>
       </c>
       <c r="F8" s="123" t="s">
@@ -15582,7 +15582,7 @@
         <v>936</v>
       </c>
       <c r="H8" s="246"/>
-      <c r="I8" s="342" t="s">
+      <c r="I8" s="344" t="s">
         <v>962</v>
       </c>
       <c r="J8" s="123" t="s">
@@ -15594,7 +15594,7 @@
       <c r="L8" s="117"/>
     </row>
     <row r="9" spans="1:12" ht="18.75">
-      <c r="A9" s="339"/>
+      <c r="A9" s="342"/>
       <c r="B9" s="122" t="s">
         <v>604</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>655</v>
       </c>
       <c r="D9" s="248"/>
-      <c r="E9" s="343"/>
+      <c r="E9" s="345"/>
       <c r="F9" s="122" t="s">
         <v>910</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>937</v>
       </c>
       <c r="H9" s="246"/>
-      <c r="I9" s="343"/>
+      <c r="I9" s="345"/>
       <c r="J9" s="122" t="s">
         <v>999</v>
       </c>
@@ -15620,7 +15620,7 @@
       <c r="L9" s="117"/>
     </row>
     <row r="10" spans="1:12" ht="18.75">
-      <c r="A10" s="339"/>
+      <c r="A10" s="342"/>
       <c r="B10" s="122" t="s">
         <v>605</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>656</v>
       </c>
       <c r="D10" s="248"/>
-      <c r="E10" s="343"/>
+      <c r="E10" s="345"/>
       <c r="F10" s="122" t="s">
         <v>912</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>938</v>
       </c>
       <c r="H10" s="246"/>
-      <c r="I10" s="343"/>
+      <c r="I10" s="345"/>
       <c r="J10" s="122" t="s">
         <v>1000</v>
       </c>
@@ -15646,7 +15646,7 @@
       <c r="L10" s="117"/>
     </row>
     <row r="11" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A11" s="340"/>
+      <c r="A11" s="343"/>
       <c r="B11" s="126" t="s">
         <v>606</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>657</v>
       </c>
       <c r="D11" s="248"/>
-      <c r="E11" s="344"/>
+      <c r="E11" s="346"/>
       <c r="F11" s="126" t="s">
         <v>913</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>939</v>
       </c>
       <c r="H11" s="246"/>
-      <c r="I11" s="344"/>
+      <c r="I11" s="346"/>
       <c r="J11" s="126" t="s">
         <v>1001</v>
       </c>
@@ -15672,7 +15672,7 @@
       <c r="L11" s="117"/>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="A12" s="338" t="s">
+      <c r="A12" s="341" t="s">
         <v>611</v>
       </c>
       <c r="B12" s="123" t="s">
@@ -15682,7 +15682,7 @@
         <v>658</v>
       </c>
       <c r="D12" s="248"/>
-      <c r="E12" s="342" t="s">
+      <c r="E12" s="344" t="s">
         <v>1296</v>
       </c>
       <c r="F12" s="123" t="s">
@@ -15692,7 +15692,7 @@
         <v>940</v>
       </c>
       <c r="H12" s="246"/>
-      <c r="I12" s="342" t="s">
+      <c r="I12" s="344" t="s">
         <v>1296</v>
       </c>
       <c r="J12" s="123" t="s">
@@ -15704,7 +15704,7 @@
       <c r="L12" s="117"/>
     </row>
     <row r="13" spans="1:12" ht="18.75">
-      <c r="A13" s="339"/>
+      <c r="A13" s="342"/>
       <c r="B13" s="122" t="s">
         <v>608</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>659</v>
       </c>
       <c r="D13" s="248"/>
-      <c r="E13" s="343"/>
+      <c r="E13" s="345"/>
       <c r="F13" s="122" t="s">
         <v>915</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>941</v>
       </c>
       <c r="H13" s="246"/>
-      <c r="I13" s="343"/>
+      <c r="I13" s="345"/>
       <c r="J13" s="122" t="s">
         <v>1003</v>
       </c>
@@ -15730,7 +15730,7 @@
       <c r="L13" s="117"/>
     </row>
     <row r="14" spans="1:12" ht="18.75">
-      <c r="A14" s="339"/>
+      <c r="A14" s="342"/>
       <c r="B14" s="122" t="s">
         <v>609</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>660</v>
       </c>
       <c r="D14" s="248"/>
-      <c r="E14" s="343"/>
+      <c r="E14" s="345"/>
       <c r="F14" s="122" t="s">
         <v>916</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>942</v>
       </c>
       <c r="H14" s="246"/>
-      <c r="I14" s="343"/>
+      <c r="I14" s="345"/>
       <c r="J14" s="122" t="s">
         <v>1004</v>
       </c>
@@ -15756,7 +15756,7 @@
       <c r="L14" s="117"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="340"/>
+      <c r="A15" s="343"/>
       <c r="B15" s="126" t="s">
         <v>610</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>661</v>
       </c>
       <c r="D15" s="248"/>
-      <c r="E15" s="344"/>
+      <c r="E15" s="346"/>
       <c r="F15" s="126" t="s">
         <v>917</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>943</v>
       </c>
       <c r="H15" s="246"/>
-      <c r="I15" s="344"/>
+      <c r="I15" s="346"/>
       <c r="J15" s="126" t="s">
         <v>1005</v>
       </c>
@@ -15782,7 +15782,7 @@
       <c r="L15" s="117"/>
     </row>
     <row r="16" spans="1:12" ht="18.75">
-      <c r="A16" s="338" t="s">
+      <c r="A16" s="341" t="s">
         <v>1258</v>
       </c>
       <c r="B16" s="123" t="s">
@@ -15792,7 +15792,7 @@
         <v>662</v>
       </c>
       <c r="D16" s="248"/>
-      <c r="E16" s="342" t="s">
+      <c r="E16" s="344" t="s">
         <v>1297</v>
       </c>
       <c r="F16" s="123" t="s">
@@ -15802,7 +15802,7 @@
         <v>944</v>
       </c>
       <c r="H16" s="246"/>
-      <c r="I16" s="342" t="s">
+      <c r="I16" s="344" t="s">
         <v>1297</v>
       </c>
       <c r="J16" s="123" t="s">
@@ -15814,7 +15814,7 @@
       <c r="L16" s="117"/>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="339"/>
+      <c r="A17" s="342"/>
       <c r="B17" s="122" t="s">
         <v>1260</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>663</v>
       </c>
       <c r="D17" s="248"/>
-      <c r="E17" s="343"/>
+      <c r="E17" s="345"/>
       <c r="F17" s="122" t="s">
         <v>919</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>945</v>
       </c>
       <c r="H17" s="246"/>
-      <c r="I17" s="343"/>
+      <c r="I17" s="345"/>
       <c r="J17" s="122" t="s">
         <v>1007</v>
       </c>
@@ -15840,7 +15840,7 @@
       <c r="L17" s="117"/>
     </row>
     <row r="18" spans="1:12" ht="18.75">
-      <c r="A18" s="339"/>
+      <c r="A18" s="342"/>
       <c r="B18" s="122" t="s">
         <v>1261</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>664</v>
       </c>
       <c r="D18" s="248"/>
-      <c r="E18" s="343"/>
+      <c r="E18" s="345"/>
       <c r="F18" s="122" t="s">
         <v>920</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>946</v>
       </c>
       <c r="H18" s="246"/>
-      <c r="I18" s="343"/>
+      <c r="I18" s="345"/>
       <c r="J18" s="122" t="s">
         <v>1008</v>
       </c>
@@ -15866,7 +15866,7 @@
       <c r="L18" s="117"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A19" s="340"/>
+      <c r="A19" s="343"/>
       <c r="B19" s="126" t="s">
         <v>1262</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="248"/>
-      <c r="E19" s="344"/>
+      <c r="E19" s="346"/>
       <c r="F19" s="126" t="s">
         <v>921</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>947</v>
       </c>
       <c r="H19" s="246"/>
-      <c r="I19" s="344"/>
+      <c r="I19" s="346"/>
       <c r="J19" s="126" t="s">
         <v>1009</v>
       </c>
@@ -15892,7 +15892,7 @@
       <c r="L19" s="117"/>
     </row>
     <row r="20" spans="1:12" ht="18.75">
-      <c r="A20" s="338" t="s">
+      <c r="A20" s="341" t="s">
         <v>1263</v>
       </c>
       <c r="B20" s="123" t="s">
@@ -15902,7 +15902,7 @@
         <v>1268</v>
       </c>
       <c r="D20" s="246"/>
-      <c r="E20" s="342" t="s">
+      <c r="E20" s="344" t="s">
         <v>1298</v>
       </c>
       <c r="F20" s="123" t="s">
@@ -15912,7 +15912,7 @@
         <v>948</v>
       </c>
       <c r="H20" s="246"/>
-      <c r="I20" s="342" t="s">
+      <c r="I20" s="344" t="s">
         <v>1298</v>
       </c>
       <c r="J20" s="123" t="s">
@@ -15924,7 +15924,7 @@
       <c r="L20" s="117"/>
     </row>
     <row r="21" spans="1:12" ht="18.75">
-      <c r="A21" s="339"/>
+      <c r="A21" s="342"/>
       <c r="B21" s="122" t="s">
         <v>1265</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>1269</v>
       </c>
       <c r="D21" s="246"/>
-      <c r="E21" s="343"/>
+      <c r="E21" s="345"/>
       <c r="F21" s="122" t="s">
         <v>923</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>949</v>
       </c>
       <c r="H21" s="246"/>
-      <c r="I21" s="343"/>
+      <c r="I21" s="345"/>
       <c r="J21" s="122" t="s">
         <v>1011</v>
       </c>
@@ -15950,7 +15950,7 @@
       <c r="L21" s="117"/>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="339"/>
+      <c r="A22" s="342"/>
       <c r="B22" s="122" t="s">
         <v>1266</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>1270</v>
       </c>
       <c r="D22" s="246"/>
-      <c r="E22" s="343"/>
+      <c r="E22" s="345"/>
       <c r="F22" s="122" t="s">
         <v>924</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>950</v>
       </c>
       <c r="H22" s="246"/>
-      <c r="I22" s="343"/>
+      <c r="I22" s="345"/>
       <c r="J22" s="122" t="s">
         <v>1012</v>
       </c>
@@ -15976,7 +15976,7 @@
       <c r="L22" s="117"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A23" s="340"/>
+      <c r="A23" s="343"/>
       <c r="B23" s="126" t="s">
         <v>1267</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>1271</v>
       </c>
       <c r="D23" s="246"/>
-      <c r="E23" s="344"/>
+      <c r="E23" s="346"/>
       <c r="F23" s="126" t="s">
         <v>925</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>951</v>
       </c>
       <c r="H23" s="246"/>
-      <c r="I23" s="344"/>
+      <c r="I23" s="346"/>
       <c r="J23" s="126" t="s">
         <v>1013</v>
       </c>
@@ -16002,7 +16002,7 @@
       <c r="L23" s="117"/>
     </row>
     <row r="24" spans="1:12" ht="18.75">
-      <c r="A24" s="338" t="s">
+      <c r="A24" s="341" t="s">
         <v>1281</v>
       </c>
       <c r="B24" s="123" t="s">
@@ -16012,7 +16012,7 @@
         <v>1272</v>
       </c>
       <c r="D24" s="246"/>
-      <c r="E24" s="342" t="s">
+      <c r="E24" s="344" t="s">
         <v>1299</v>
       </c>
       <c r="F24" s="123" t="s">
@@ -16022,7 +16022,7 @@
         <v>952</v>
       </c>
       <c r="H24" s="246"/>
-      <c r="I24" s="342" t="s">
+      <c r="I24" s="344" t="s">
         <v>1299</v>
       </c>
       <c r="J24" s="123" t="s">
@@ -16034,7 +16034,7 @@
       <c r="L24" s="117"/>
     </row>
     <row r="25" spans="1:12" ht="18.75">
-      <c r="A25" s="339"/>
+      <c r="A25" s="342"/>
       <c r="B25" s="122" t="s">
         <v>1283</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>1273</v>
       </c>
       <c r="D25" s="246"/>
-      <c r="E25" s="343"/>
+      <c r="E25" s="345"/>
       <c r="F25" s="122" t="s">
         <v>927</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>953</v>
       </c>
       <c r="H25" s="246"/>
-      <c r="I25" s="343"/>
+      <c r="I25" s="345"/>
       <c r="J25" s="122" t="s">
         <v>1015</v>
       </c>
@@ -16060,7 +16060,7 @@
       <c r="L25" s="117"/>
     </row>
     <row r="26" spans="1:12" ht="18.75">
-      <c r="A26" s="339"/>
+      <c r="A26" s="342"/>
       <c r="B26" s="122" t="s">
         <v>1284</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>1274</v>
       </c>
       <c r="D26" s="246"/>
-      <c r="E26" s="343"/>
+      <c r="E26" s="345"/>
       <c r="F26" s="122" t="s">
         <v>928</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>954</v>
       </c>
       <c r="H26" s="246"/>
-      <c r="I26" s="343"/>
+      <c r="I26" s="345"/>
       <c r="J26" s="122" t="s">
         <v>1016</v>
       </c>
@@ -16086,7 +16086,7 @@
       <c r="L26" s="117"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A27" s="340"/>
+      <c r="A27" s="343"/>
       <c r="B27" s="126" t="s">
         <v>1285</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>1275</v>
       </c>
       <c r="D27" s="246"/>
-      <c r="E27" s="344"/>
+      <c r="E27" s="346"/>
       <c r="F27" s="126" t="s">
         <v>929</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>955</v>
       </c>
       <c r="H27" s="246"/>
-      <c r="I27" s="344"/>
+      <c r="I27" s="346"/>
       <c r="J27" s="126" t="s">
         <v>1017</v>
       </c>
@@ -16112,7 +16112,7 @@
       <c r="L27" s="117"/>
     </row>
     <row r="28" spans="1:12" ht="18.75">
-      <c r="A28" s="338" t="s">
+      <c r="A28" s="341" t="s">
         <v>1280</v>
       </c>
       <c r="B28" s="123" t="s">
@@ -16122,7 +16122,7 @@
         <v>1276</v>
       </c>
       <c r="D28" s="246"/>
-      <c r="E28" s="342" t="s">
+      <c r="E28" s="344" t="s">
         <v>1300</v>
       </c>
       <c r="F28" s="123" t="s">
@@ -16132,7 +16132,7 @@
         <v>956</v>
       </c>
       <c r="H28" s="246"/>
-      <c r="I28" s="342" t="s">
+      <c r="I28" s="344" t="s">
         <v>1300</v>
       </c>
       <c r="J28" s="123" t="s">
@@ -16144,7 +16144,7 @@
       <c r="L28" s="117"/>
     </row>
     <row r="29" spans="1:12" ht="18.75">
-      <c r="A29" s="339"/>
+      <c r="A29" s="342"/>
       <c r="B29" s="122" t="s">
         <v>1287</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>1277</v>
       </c>
       <c r="D29" s="248"/>
-      <c r="E29" s="343"/>
+      <c r="E29" s="345"/>
       <c r="F29" s="122" t="s">
         <v>931</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>957</v>
       </c>
       <c r="H29" s="246"/>
-      <c r="I29" s="343"/>
+      <c r="I29" s="345"/>
       <c r="J29" s="122" t="s">
         <v>1019</v>
       </c>
@@ -16170,7 +16170,7 @@
       <c r="L29" s="117"/>
     </row>
     <row r="30" spans="1:12" ht="18.75">
-      <c r="A30" s="339"/>
+      <c r="A30" s="342"/>
       <c r="B30" s="122" t="s">
         <v>1288</v>
       </c>
@@ -16178,13 +16178,13 @@
         <v>1278</v>
       </c>
       <c r="D30" s="248"/>
-      <c r="E30" s="343"/>
+      <c r="E30" s="345"/>
       <c r="F30" s="122" t="s">
         <v>1336</v>
       </c>
       <c r="G30" s="188"/>
       <c r="H30" s="246"/>
-      <c r="I30" s="343"/>
+      <c r="I30" s="345"/>
       <c r="J30" s="122" t="s">
         <v>1020</v>
       </c>
@@ -16194,7 +16194,7 @@
       <c r="L30" s="117"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A31" s="340"/>
+      <c r="A31" s="343"/>
       <c r="B31" s="126" t="s">
         <v>1289</v>
       </c>
@@ -16202,13 +16202,13 @@
         <v>1279</v>
       </c>
       <c r="D31" s="248"/>
-      <c r="E31" s="344"/>
+      <c r="E31" s="346"/>
       <c r="F31" s="126" t="s">
         <v>1337</v>
       </c>
       <c r="G31" s="189"/>
       <c r="H31" s="246"/>
-      <c r="I31" s="344"/>
+      <c r="I31" s="346"/>
       <c r="J31" s="126" t="s">
         <v>1021</v>
       </c>
@@ -16218,7 +16218,7 @@
       <c r="L31" s="117"/>
     </row>
     <row r="32" spans="1:12" ht="18.75">
-      <c r="A32" s="341"/>
+      <c r="A32" s="354"/>
       <c r="B32" s="246"/>
       <c r="C32" s="248"/>
       <c r="D32" s="248"/>
@@ -16232,7 +16232,7 @@
       <c r="L32" s="117"/>
     </row>
     <row r="33" spans="1:12" ht="18.75">
-      <c r="A33" s="341"/>
+      <c r="A33" s="354"/>
       <c r="B33" s="246"/>
       <c r="C33" s="248"/>
       <c r="D33" s="248"/>
@@ -16246,7 +16246,7 @@
       <c r="L33" s="117"/>
     </row>
     <row r="34" spans="1:12" ht="18.75">
-      <c r="A34" s="341"/>
+      <c r="A34" s="354"/>
       <c r="B34" s="246"/>
       <c r="C34" s="248"/>
       <c r="D34" s="248"/>
@@ -16260,7 +16260,7 @@
       <c r="L34" s="117"/>
     </row>
     <row r="35" spans="1:12" ht="18.75">
-      <c r="A35" s="341"/>
+      <c r="A35" s="354"/>
       <c r="B35" s="246"/>
       <c r="C35" s="248"/>
       <c r="D35" s="248"/>
@@ -16274,7 +16274,7 @@
       <c r="L35" s="117"/>
     </row>
     <row r="36" spans="1:12" ht="18.75">
-      <c r="A36" s="341"/>
+      <c r="A36" s="354"/>
       <c r="B36" s="246"/>
       <c r="C36" s="248"/>
       <c r="D36" s="248"/>
@@ -16288,7 +16288,7 @@
       <c r="L36" s="117"/>
     </row>
     <row r="37" spans="1:12" ht="18.75">
-      <c r="A37" s="341"/>
+      <c r="A37" s="354"/>
       <c r="B37" s="246"/>
       <c r="C37" s="248"/>
       <c r="D37" s="248"/>
@@ -16302,7 +16302,7 @@
       <c r="L37" s="117"/>
     </row>
     <row r="38" spans="1:12" ht="18.75">
-      <c r="A38" s="341"/>
+      <c r="A38" s="354"/>
       <c r="B38" s="246"/>
       <c r="C38" s="248"/>
       <c r="D38" s="248"/>
@@ -16316,15 +16316,15 @@
       <c r="L38" s="117"/>
     </row>
     <row r="39" spans="1:12" ht="18.75">
-      <c r="A39" s="341"/>
+      <c r="A39" s="354"/>
       <c r="B39" s="246"/>
       <c r="C39" s="248"/>
       <c r="D39" s="248"/>
-      <c r="E39" s="337"/>
+      <c r="E39" s="353"/>
       <c r="F39" s="246"/>
       <c r="G39" s="246"/>
       <c r="H39" s="324"/>
-      <c r="I39" s="337"/>
+      <c r="I39" s="353"/>
       <c r="J39" s="246"/>
       <c r="K39" s="246"/>
       <c r="L39" s="117"/>
@@ -16334,11 +16334,11 @@
       <c r="B40" s="246"/>
       <c r="C40" s="247"/>
       <c r="D40" s="248"/>
-      <c r="E40" s="337"/>
+      <c r="E40" s="353"/>
       <c r="F40" s="246"/>
       <c r="G40" s="246"/>
       <c r="H40" s="324"/>
-      <c r="I40" s="337"/>
+      <c r="I40" s="353"/>
       <c r="J40" s="246"/>
       <c r="K40" s="246"/>
       <c r="L40" s="117"/>
@@ -16348,11 +16348,11 @@
       <c r="B41" s="246"/>
       <c r="C41" s="248"/>
       <c r="D41" s="248"/>
-      <c r="E41" s="337"/>
+      <c r="E41" s="353"/>
       <c r="F41" s="246"/>
       <c r="G41" s="246"/>
       <c r="H41" s="324"/>
-      <c r="I41" s="337"/>
+      <c r="I41" s="353"/>
       <c r="J41" s="246"/>
       <c r="K41" s="246"/>
       <c r="L41" s="117"/>
@@ -16362,11 +16362,11 @@
       <c r="B42" s="246"/>
       <c r="C42" s="248"/>
       <c r="D42" s="248"/>
-      <c r="E42" s="337"/>
+      <c r="E42" s="353"/>
       <c r="F42" s="246"/>
       <c r="G42" s="246"/>
       <c r="H42" s="324"/>
-      <c r="I42" s="337"/>
+      <c r="I42" s="353"/>
       <c r="J42" s="246"/>
       <c r="K42" s="246"/>
       <c r="L42" s="117"/>
@@ -16415,18 +16415,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="I8:I11"/>
@@ -16437,13 +16432,18 @@
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16474,40 +16474,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="355" t="s">
         <v>1211</v>
       </c>
-      <c r="B1" s="352"/>
-      <c r="C1" s="352"/>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="353"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="357"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="354"/>
-      <c r="B2" s="355"/>
-      <c r="C2" s="355"/>
-      <c r="D2" s="355"/>
-      <c r="E2" s="355"/>
-      <c r="F2" s="355"/>
-      <c r="G2" s="355"/>
-      <c r="H2" s="356"/>
+      <c r="A2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="360"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="361" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358" t="s">
+      <c r="B3" s="362"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="358"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="359"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
+      <c r="H3" s="363"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="10">
@@ -17367,28 +17367,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A1" s="369" t="s">
+      <c r="A1" s="373" t="s">
         <v>1335</v>
       </c>
-      <c r="B1" s="370"/>
-      <c r="C1" s="370"/>
-      <c r="D1" s="370"/>
-      <c r="E1" s="370"/>
-      <c r="F1" s="370"/>
-      <c r="G1" s="370"/>
-      <c r="H1" s="371"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="375"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A2" s="363" t="s">
+      <c r="A2" s="367" t="s">
         <v>1051</v>
       </c>
-      <c r="B2" s="364"/>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="365"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="368"/>
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="369"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="306"/>
@@ -17746,16 +17746,16 @@
       <c r="H17" s="312"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A18" s="366" t="s">
+      <c r="A18" s="370" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="367"/>
-      <c r="C18" s="367"/>
-      <c r="D18" s="367"/>
-      <c r="E18" s="367"/>
-      <c r="F18" s="367"/>
-      <c r="G18" s="367"/>
-      <c r="H18" s="368"/>
+      <c r="B18" s="371"/>
+      <c r="C18" s="371"/>
+      <c r="D18" s="371"/>
+      <c r="E18" s="371"/>
+      <c r="F18" s="371"/>
+      <c r="G18" s="371"/>
+      <c r="H18" s="372"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="313"/>
@@ -18043,16 +18043,16 @@
       <c r="H30" s="317"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A31" s="363" t="s">
+      <c r="A31" s="367" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="364"/>
-      <c r="C31" s="364"/>
-      <c r="D31" s="364"/>
-      <c r="E31" s="364"/>
-      <c r="F31" s="364"/>
-      <c r="G31" s="364"/>
-      <c r="H31" s="365"/>
+      <c r="B31" s="368"/>
+      <c r="C31" s="368"/>
+      <c r="D31" s="368"/>
+      <c r="E31" s="368"/>
+      <c r="F31" s="368"/>
+      <c r="G31" s="368"/>
+      <c r="H31" s="369"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="306"/>
@@ -18279,18 +18279,18 @@
       <c r="H43" s="216"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="360" t="s">
+      <c r="A44" s="364" t="s">
         <v>1062</v>
       </c>
-      <c r="B44" s="361"/>
-      <c r="C44" s="361"/>
-      <c r="D44" s="362"/>
-      <c r="E44" s="372" t="s">
+      <c r="B44" s="365"/>
+      <c r="C44" s="365"/>
+      <c r="D44" s="366"/>
+      <c r="E44" s="376" t="s">
         <v>1062</v>
       </c>
-      <c r="F44" s="361"/>
-      <c r="G44" s="361"/>
-      <c r="H44" s="373"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="365"/>
+      <c r="H44" s="377"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="174"/>
@@ -18376,54 +18376,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="381" t="s">
         <v>1301</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="395"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="383"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="396"/>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="397"/>
-      <c r="H2" s="398"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="386"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="399" t="s">
+      <c r="A3" s="387" t="s">
         <v>1129</v>
       </c>
-      <c r="B3" s="400"/>
-      <c r="C3" s="400"/>
-      <c r="D3" s="401"/>
-      <c r="E3" s="402" t="s">
+      <c r="B3" s="388"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="390" t="s">
         <v>1130</v>
       </c>
-      <c r="F3" s="400"/>
-      <c r="G3" s="400"/>
-      <c r="H3" s="403"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="391"/>
     </row>
     <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="404" t="s">
+      <c r="A4" s="392" t="s">
         <v>1131</v>
       </c>
-      <c r="B4" s="405"/>
-      <c r="C4" s="405"/>
-      <c r="D4" s="406"/>
-      <c r="E4" s="407" t="s">
+      <c r="B4" s="393"/>
+      <c r="C4" s="393"/>
+      <c r="D4" s="394"/>
+      <c r="E4" s="395" t="s">
         <v>1132</v>
       </c>
-      <c r="F4" s="405"/>
-      <c r="G4" s="405"/>
-      <c r="H4" s="408"/>
+      <c r="F4" s="393"/>
+      <c r="G4" s="393"/>
+      <c r="H4" s="396"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" thickBot="1">
       <c r="A5" s="196">
@@ -18902,12 +18902,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A25" s="390" t="s">
+      <c r="A25" s="378" t="s">
         <v>1149</v>
       </c>
-      <c r="B25" s="391"/>
-      <c r="C25" s="391"/>
-      <c r="D25" s="392"/>
+      <c r="B25" s="379"/>
+      <c r="C25" s="379"/>
+      <c r="D25" s="380"/>
       <c r="E25" s="197">
         <v>21</v>
       </c>
@@ -18922,14 +18922,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A26" s="380" t="s">
+      <c r="A26" s="403" t="s">
         <v>1122</v>
       </c>
-      <c r="B26" s="381"/>
-      <c r="C26" s="378" t="s">
+      <c r="B26" s="404"/>
+      <c r="C26" s="401" t="s">
         <v>1121</v>
       </c>
-      <c r="D26" s="379"/>
+      <c r="D26" s="402"/>
       <c r="E26" s="197">
         <v>22</v>
       </c>
@@ -18944,14 +18944,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A27" s="382" t="s">
+      <c r="A27" s="405" t="s">
         <v>1111</v>
       </c>
-      <c r="B27" s="383"/>
-      <c r="C27" s="386" t="s">
+      <c r="B27" s="406"/>
+      <c r="C27" s="409" t="s">
         <v>1304</v>
       </c>
-      <c r="D27" s="387"/>
+      <c r="D27" s="410"/>
       <c r="E27" s="197">
         <v>23</v>
       </c>
@@ -18966,14 +18966,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A28" s="382" t="s">
+      <c r="A28" s="405" t="s">
         <v>1116</v>
       </c>
-      <c r="B28" s="383"/>
-      <c r="C28" s="388" t="s">
+      <c r="B28" s="406"/>
+      <c r="C28" s="411" t="s">
         <v>1120</v>
       </c>
-      <c r="D28" s="389"/>
+      <c r="D28" s="412"/>
       <c r="E28" s="197">
         <v>24</v>
       </c>
@@ -18988,10 +18988,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A29" s="382" t="s">
+      <c r="A29" s="405" t="s">
         <v>374</v>
       </c>
-      <c r="B29" s="383"/>
+      <c r="B29" s="406"/>
       <c r="C29" s="300" t="s">
         <v>1310</v>
       </c>
@@ -19010,10 +19010,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A30" s="382" t="s">
+      <c r="A30" s="405" t="s">
         <v>365</v>
       </c>
-      <c r="B30" s="383"/>
+      <c r="B30" s="406"/>
       <c r="C30" s="300" t="s">
         <v>1311</v>
       </c>
@@ -19032,10 +19032,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A31" s="382" t="s">
+      <c r="A31" s="405" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="383"/>
+      <c r="B31" s="406"/>
       <c r="C31" s="300" t="s">
         <v>1312</v>
       </c>
@@ -19054,14 +19054,14 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A32" s="382" t="s">
+      <c r="A32" s="405" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="383"/>
-      <c r="C32" s="374" t="s">
+      <c r="B32" s="406"/>
+      <c r="C32" s="397" t="s">
         <v>1313</v>
       </c>
-      <c r="D32" s="375"/>
+      <c r="D32" s="398"/>
       <c r="E32" s="197">
         <v>28</v>
       </c>
@@ -19076,14 +19076,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A33" s="382" t="s">
+      <c r="A33" s="405" t="s">
         <v>1103</v>
       </c>
-      <c r="B33" s="383"/>
-      <c r="C33" s="374" t="s">
+      <c r="B33" s="406"/>
+      <c r="C33" s="397" t="s">
         <v>1314</v>
       </c>
-      <c r="D33" s="375"/>
+      <c r="D33" s="398"/>
       <c r="E33" s="197">
         <v>29</v>
       </c>
@@ -19098,14 +19098,14 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A34" s="384" t="s">
+      <c r="A34" s="407" t="s">
         <v>1100</v>
       </c>
-      <c r="B34" s="385"/>
-      <c r="C34" s="376" t="s">
+      <c r="B34" s="408"/>
+      <c r="C34" s="399" t="s">
         <v>1315</v>
       </c>
-      <c r="D34" s="377"/>
+      <c r="D34" s="400"/>
       <c r="E34" s="197">
         <v>30</v>
       </c>
@@ -19121,12 +19121,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -19142,6 +19136,12 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19168,28 +19168,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="409" t="s">
+      <c r="A1" s="413" t="s">
         <v>1302</v>
       </c>
-      <c r="B1" s="410"/>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="411"/>
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="415"/>
       <c r="G1" s="284"/>
       <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="412" t="s">
+      <c r="A2" s="416" t="s">
         <v>785</v>
       </c>
-      <c r="B2" s="413"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="412" t="s">
+      <c r="B2" s="417"/>
+      <c r="C2" s="418"/>
+      <c r="D2" s="416" t="s">
         <v>786</v>
       </c>
-      <c r="E2" s="413"/>
-      <c r="F2" s="414"/>
+      <c r="E2" s="417"/>
+      <c r="F2" s="418"/>
       <c r="G2" s="284"/>
       <c r="H2" s="163"/>
     </row>
@@ -19213,7 +19213,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="284"/>
-      <c r="H3" s="415" t="s">
+      <c r="H3" s="419" t="s">
         <v>789</v>
       </c>
     </row>
@@ -19237,7 +19237,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="284"/>
-      <c r="H4" s="416"/>
+      <c r="H4" s="420"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="255">
@@ -19259,7 +19259,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="284"/>
-      <c r="H5" s="416"/>
+      <c r="H5" s="420"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="257">
@@ -19281,7 +19281,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="284"/>
-      <c r="H6" s="416"/>
+      <c r="H6" s="420"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="257">
@@ -19303,7 +19303,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="284"/>
-      <c r="H7" s="416"/>
+      <c r="H7" s="420"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="259">
@@ -19325,7 +19325,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="284"/>
-      <c r="H8" s="416"/>
+      <c r="H8" s="420"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="259">
@@ -19347,7 +19347,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="284"/>
-      <c r="H9" s="416"/>
+      <c r="H9" s="420"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="261">
@@ -19369,7 +19369,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="284"/>
-      <c r="H10" s="417"/>
+      <c r="H10" s="421"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A11" s="274">
@@ -19391,7 +19391,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="284"/>
-      <c r="H11" s="418" t="s">
+      <c r="H11" s="422" t="s">
         <v>795</v>
       </c>
     </row>
@@ -19415,7 +19415,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="284"/>
-      <c r="H12" s="419"/>
+      <c r="H12" s="423"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="263">
@@ -19437,7 +19437,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="284"/>
-      <c r="H13" s="419"/>
+      <c r="H13" s="423"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="263">
@@ -19459,7 +19459,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="284"/>
-      <c r="H14" s="419"/>
+      <c r="H14" s="423"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A15" s="265">
@@ -19481,7 +19481,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="284"/>
-      <c r="H15" s="419"/>
+      <c r="H15" s="423"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="265">
@@ -19503,7 +19503,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="284"/>
-      <c r="H16" s="419"/>
+      <c r="H16" s="423"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="265">
@@ -19525,7 +19525,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="284"/>
-      <c r="H17" s="419"/>
+      <c r="H17" s="423"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="265">
@@ -19547,7 +19547,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="284"/>
-      <c r="H18" s="419"/>
+      <c r="H18" s="423"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="265">
@@ -19569,7 +19569,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="284"/>
-      <c r="H19" s="419"/>
+      <c r="H19" s="423"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="267">
@@ -19591,7 +19591,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="284"/>
-      <c r="H20" s="419"/>
+      <c r="H20" s="423"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="267">
@@ -19613,7 +19613,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="284"/>
-      <c r="H21" s="419"/>
+      <c r="H21" s="423"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="269">
@@ -19635,7 +19635,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="284"/>
-      <c r="H22" s="420"/>
+      <c r="H22" s="424"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1"/>
@@ -19698,40 +19698,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="431" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="428"/>
-      <c r="G1" s="428"/>
-      <c r="H1" s="429"/>
+      <c r="B1" s="432"/>
+      <c r="C1" s="432"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="433"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="430"/>
-      <c r="B2" s="431"/>
-      <c r="C2" s="431"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="432"/>
+      <c r="A2" s="434"/>
+      <c r="B2" s="435"/>
+      <c r="C2" s="435"/>
+      <c r="D2" s="435"/>
+      <c r="E2" s="435"/>
+      <c r="F2" s="435"/>
+      <c r="G2" s="435"/>
+      <c r="H2" s="436"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="425" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="422"/>
-      <c r="C3" s="422"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="421" t="s">
+      <c r="B3" s="426"/>
+      <c r="C3" s="426"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="425" t="s">
         <v>314</v>
       </c>
-      <c r="F3" s="422"/>
-      <c r="G3" s="422"/>
-      <c r="H3" s="423"/>
+      <c r="F3" s="426"/>
+      <c r="G3" s="426"/>
+      <c r="H3" s="427"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="75">
@@ -19948,18 +19948,18 @@
       <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="424" t="s">
+      <c r="A22" s="428" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="425"/>
-      <c r="C22" s="425"/>
-      <c r="D22" s="426"/>
-      <c r="E22" s="424" t="s">
+      <c r="B22" s="429"/>
+      <c r="C22" s="429"/>
+      <c r="D22" s="430"/>
+      <c r="E22" s="428" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="425"/>
-      <c r="G22" s="425"/>
-      <c r="H22" s="426"/>
+      <c r="F22" s="429"/>
+      <c r="G22" s="429"/>
+      <c r="H22" s="430"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="60">
@@ -20236,40 +20236,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="355" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="352"/>
-      <c r="C1" s="352"/>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="353"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="357"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="354"/>
-      <c r="B2" s="355"/>
-      <c r="C2" s="355"/>
-      <c r="D2" s="355"/>
-      <c r="E2" s="355"/>
-      <c r="F2" s="355"/>
-      <c r="G2" s="355"/>
-      <c r="H2" s="356"/>
+      <c r="A2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="360"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="361" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358" t="s">
+      <c r="B3" s="362"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="358"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="359"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
+      <c r="H3" s="363"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="10">
